--- a/spazio_stati.xlsx
+++ b/spazio_stati.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>95.61294423578325</v>
+        <v>92.07859402434674</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>112.1829442357833</v>
+        <v>101.5785940243467</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>144.3993582605025</v>
+        <v>115.1284518538303</v>
       </c>
     </row>
     <row r="9">
@@ -1457,7 +1457,7 @@
         <v>81.52</v>
       </c>
       <c r="O30" t="n">
-        <v>89.61294423578325</v>
+        <v>86.07859402434674</v>
       </c>
     </row>
     <row r="31">
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>89.61294423578325</v>
+        <v>86.07859402434674</v>
       </c>
       <c r="O31" t="n">
-        <v>89.61294423578325</v>
+        <v>86.07859402434674</v>
       </c>
     </row>
     <row r="32">
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>89.61294423578325</v>
+        <v>86.07859402434674</v>
       </c>
       <c r="O32" t="n">
         <v>121.52</v>
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>95.61294423578325</v>
+        <v>92.07859402434674</v>
       </c>
       <c r="O33" t="n">
-        <v>106.1829442357833</v>
+        <v>95.57859402434674</v>
       </c>
     </row>
     <row r="34">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>103.52</v>
+        <v>95.57859402434674</v>
       </c>
       <c r="O34" t="n">
-        <v>103.52</v>
+        <v>95.57859402434674</v>
       </c>
     </row>
     <row r="35">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -1619,10 +1619,10 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>103.52</v>
+        <v>95.57859402434674</v>
       </c>
       <c r="O35" t="n">
-        <v>103.52</v>
+        <v>137.5141178234333</v>
       </c>
     </row>
     <row r="36">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>103.52</v>
+        <v>101.5785940243467</v>
       </c>
       <c r="O36" t="n">
-        <v>143.52</v>
+        <v>109.1284518538303</v>
       </c>
     </row>
     <row r="37">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -1709,19 +1709,19 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N38" t="n">
         <v>103.52</v>
       </c>
       <c r="O38" t="n">
-        <v>114.04</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="39">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>106.1829442357833</v>
+        <v>103.52</v>
       </c>
       <c r="O39" t="n">
-        <v>106.1829442357833</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="40">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>106.1829442357833</v>
+        <v>103.52</v>
       </c>
       <c r="O40" t="n">
-        <v>148.358946411707</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="41">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>112.1829442357833</v>
+        <v>103.52</v>
       </c>
       <c r="O41" t="n">
-        <v>138.3993582605025</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="42">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -1850,10 +1850,10 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>114.04</v>
+        <v>109.1284518538303</v>
       </c>
       <c r="O42" t="n">
-        <v>143.52</v>
+        <v>109.1284518538303</v>
       </c>
     </row>
     <row r="43">
@@ -1874,19 +1874,19 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>121.52</v>
+        <v>109.1284518538303</v>
       </c>
       <c r="O43" t="n">
-        <v>142.358946411707</v>
+        <v>154.0841178234333</v>
       </c>
     </row>
     <row r="44">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -1916,10 +1916,10 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>138.3993582605025</v>
+        <v>114.04</v>
       </c>
       <c r="O44" t="n">
-        <v>138.3993582605025</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="45">
@@ -1940,19 +1940,19 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>138.3993582605025</v>
+        <v>115.1284518538303</v>
       </c>
       <c r="O45" t="n">
-        <v>164.928946411707</v>
+        <v>126.0925041997979</v>
       </c>
     </row>
     <row r="46">
@@ -1978,14 +1978,14 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>142.358946411707</v>
+        <v>121.52</v>
       </c>
       <c r="O46" t="n">
-        <v>142.358946411707</v>
+        <v>131.5141178234333</v>
       </c>
     </row>
     <row r="47">
@@ -2006,19 +2006,19 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>142.358946411707</v>
+        <v>126.0925041997979</v>
       </c>
       <c r="O47" t="n">
-        <v>161.52</v>
+        <v>126.0925041997979</v>
       </c>
     </row>
     <row r="48">
@@ -2039,19 +2039,19 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>143.52</v>
+        <v>126.0925041997979</v>
       </c>
       <c r="O48" t="n">
-        <v>143.52</v>
+        <v>173.4424348960322</v>
       </c>
     </row>
     <row r="49">
@@ -2072,19 +2072,19 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>143.52</v>
+        <v>131.5141178234333</v>
       </c>
       <c r="O49" t="n">
-        <v>143.52</v>
+        <v>131.5141178234333</v>
       </c>
     </row>
     <row r="50">
@@ -2105,19 +2105,19 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>143.52</v>
+        <v>131.5141178234333</v>
       </c>
       <c r="O50" t="n">
-        <v>183.52</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="51">
@@ -2138,19 +2138,19 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>143.52</v>
+        <v>137.5141178234333</v>
       </c>
       <c r="O51" t="n">
-        <v>143.52</v>
+        <v>148.0841178234333</v>
       </c>
     </row>
     <row r="52">
@@ -2171,19 +2171,19 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N52" t="n">
         <v>143.52</v>
       </c>
       <c r="O52" t="n">
-        <v>154.04</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="53">
@@ -2204,19 +2204,19 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>144.3993582605025</v>
+        <v>143.52</v>
       </c>
       <c r="O53" t="n">
-        <v>155.3634106064702</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="54">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>148.358946411707</v>
+        <v>143.52</v>
       </c>
       <c r="O54" t="n">
-        <v>158.928946411707</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="55">
@@ -2275,14 +2275,14 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>154.04</v>
+        <v>143.52</v>
       </c>
       <c r="O55" t="n">
-        <v>183.52</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="56">
@@ -2303,19 +2303,19 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>155.3634106064702</v>
+        <v>143.52</v>
       </c>
       <c r="O56" t="n">
-        <v>155.3634106064702</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="57">
@@ -2336,19 +2336,19 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>155.3634106064702</v>
+        <v>148.0841178234333</v>
       </c>
       <c r="O57" t="n">
-        <v>178.3504060776352</v>
+        <v>148.0841178234333</v>
       </c>
     </row>
     <row r="58">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>158.928946411707</v>
+        <v>148.0841178234333</v>
       </c>
       <c r="O58" t="n">
-        <v>158.928946411707</v>
+        <v>188.3802082987</v>
       </c>
     </row>
     <row r="59">
@@ -2402,19 +2402,19 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>158.928946411707</v>
+        <v>154.04</v>
       </c>
       <c r="O59" t="n">
-        <v>171.7829212812041</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="60">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>161.52</v>
+        <v>154.0841178234333</v>
       </c>
       <c r="O60" t="n">
-        <v>165.7829212812041</v>
+        <v>167.4424348960322</v>
       </c>
     </row>
     <row r="61">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -2477,10 +2477,10 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>164.928946411707</v>
+        <v>161.52</v>
       </c>
       <c r="O61" t="n">
-        <v>172.3504060776352</v>
+        <v>182.3802082987</v>
       </c>
     </row>
     <row r="62">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>165.7829212812041</v>
+        <v>167.4424348960322</v>
       </c>
       <c r="O62" t="n">
-        <v>165.7829212812041</v>
+        <v>167.4424348960322</v>
       </c>
     </row>
     <row r="63">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>165.7829212812041</v>
+        <v>167.4424348960322</v>
       </c>
       <c r="O63" t="n">
-        <v>201.52</v>
+        <v>204.9502082987</v>
       </c>
     </row>
     <row r="64">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>171.7829212812041</v>
+        <v>173.4424348960322</v>
       </c>
       <c r="O64" t="n">
-        <v>182.3529212812041</v>
+        <v>183.0425921043994</v>
       </c>
     </row>
     <row r="65">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -2609,10 +2609,10 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>172.3504060776352</v>
+        <v>182.3802082987</v>
       </c>
       <c r="O65" t="n">
-        <v>172.3504060776352</v>
+        <v>182.3802082987</v>
       </c>
     </row>
     <row r="66">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>172.3504060776352</v>
+        <v>182.3802082987</v>
       </c>
       <c r="O66" t="n">
-        <v>188.3529212812041</v>
+        <v>201.52</v>
       </c>
     </row>
     <row r="67">
@@ -2671,14 +2671,14 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>178.3504060776352</v>
+        <v>183.0425921043994</v>
       </c>
       <c r="O67" t="n">
-        <v>187.9505632860024</v>
+        <v>183.0425921043994</v>
       </c>
     </row>
     <row r="68">
@@ -2699,19 +2699,19 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>182.3529212812041</v>
+        <v>183.0425921043994</v>
       </c>
       <c r="O68" t="n">
-        <v>182.3529212812041</v>
+        <v>219.4957579792316</v>
       </c>
     </row>
     <row r="69">
@@ -2732,19 +2732,19 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>182.3529212812041</v>
+        <v>183.52</v>
       </c>
       <c r="O69" t="n">
-        <v>223.6288469846695</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="70">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -2803,14 +2803,14 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N71" t="n">
         <v>183.52</v>
       </c>
       <c r="O71" t="n">
-        <v>183.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="72">
@@ -2831,19 +2831,19 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N72" t="n">
         <v>183.52</v>
       </c>
       <c r="O72" t="n">
-        <v>223.52</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="73">
@@ -2869,14 +2869,14 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N73" t="n">
         <v>183.52</v>
       </c>
       <c r="O73" t="n">
-        <v>183.52</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="74">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>183.52</v>
+        <v>188.3802082987</v>
       </c>
       <c r="O74" t="n">
-        <v>194.04</v>
+        <v>198.9502082987</v>
       </c>
     </row>
     <row r="75">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>187.9505632860024</v>
+        <v>194.04</v>
       </c>
       <c r="O75" t="n">
-        <v>187.9505632860024</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="76">
@@ -2963,19 +2963,19 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>187.9505632860024</v>
+        <v>198.9502082987</v>
       </c>
       <c r="O76" t="n">
-        <v>208.5751736593068</v>
+        <v>198.9502082987</v>
       </c>
     </row>
     <row r="77">
@@ -2996,19 +2996,19 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>188.3529212812041</v>
+        <v>198.9502082987</v>
       </c>
       <c r="O77" t="n">
-        <v>202.5751736593068</v>
+        <v>238.8295798915632</v>
       </c>
     </row>
     <row r="78">
@@ -3029,19 +3029,19 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>194.04</v>
+        <v>201.52</v>
       </c>
       <c r="O78" t="n">
-        <v>223.52</v>
+        <v>232.8295798915632</v>
       </c>
     </row>
     <row r="79">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>201.52</v>
+        <v>204.9502082987</v>
       </c>
       <c r="O79" t="n">
-        <v>217.6288469846695</v>
+        <v>213.4957579792316</v>
       </c>
     </row>
     <row r="80">
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>202.5751736593068</v>
+        <v>213.4957579792316</v>
       </c>
       <c r="O80" t="n">
-        <v>202.5751736593068</v>
+        <v>213.4957579792316</v>
       </c>
     </row>
     <row r="81">
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>202.5751736593068</v>
+        <v>213.4957579792316</v>
       </c>
       <c r="O81" t="n">
-        <v>240.1988469846695</v>
+        <v>255.3995798915632</v>
       </c>
     </row>
     <row r="82">
@@ -3170,10 +3170,10 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>208.5751736593068</v>
+        <v>219.4957579792316</v>
       </c>
       <c r="O82" t="n">
-        <v>218.7539116434126</v>
+        <v>229.6744959633373</v>
       </c>
     </row>
     <row r="83">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>217.6288469846695</v>
+        <v>223.52</v>
       </c>
       <c r="O83" t="n">
-        <v>217.6288469846695</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="84">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -3236,10 +3236,10 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>217.6288469846695</v>
+        <v>223.52</v>
       </c>
       <c r="O84" t="n">
-        <v>241.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="85">
@@ -3260,19 +3260,19 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>218.7539116434126</v>
+        <v>223.52</v>
       </c>
       <c r="O85" t="n">
-        <v>218.7539116434126</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="86">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>218.7539116434126</v>
+        <v>223.52</v>
       </c>
       <c r="O86" t="n">
-        <v>254.9575293667189</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="87">
@@ -3326,19 +3326,19 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N87" t="n">
         <v>223.52</v>
       </c>
       <c r="O87" t="n">
-        <v>223.52</v>
+        <v>234.04</v>
       </c>
     </row>
     <row r="88">
@@ -3359,19 +3359,19 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>223.52</v>
+        <v>229.6744959633373</v>
       </c>
       <c r="O88" t="n">
-        <v>223.52</v>
+        <v>229.6744959633373</v>
       </c>
     </row>
     <row r="89">
@@ -3392,19 +3392,19 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>223.52</v>
+        <v>229.6744959633373</v>
       </c>
       <c r="O89" t="n">
-        <v>263.52</v>
+        <v>303.2195493015359</v>
       </c>
     </row>
     <row r="90">
@@ -3425,19 +3425,19 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>223.52</v>
+        <v>232.8295798915632</v>
       </c>
       <c r="O90" t="n">
-        <v>223.52</v>
+        <v>232.8295798915632</v>
       </c>
     </row>
     <row r="91">
@@ -3458,19 +3458,19 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>223.52</v>
+        <v>232.8295798915632</v>
       </c>
       <c r="O91" t="n">
-        <v>234.04</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="92">
@@ -3491,19 +3491,19 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>223.6288469846695</v>
+        <v>234.04</v>
       </c>
       <c r="O92" t="n">
-        <v>234.1988469846695</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="93">
@@ -3524,19 +3524,19 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>234.04</v>
+        <v>238.8295798915632</v>
       </c>
       <c r="O93" t="n">
-        <v>263.52</v>
+        <v>249.3995798915632</v>
       </c>
     </row>
     <row r="94">
@@ -3557,19 +3557,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>234.1988469846695</v>
+        <v>241.52</v>
       </c>
       <c r="O94" t="n">
-        <v>234.1988469846695</v>
+        <v>246.2128964369429</v>
       </c>
     </row>
     <row r="95">
@@ -3590,19 +3590,19 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>234.1988469846695</v>
+        <v>246.2128964369429</v>
       </c>
       <c r="O95" t="n">
-        <v>252.7558654704403</v>
+        <v>246.2128964369429</v>
       </c>
     </row>
     <row r="96">
@@ -3623,19 +3623,19 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>240.1988469846695</v>
+        <v>246.2128964369429</v>
       </c>
       <c r="O96" t="n">
-        <v>248.9575293667189</v>
+        <v>281.52</v>
       </c>
     </row>
     <row r="97">
@@ -3656,19 +3656,19 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>241.52</v>
+        <v>249.3995798915632</v>
       </c>
       <c r="O97" t="n">
-        <v>246.7558654704403</v>
+        <v>249.3995798915632</v>
       </c>
     </row>
     <row r="98">
@@ -3689,19 +3689,19 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>246.7558654704403</v>
+        <v>249.3995798915632</v>
       </c>
       <c r="O98" t="n">
-        <v>246.7558654704403</v>
+        <v>252.2128964369429</v>
       </c>
     </row>
     <row r="99">
@@ -3722,19 +3722,19 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>246.7558654704403</v>
+        <v>252.2128964369429</v>
       </c>
       <c r="O99" t="n">
-        <v>281.52</v>
+        <v>262.7828964369429</v>
       </c>
     </row>
     <row r="100">
@@ -3760,14 +3760,14 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>248.9575293667189</v>
+        <v>255.3995798915632</v>
       </c>
       <c r="O100" t="n">
-        <v>248.9575293667189</v>
+        <v>297.2195493015359</v>
       </c>
     </row>
     <row r="101">
@@ -3788,19 +3788,19 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>248.9575293667189</v>
+        <v>262.7828964369429</v>
       </c>
       <c r="O101" t="n">
-        <v>269.3258654704403</v>
+        <v>262.7828964369429</v>
       </c>
     </row>
     <row r="102">
@@ -3826,14 +3826,14 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>252.7558654704403</v>
+        <v>262.7828964369429</v>
       </c>
       <c r="O102" t="n">
-        <v>263.3258654704403</v>
+        <v>299.031948905071</v>
       </c>
     </row>
     <row r="103">
@@ -3854,19 +3854,19 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>254.9575293667189</v>
+        <v>263.52</v>
       </c>
       <c r="O103" t="n">
-        <v>266.3984225659204</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="104">
@@ -3887,19 +3887,19 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>263.3258654704403</v>
+        <v>263.52</v>
       </c>
       <c r="O104" t="n">
-        <v>263.3258654704403</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="105">
@@ -3920,19 +3920,19 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>263.3258654704403</v>
+        <v>263.52</v>
       </c>
       <c r="O105" t="n">
-        <v>293.2095723619149</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="106">
@@ -3953,20 +3953,18 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N106" t="n">
         <v>263.52</v>
       </c>
-      <c r="O106" t="n">
-        <v>263.52</v>
-      </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3986,19 +3984,19 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>263.52</v>
+        <v>281.52</v>
       </c>
       <c r="O107" t="n">
-        <v>263.52</v>
+        <v>293.031948905071</v>
       </c>
     </row>
     <row r="108">
@@ -4019,19 +4017,19 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>263.52</v>
+        <v>293.031948905071</v>
       </c>
       <c r="O108" t="n">
-        <v>303.52</v>
+        <v>293.031948905071</v>
       </c>
     </row>
     <row r="109">
@@ -4052,7 +4050,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -4061,9 +4059,11 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>263.52</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
+        <v>293.031948905071</v>
+      </c>
+      <c r="O109" t="n">
+        <v>321.52</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>266.3984225659204</v>
+        <v>297.2195493015359</v>
       </c>
       <c r="O110" t="n">
-        <v>266.3984225659204</v>
+        <v>297.2195493015359</v>
       </c>
     </row>
     <row r="111">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>266.3984225659204</v>
+        <v>297.2195493015359</v>
       </c>
       <c r="O111" t="n">
-        <v>285.2837510325635</v>
+        <v>297.2195493015359</v>
       </c>
     </row>
     <row r="112">
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>269.3258654704403</v>
+        <v>297.2195493015359</v>
       </c>
       <c r="O112" t="n">
-        <v>279.2837510325635</v>
+        <v>308.2372071311196</v>
       </c>
     </row>
     <row r="113">
@@ -4182,19 +4182,19 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>279.2837510325635</v>
+        <v>299.031948905071</v>
       </c>
       <c r="O113" t="n">
-        <v>279.2837510325635</v>
+        <v>302.531948905071</v>
       </c>
     </row>
     <row r="114">
@@ -4215,19 +4215,19 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>279.2837510325635</v>
+        <v>302.531948905071</v>
       </c>
       <c r="O114" t="n">
-        <v>309.7795723619149</v>
+        <v>302.531948905071</v>
       </c>
     </row>
     <row r="115">
@@ -4248,19 +4248,19 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>281.52</v>
+        <v>302.531948905071</v>
       </c>
       <c r="O115" t="n">
-        <v>287.2095723619149</v>
+        <v>331.969041314943</v>
       </c>
     </row>
     <row r="116">
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>285.2837510325635</v>
+        <v>303.2195493015359</v>
       </c>
       <c r="O116" t="n">
-        <v>296.3513090227135</v>
+        <v>314.6604425007374</v>
       </c>
     </row>
     <row r="117">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>287.2095723619149</v>
+        <v>303.52</v>
       </c>
       <c r="O117" t="n">
-        <v>287.2095723619149</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="118">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>287.2095723619149</v>
+        <v>303.52</v>
       </c>
       <c r="O118" t="n">
-        <v>321.52</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="119">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>293.2095723619149</v>
+        <v>303.52</v>
       </c>
       <c r="O119" t="n">
-        <v>303.7795723619149</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="120">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>296.3513090227135</v>
+        <v>308.2372071311196</v>
       </c>
       <c r="O120" t="n">
-        <v>296.3513090227135</v>
+        <v>308.2372071311196</v>
       </c>
     </row>
     <row r="121">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -4455,10 +4455,10 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>296.3513090227135</v>
+        <v>308.2372071311196</v>
       </c>
       <c r="O121" t="n">
-        <v>329.0245762286317</v>
+        <v>308.531948905071</v>
       </c>
     </row>
     <row r="122">
@@ -4479,19 +4479,19 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>303.52</v>
+        <v>308.531948905071</v>
       </c>
       <c r="O122" t="n">
-        <v>303.52</v>
+        <v>317.6245984608001</v>
       </c>
     </row>
     <row r="123">
@@ -4512,19 +4512,19 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>303.52</v>
+        <v>314.6604425007374</v>
       </c>
       <c r="O123" t="n">
-        <v>303.52</v>
+        <v>314.6604425007374</v>
       </c>
     </row>
     <row r="124">
@@ -4545,19 +4545,19 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>303.52</v>
+        <v>314.6604425007374</v>
       </c>
       <c r="O124" t="n">
-        <v>343.52</v>
+        <v>314.6604425007374</v>
       </c>
     </row>
     <row r="125">
@@ -4578,19 +4578,19 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>303.7795723619149</v>
+        <v>314.6604425007374</v>
       </c>
       <c r="O125" t="n">
-        <v>303.7795723619149</v>
+        <v>325.7280004908874</v>
       </c>
     </row>
     <row r="126">
@@ -4611,19 +4611,19 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>303.7795723619149</v>
+        <v>317.6245984608001</v>
       </c>
       <c r="O126" t="n">
-        <v>334.1447107569983</v>
+        <v>317.6245984608001</v>
       </c>
     </row>
     <row r="127">
@@ -4649,14 +4649,14 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>309.7795723619149</v>
+        <v>317.6245984608001</v>
       </c>
       <c r="O127" t="n">
-        <v>323.0245762286317</v>
+        <v>341.469041314943</v>
       </c>
     </row>
     <row r="128">
@@ -4689,7 +4689,7 @@
         <v>321.52</v>
       </c>
       <c r="O128" t="n">
-        <v>328.1447107569983</v>
+        <v>325.969041314943</v>
       </c>
     </row>
     <row r="129">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>323.0245762286317</v>
+        <v>325.7280004908874</v>
       </c>
       <c r="O129" t="n">
-        <v>323.0245762286317</v>
+        <v>325.7280004908874</v>
       </c>
     </row>
     <row r="130">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>323.0245762286317</v>
+        <v>325.7280004908874</v>
       </c>
       <c r="O130" t="n">
-        <v>350.7147107569983</v>
+        <v>325.7280004908874</v>
       </c>
     </row>
     <row r="131">
@@ -4776,19 +4776,19 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>328.1447107569983</v>
+        <v>325.7280004908874</v>
       </c>
       <c r="O131" t="n">
-        <v>328.1447107569983</v>
+        <v>333.950722611011</v>
       </c>
     </row>
     <row r="132">
@@ -4814,14 +4814,14 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>328.1447107569983</v>
+        <v>325.969041314943</v>
       </c>
       <c r="O132" t="n">
-        <v>361.52</v>
+        <v>325.969041314943</v>
       </c>
     </row>
     <row r="133">
@@ -4842,19 +4842,19 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>329.0245762286317</v>
+        <v>325.969041314943</v>
       </c>
       <c r="O133" t="n">
-        <v>337.2472983487553</v>
+        <v>361.52</v>
       </c>
     </row>
     <row r="134">
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>334.1447107569983</v>
+        <v>331.969041314943</v>
       </c>
       <c r="O134" t="n">
-        <v>344.7147107569983</v>
+        <v>335.469041314943</v>
       </c>
     </row>
     <row r="135">
@@ -4917,10 +4917,10 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>337.2472983487553</v>
+        <v>333.950722611011</v>
       </c>
       <c r="O135" t="n">
-        <v>337.2472983487553</v>
+        <v>333.950722611011</v>
       </c>
     </row>
     <row r="136">
@@ -4950,10 +4950,10 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>337.2472983487553</v>
+        <v>333.950722611011</v>
       </c>
       <c r="O136" t="n">
-        <v>363.4552211046753</v>
+        <v>351.6220242207774</v>
       </c>
     </row>
     <row r="137">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>343.52</v>
+        <v>335.469041314943</v>
       </c>
       <c r="O137" t="n">
-        <v>343.52</v>
+        <v>335.469041314943</v>
       </c>
     </row>
     <row r="138">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -5016,10 +5016,10 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>343.52</v>
+        <v>335.469041314943</v>
       </c>
       <c r="O138" t="n">
-        <v>343.52</v>
+        <v>382.1087756185271</v>
       </c>
     </row>
     <row r="139">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -5049,10 +5049,10 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>343.52</v>
+        <v>341.469041314943</v>
       </c>
       <c r="O139" t="n">
-        <v>383.52</v>
+        <v>345.6220242207774</v>
       </c>
     </row>
     <row r="140">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -5082,10 +5082,10 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>344.7147107569983</v>
+        <v>343.52</v>
       </c>
       <c r="O140" t="n">
-        <v>344.7147107569983</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="141">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>344.7147107569983</v>
+        <v>343.52</v>
       </c>
       <c r="O141" t="n">
-        <v>377.3357518708947</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="142">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -5148,10 +5148,10 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>350.7147107569983</v>
+        <v>343.52</v>
       </c>
       <c r="O142" t="n">
-        <v>357.4552211046753</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="143">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>357.4552211046753</v>
+        <v>345.6220242207774</v>
       </c>
       <c r="O143" t="n">
-        <v>357.4552211046753</v>
+        <v>345.6220242207774</v>
       </c>
     </row>
     <row r="144">
@@ -5214,10 +5214,10 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>357.4552211046753</v>
+        <v>345.6220242207774</v>
       </c>
       <c r="O144" t="n">
-        <v>393.9057518708947</v>
+        <v>398.6787756185271</v>
       </c>
     </row>
     <row r="145">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>361.52</v>
+        <v>351.6220242207774</v>
       </c>
       <c r="O145" t="n">
-        <v>371.3357518708947</v>
+        <v>361.772112638303</v>
       </c>
     </row>
     <row r="146">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -5280,10 +5280,10 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>363.4552211046753</v>
+        <v>361.52</v>
       </c>
       <c r="O146" t="n">
-        <v>373.6053095222009</v>
+        <v>376.1087756185271</v>
       </c>
     </row>
     <row r="147">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -5313,10 +5313,10 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>371.3357518708947</v>
+        <v>361.772112638303</v>
       </c>
       <c r="O147" t="n">
-        <v>371.3357518708947</v>
+        <v>361.772112638303</v>
       </c>
     </row>
     <row r="148">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>371.3357518708947</v>
+        <v>361.772112638303</v>
       </c>
       <c r="O148" t="n">
-        <v>401.52</v>
+        <v>428.3715404496953</v>
       </c>
     </row>
     <row r="149">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>373.6053095222009</v>
+        <v>376.1087756185271</v>
       </c>
       <c r="O149" t="n">
-        <v>373.6053095222009</v>
+        <v>376.1087756185271</v>
       </c>
     </row>
     <row r="150">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>373.6053095222009</v>
+        <v>376.1087756185271</v>
       </c>
       <c r="O150" t="n">
-        <v>419.2839115140445</v>
+        <v>401.52</v>
       </c>
     </row>
     <row r="151">
@@ -5445,10 +5445,10 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>377.3357518708947</v>
+        <v>382.1087756185271</v>
       </c>
       <c r="O151" t="n">
-        <v>387.9057518708947</v>
+        <v>392.6787756185271</v>
       </c>
     </row>
     <row r="152">
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>387.9057518708947</v>
+        <v>392.6787756185271</v>
       </c>
       <c r="O155" t="n">
-        <v>387.9057518708947</v>
+        <v>392.6787756185271</v>
       </c>
     </row>
     <row r="156">
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>387.9057518708947</v>
+        <v>392.6787756185271</v>
       </c>
       <c r="O156" t="n">
-        <v>412.8291410097431</v>
+        <v>419.5099192088014</v>
       </c>
     </row>
     <row r="157">
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>393.9057518708947</v>
+        <v>398.6787756185271</v>
       </c>
       <c r="O157" t="n">
-        <v>413.2839115140445</v>
+        <v>422.3715404496953</v>
       </c>
     </row>
     <row r="158">
@@ -5679,7 +5679,7 @@
         <v>401.52</v>
       </c>
       <c r="O158" t="n">
-        <v>406.8291410097431</v>
+        <v>413.5099192088014</v>
       </c>
     </row>
     <row r="159">
@@ -5709,10 +5709,10 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>406.8291410097431</v>
+        <v>413.5099192088014</v>
       </c>
       <c r="O159" t="n">
-        <v>406.8291410097431</v>
+        <v>413.5099192088014</v>
       </c>
     </row>
     <row r="160">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>406.8291410097431</v>
+        <v>413.5099192088014</v>
       </c>
       <c r="O160" t="n">
         <v>441.52</v>
@@ -5775,10 +5775,10 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>412.8291410097431</v>
+        <v>419.5099192088014</v>
       </c>
       <c r="O161" t="n">
-        <v>423.3991410097431</v>
+        <v>430.0799192088014</v>
       </c>
     </row>
     <row r="162">
@@ -5808,10 +5808,10 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>413.2839115140445</v>
+        <v>422.3715404496953</v>
       </c>
       <c r="O162" t="n">
-        <v>413.2839115140445</v>
+        <v>422.3715404496953</v>
       </c>
     </row>
     <row r="163">
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>413.2839115140445</v>
+        <v>422.3715404496953</v>
       </c>
       <c r="O163" t="n">
-        <v>429.3991410097431</v>
+        <v>436.0799192088014</v>
       </c>
     </row>
     <row r="164">
@@ -5865,19 +5865,19 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>419.2839115140445</v>
+        <v>423.52</v>
       </c>
       <c r="O164" t="n">
-        <v>428.3325543057468</v>
+        <v>423.52</v>
       </c>
     </row>
     <row r="165">
@@ -5898,20 +5898,18 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>423.3991410097431</v>
-      </c>
-      <c r="O165" t="n">
-        <v>423.3991410097431</v>
-      </c>
+        <v>423.52</v>
+      </c>
+      <c r="O165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5931,19 +5929,19 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>423.3991410097431</v>
+        <v>428.3715404496953</v>
       </c>
       <c r="O166" t="n">
-        <v>451.4922122802055</v>
+        <v>437.4201832413976</v>
       </c>
     </row>
     <row r="167">
@@ -5964,7 +5962,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5973,10 +5971,10 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>423.52</v>
+        <v>430.0799192088014</v>
       </c>
       <c r="O167" t="n">
-        <v>423.52</v>
+        <v>430.0799192088014</v>
       </c>
     </row>
     <row r="168">
@@ -5997,7 +5995,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -6006,9 +6004,11 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
+        <v>430.0799192088014</v>
+      </c>
+      <c r="O168" t="n">
+        <v>454.1670263662991</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6028,19 +6028,19 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>428.3325543057468</v>
+        <v>436.0799192088014</v>
       </c>
       <c r="O169" t="n">
-        <v>428.3325543057468</v>
+        <v>447.8300718521417</v>
       </c>
     </row>
     <row r="170">
@@ -6066,14 +6066,14 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>428.3325543057468</v>
+        <v>437.4201832413976</v>
       </c>
       <c r="O170" t="n">
-        <v>462.2705728935611</v>
+        <v>437.4201832413976</v>
       </c>
     </row>
     <row r="171">
@@ -6094,19 +6094,19 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>429.3991410097431</v>
+        <v>437.4201832413976</v>
       </c>
       <c r="O171" t="n">
-        <v>456.2705728935611</v>
+        <v>453.8300718521417</v>
       </c>
     </row>
     <row r="172">
@@ -6139,7 +6139,7 @@
         <v>441.52</v>
       </c>
       <c r="O172" t="n">
-        <v>445.4922122802055</v>
+        <v>448.1670263662991</v>
       </c>
     </row>
     <row r="173">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -6169,10 +6169,10 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>445.4922122802055</v>
+        <v>447.8300718521417</v>
       </c>
       <c r="O173" t="n">
-        <v>445.4922122802055</v>
+        <v>447.8300718521417</v>
       </c>
     </row>
     <row r="174">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -6202,9 +6202,11 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>445.4922122802055</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
+        <v>447.8300718521417</v>
+      </c>
+      <c r="O174" t="n">
+        <v>470.7370263662991</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6224,19 +6226,19 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>451.4922122802055</v>
+        <v>448.1670263662991</v>
       </c>
       <c r="O175" t="n">
-        <v>462.0622122802055</v>
+        <v>448.1670263662991</v>
       </c>
     </row>
     <row r="176">
@@ -6257,20 +6259,18 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>456.2705728935611</v>
-      </c>
-      <c r="O176" t="n">
-        <v>456.2705728935611</v>
-      </c>
+        <v>448.1670263662991</v>
+      </c>
+      <c r="O176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6290,19 +6290,19 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>456.2705728935611</v>
+        <v>453.8300718521417</v>
       </c>
       <c r="O177" t="n">
-        <v>468.0622122802055</v>
+        <v>462.9268530003482</v>
       </c>
     </row>
     <row r="178">
@@ -6328,14 +6328,14 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>462.0622122802055</v>
+        <v>454.1670263662991</v>
       </c>
       <c r="O178" t="n">
-        <v>462.0622122802055</v>
+        <v>464.7370263662991</v>
       </c>
     </row>
     <row r="179">
@@ -6356,18 +6356,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>462.0622122802055</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
+        <v>462.9268530003482</v>
+      </c>
+      <c r="O179" t="n">
+        <v>462.9268530003482</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6392,14 +6394,14 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>462.2705728935611</v>
+        <v>462.9268530003482</v>
       </c>
       <c r="O180" t="n">
-        <v>471.3673540417676</v>
+        <v>480.8688399943525</v>
       </c>
     </row>
     <row r="181">
@@ -6420,19 +6422,19 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>468.0622122802055</v>
+        <v>464.7370263662991</v>
       </c>
       <c r="O181" t="n">
-        <v>477.6093453689278</v>
+        <v>464.7370263662991</v>
       </c>
     </row>
     <row r="182">
@@ -6453,20 +6455,18 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>471.3673540417676</v>
-      </c>
-      <c r="O182" t="n">
-        <v>471.3673540417676</v>
-      </c>
+        <v>464.7370263662991</v>
+      </c>
+      <c r="O182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6486,19 +6486,19 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>471.3673540417676</v>
+        <v>470.7370263662991</v>
       </c>
       <c r="O183" t="n">
-        <v>483.6093453689278</v>
+        <v>474.8688399943525</v>
       </c>
     </row>
     <row r="184">
@@ -6528,10 +6528,10 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>477.6093453689278</v>
+        <v>474.8688399943525</v>
       </c>
       <c r="O184" t="n">
-        <v>477.6093453689278</v>
+        <v>474.8688399943525</v>
       </c>
     </row>
     <row r="185">
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>477.6093453689278</v>
+        <v>474.8688399943525</v>
       </c>
       <c r="O185" t="inlineStr"/>
     </row>
@@ -6592,10 +6592,10 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>483.6093453689278</v>
+        <v>480.8688399943525</v>
       </c>
       <c r="O186" t="n">
-        <v>493.2199438708662</v>
+        <v>490.4794384962909</v>
       </c>
     </row>
     <row r="187">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>493.2199438708662</v>
+        <v>490.4794384962909</v>
       </c>
       <c r="O187" t="inlineStr"/>
     </row>

--- a/spazio_stati.xlsx
+++ b/spazio_stati.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.07859402434674</v>
+        <v>97.83519048827266</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>101.5785940243467</v>
+        <v>114.4051904882727</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>115.1284518538303</v>
+        <v>127.7245733966218</v>
       </c>
     </row>
     <row r="9">
@@ -1457,7 +1457,7 @@
         <v>81.52</v>
       </c>
       <c r="O30" t="n">
-        <v>86.07859402434674</v>
+        <v>91.83519048827266</v>
       </c>
     </row>
     <row r="31">
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>86.07859402434674</v>
+        <v>91.83519048827266</v>
       </c>
       <c r="O31" t="n">
-        <v>86.07859402434674</v>
+        <v>91.83519048827266</v>
       </c>
     </row>
     <row r="32">
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>86.07859402434674</v>
+        <v>91.83519048827266</v>
       </c>
       <c r="O32" t="n">
         <v>121.52</v>
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>92.07859402434674</v>
+        <v>97.83519048827266</v>
       </c>
       <c r="O33" t="n">
-        <v>95.57859402434674</v>
+        <v>108.4051904882727</v>
       </c>
     </row>
     <row r="34">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>95.57859402434674</v>
+        <v>103.52</v>
       </c>
       <c r="O34" t="n">
-        <v>95.57859402434674</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="35">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -1619,10 +1619,10 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>95.57859402434674</v>
+        <v>103.52</v>
       </c>
       <c r="O35" t="n">
-        <v>137.5141178234333</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="36">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>101.5785940243467</v>
+        <v>103.52</v>
       </c>
       <c r="O36" t="n">
-        <v>109.1284518538303</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="37">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -1709,19 +1709,19 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N38" t="n">
         <v>103.52</v>
       </c>
       <c r="O38" t="n">
-        <v>103.52</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="39">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>103.52</v>
+        <v>108.4051904882727</v>
       </c>
       <c r="O39" t="n">
-        <v>143.52</v>
+        <v>108.4051904882727</v>
       </c>
     </row>
     <row r="40">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>103.52</v>
+        <v>108.4051904882727</v>
       </c>
       <c r="O40" t="n">
-        <v>103.52</v>
+        <v>137.8351904882726</v>
       </c>
     </row>
     <row r="41">
@@ -1813,14 +1813,14 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>103.52</v>
+        <v>114.04</v>
       </c>
       <c r="O41" t="n">
-        <v>114.04</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="42">
@@ -1846,14 +1846,14 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>109.1284518538303</v>
+        <v>114.4051904882727</v>
       </c>
       <c r="O42" t="n">
-        <v>109.1284518538303</v>
+        <v>121.7245733966218</v>
       </c>
     </row>
     <row r="43">
@@ -1874,19 +1874,19 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>109.1284518538303</v>
+        <v>121.52</v>
       </c>
       <c r="O43" t="n">
-        <v>154.0841178234333</v>
+        <v>131.8351904882726</v>
       </c>
     </row>
     <row r="44">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -1916,10 +1916,10 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>114.04</v>
+        <v>121.7245733966218</v>
       </c>
       <c r="O44" t="n">
-        <v>143.52</v>
+        <v>121.7245733966218</v>
       </c>
     </row>
     <row r="45">
@@ -1940,19 +1940,19 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>115.1284518538303</v>
+        <v>121.7245733966218</v>
       </c>
       <c r="O45" t="n">
-        <v>126.0925041997979</v>
+        <v>154.4051904882726</v>
       </c>
     </row>
     <row r="46">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>121.52</v>
+        <v>127.7245733966218</v>
       </c>
       <c r="O46" t="n">
-        <v>131.5141178234333</v>
+        <v>140.4526780885571</v>
       </c>
     </row>
     <row r="47">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>126.0925041997979</v>
+        <v>131.8351904882726</v>
       </c>
       <c r="O47" t="n">
-        <v>126.0925041997979</v>
+        <v>131.8351904882726</v>
       </c>
     </row>
     <row r="48">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>126.0925041997979</v>
+        <v>131.8351904882726</v>
       </c>
       <c r="O48" t="n">
-        <v>173.4424348960322</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="49">
@@ -2072,19 +2072,19 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>131.5141178234333</v>
+        <v>137.8351904882726</v>
       </c>
       <c r="O49" t="n">
-        <v>131.5141178234333</v>
+        <v>148.4051904882726</v>
       </c>
     </row>
     <row r="50">
@@ -2105,19 +2105,19 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>131.5141178234333</v>
+        <v>140.4526780885571</v>
       </c>
       <c r="O50" t="n">
-        <v>161.52</v>
+        <v>140.4526780885571</v>
       </c>
     </row>
     <row r="51">
@@ -2138,19 +2138,19 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>137.5141178234333</v>
+        <v>140.4526780885571</v>
       </c>
       <c r="O51" t="n">
-        <v>148.0841178234333</v>
+        <v>167.7245733966218</v>
       </c>
     </row>
     <row r="52">
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>148.0841178234333</v>
+        <v>148.4051904882726</v>
       </c>
       <c r="O57" t="n">
-        <v>148.0841178234333</v>
+        <v>148.4051904882726</v>
       </c>
     </row>
     <row r="58">
@@ -2378,10 +2378,10 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>148.0841178234333</v>
+        <v>148.4051904882726</v>
       </c>
       <c r="O58" t="n">
-        <v>188.3802082987</v>
+        <v>177.8351904882726</v>
       </c>
     </row>
     <row r="59">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>154.0841178234333</v>
+        <v>154.4051904882726</v>
       </c>
       <c r="O60" t="n">
-        <v>167.4424348960322</v>
+        <v>161.7245733966218</v>
       </c>
     </row>
     <row r="61">
@@ -2480,7 +2480,7 @@
         <v>161.52</v>
       </c>
       <c r="O61" t="n">
-        <v>182.3802082987</v>
+        <v>171.8351904882726</v>
       </c>
     </row>
     <row r="62">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>167.4424348960322</v>
+        <v>161.7245733966218</v>
       </c>
       <c r="O62" t="n">
-        <v>167.4424348960322</v>
+        <v>161.7245733966218</v>
       </c>
     </row>
     <row r="63">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>167.4424348960322</v>
+        <v>161.7245733966218</v>
       </c>
       <c r="O63" t="n">
-        <v>204.9502082987</v>
+        <v>194.4051904882726</v>
       </c>
     </row>
     <row r="64">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>173.4424348960322</v>
+        <v>167.7245733966218</v>
       </c>
       <c r="O64" t="n">
-        <v>183.0425921043994</v>
+        <v>177.7248878133562</v>
       </c>
     </row>
     <row r="65">
@@ -2609,10 +2609,10 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>182.3802082987</v>
+        <v>171.8351904882726</v>
       </c>
       <c r="O65" t="n">
-        <v>182.3802082987</v>
+        <v>171.8351904882726</v>
       </c>
     </row>
     <row r="66">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>182.3802082987</v>
+        <v>171.8351904882726</v>
       </c>
       <c r="O66" t="n">
         <v>201.52</v>
@@ -2675,10 +2675,10 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>183.0425921043994</v>
+        <v>177.7248878133562</v>
       </c>
       <c r="O67" t="n">
-        <v>183.0425921043994</v>
+        <v>177.7248878133562</v>
       </c>
     </row>
     <row r="68">
@@ -2708,10 +2708,10 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>183.0425921043994</v>
+        <v>177.7248878133562</v>
       </c>
       <c r="O68" t="n">
-        <v>219.4957579792316</v>
+        <v>207.7245733966218</v>
       </c>
     </row>
     <row r="69">
@@ -2732,19 +2732,19 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>183.52</v>
+        <v>177.8351904882726</v>
       </c>
       <c r="O69" t="n">
-        <v>183.52</v>
+        <v>188.4051904882726</v>
       </c>
     </row>
     <row r="70">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -2803,14 +2803,14 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N71" t="n">
         <v>183.52</v>
       </c>
       <c r="O71" t="n">
-        <v>223.52</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="72">
@@ -2831,19 +2831,19 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N72" t="n">
         <v>183.52</v>
       </c>
       <c r="O72" t="n">
-        <v>183.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="73">
@@ -2869,14 +2869,14 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N73" t="n">
         <v>183.52</v>
       </c>
       <c r="O73" t="n">
-        <v>194.04</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="74">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>188.3802082987</v>
+        <v>183.52</v>
       </c>
       <c r="O74" t="n">
-        <v>198.9502082987</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="75">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>194.04</v>
+        <v>188.4051904882726</v>
       </c>
       <c r="O75" t="n">
-        <v>223.52</v>
+        <v>188.4051904882726</v>
       </c>
     </row>
     <row r="76">
@@ -2968,14 +2968,14 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>198.9502082987</v>
+        <v>188.4051904882726</v>
       </c>
       <c r="O76" t="n">
-        <v>198.9502082987</v>
+        <v>217.8351904882726</v>
       </c>
     </row>
     <row r="77">
@@ -2996,19 +2996,19 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>198.9502082987</v>
+        <v>194.04</v>
       </c>
       <c r="O77" t="n">
-        <v>238.8295798915632</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="78">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -3038,10 +3038,10 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>201.52</v>
+        <v>194.4051904882726</v>
       </c>
       <c r="O78" t="n">
-        <v>232.8295798915632</v>
+        <v>201.7245733966218</v>
       </c>
     </row>
     <row r="79">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>204.9502082987</v>
+        <v>201.52</v>
       </c>
       <c r="O79" t="n">
-        <v>213.4957579792316</v>
+        <v>211.8351904882726</v>
       </c>
     </row>
     <row r="80">
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>213.4957579792316</v>
+        <v>201.7245733966218</v>
       </c>
       <c r="O80" t="n">
-        <v>213.4957579792316</v>
+        <v>201.7245733966218</v>
       </c>
     </row>
     <row r="81">
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>213.4957579792316</v>
+        <v>201.7245733966218</v>
       </c>
       <c r="O81" t="n">
-        <v>255.3995798915632</v>
+        <v>234.4051904882726</v>
       </c>
     </row>
     <row r="82">
@@ -3170,10 +3170,10 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>219.4957579792316</v>
+        <v>207.7245733966218</v>
       </c>
       <c r="O82" t="n">
-        <v>229.6744959633373</v>
+        <v>218.8820493648333</v>
       </c>
     </row>
     <row r="83">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>223.52</v>
+        <v>211.8351904882726</v>
       </c>
       <c r="O83" t="n">
-        <v>223.52</v>
+        <v>211.8351904882726</v>
       </c>
     </row>
     <row r="84">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -3236,10 +3236,10 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>223.52</v>
+        <v>211.8351904882726</v>
       </c>
       <c r="O84" t="n">
-        <v>223.52</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="85">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>223.52</v>
+        <v>217.8351904882726</v>
       </c>
       <c r="O85" t="n">
-        <v>263.52</v>
+        <v>228.4051904882726</v>
       </c>
     </row>
     <row r="86">
@@ -3293,19 +3293,19 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>223.52</v>
+        <v>218.8820493648333</v>
       </c>
       <c r="O86" t="n">
-        <v>223.52</v>
+        <v>218.8820493648333</v>
       </c>
     </row>
     <row r="87">
@@ -3326,19 +3326,19 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>223.52</v>
+        <v>218.8820493648333</v>
       </c>
       <c r="O87" t="n">
-        <v>234.04</v>
+        <v>247.7245733966218</v>
       </c>
     </row>
     <row r="88">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>229.6744959633373</v>
+        <v>223.52</v>
       </c>
       <c r="O88" t="n">
-        <v>229.6744959633373</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="89">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>229.6744959633373</v>
+        <v>223.52</v>
       </c>
       <c r="O89" t="n">
-        <v>303.2195493015359</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="90">
@@ -3425,19 +3425,19 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>232.8295798915632</v>
+        <v>223.52</v>
       </c>
       <c r="O90" t="n">
-        <v>232.8295798915632</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="91">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -3467,10 +3467,10 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>232.8295798915632</v>
+        <v>223.52</v>
       </c>
       <c r="O91" t="n">
-        <v>241.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="92">
@@ -3496,14 +3496,14 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N92" t="n">
+        <v>223.52</v>
+      </c>
+      <c r="O92" t="n">
         <v>234.04</v>
-      </c>
-      <c r="O92" t="n">
-        <v>263.52</v>
       </c>
     </row>
     <row r="93">
@@ -3529,14 +3529,14 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>238.8295798915632</v>
+        <v>228.4051904882726</v>
       </c>
       <c r="O93" t="n">
-        <v>249.3995798915632</v>
+        <v>228.4051904882726</v>
       </c>
     </row>
     <row r="94">
@@ -3557,19 +3557,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>241.52</v>
+        <v>228.4051904882726</v>
       </c>
       <c r="O94" t="n">
-        <v>246.2128964369429</v>
+        <v>257.8351904882726</v>
       </c>
     </row>
     <row r="95">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>246.2128964369429</v>
+        <v>234.04</v>
       </c>
       <c r="O95" t="n">
-        <v>246.2128964369429</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="96">
@@ -3623,19 +3623,19 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>246.2128964369429</v>
+        <v>234.4051904882726</v>
       </c>
       <c r="O96" t="n">
-        <v>281.52</v>
+        <v>241.7245733966218</v>
       </c>
     </row>
     <row r="97">
@@ -3656,19 +3656,19 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>249.3995798915632</v>
+        <v>241.52</v>
       </c>
       <c r="O97" t="n">
-        <v>249.3995798915632</v>
+        <v>251.8351904882726</v>
       </c>
     </row>
     <row r="98">
@@ -3689,19 +3689,19 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>249.3995798915632</v>
+        <v>241.7245733966218</v>
       </c>
       <c r="O98" t="n">
-        <v>252.2128964369429</v>
+        <v>241.7245733966218</v>
       </c>
     </row>
     <row r="99">
@@ -3722,19 +3722,19 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>252.2128964369429</v>
+        <v>241.7245733966218</v>
       </c>
       <c r="O99" t="n">
-        <v>262.7828964369429</v>
+        <v>274.4051904882726</v>
       </c>
     </row>
     <row r="100">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>255.3995798915632</v>
+        <v>247.7245733966218</v>
       </c>
       <c r="O100" t="n">
-        <v>297.2195493015359</v>
+        <v>261.4063597950247</v>
       </c>
     </row>
     <row r="101">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -3797,10 +3797,10 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>262.7828964369429</v>
+        <v>251.8351904882726</v>
       </c>
       <c r="O101" t="n">
-        <v>262.7828964369429</v>
+        <v>251.8351904882726</v>
       </c>
     </row>
     <row r="102">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>262.7828964369429</v>
+        <v>251.8351904882726</v>
       </c>
       <c r="O102" t="n">
-        <v>299.031948905071</v>
+        <v>281.52</v>
       </c>
     </row>
     <row r="103">
@@ -3854,19 +3854,19 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>263.52</v>
+        <v>257.8351904882726</v>
       </c>
       <c r="O103" t="n">
-        <v>263.52</v>
+        <v>268.4051904882726</v>
       </c>
     </row>
     <row r="104">
@@ -3887,19 +3887,19 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>263.52</v>
+        <v>261.4063597950247</v>
       </c>
       <c r="O104" t="n">
-        <v>263.52</v>
+        <v>261.4063597950247</v>
       </c>
     </row>
     <row r="105">
@@ -3920,19 +3920,19 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>263.52</v>
+        <v>261.4063597950247</v>
       </c>
       <c r="O105" t="n">
-        <v>303.52</v>
+        <v>287.7245733966218</v>
       </c>
     </row>
     <row r="106">
@@ -3953,18 +3953,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N106" t="n">
         <v>263.52</v>
       </c>
-      <c r="O106" t="inlineStr"/>
+      <c r="O106" t="n">
+        <v>263.52</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3984,19 +3986,19 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>281.52</v>
+        <v>263.52</v>
       </c>
       <c r="O107" t="n">
-        <v>293.031948905071</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="108">
@@ -4017,19 +4019,19 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>293.031948905071</v>
+        <v>263.52</v>
       </c>
       <c r="O108" t="n">
-        <v>293.031948905071</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="109">
@@ -4050,7 +4052,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -4059,11 +4061,9 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>293.031948905071</v>
-      </c>
-      <c r="O109" t="n">
-        <v>321.52</v>
-      </c>
+        <v>263.52</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>297.2195493015359</v>
+        <v>268.4051904882726</v>
       </c>
       <c r="O110" t="n">
-        <v>297.2195493015359</v>
+        <v>268.4051904882726</v>
       </c>
     </row>
     <row r="111">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>297.2195493015359</v>
+        <v>268.4051904882726</v>
       </c>
       <c r="O111" t="n">
-        <v>297.2195493015359</v>
+        <v>297.8351904882726</v>
       </c>
     </row>
     <row r="112">
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>297.2195493015359</v>
+        <v>274.4051904882726</v>
       </c>
       <c r="O112" t="n">
-        <v>308.2372071311196</v>
+        <v>281.7245733966218</v>
       </c>
     </row>
     <row r="113">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>299.031948905071</v>
+        <v>281.52</v>
       </c>
       <c r="O113" t="n">
-        <v>302.531948905071</v>
+        <v>291.8351904882726</v>
       </c>
     </row>
     <row r="114">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>302.531948905071</v>
+        <v>281.7245733966218</v>
       </c>
       <c r="O114" t="n">
-        <v>302.531948905071</v>
+        <v>281.7245733966218</v>
       </c>
     </row>
     <row r="115">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>302.531948905071</v>
+        <v>281.7245733966218</v>
       </c>
       <c r="O115" t="n">
-        <v>331.969041314943</v>
+        <v>314.4051904882726</v>
       </c>
     </row>
     <row r="116">
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>303.2195493015359</v>
+        <v>287.7245733966218</v>
       </c>
       <c r="O116" t="n">
-        <v>314.6604425007374</v>
+        <v>300.6596893769217</v>
       </c>
     </row>
     <row r="117">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>303.52</v>
+        <v>291.8351904882726</v>
       </c>
       <c r="O117" t="n">
-        <v>303.52</v>
+        <v>291.8351904882726</v>
       </c>
     </row>
     <row r="118">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>303.52</v>
+        <v>291.8351904882726</v>
       </c>
       <c r="O118" t="n">
-        <v>303.52</v>
+        <v>321.52</v>
       </c>
     </row>
     <row r="119">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>303.52</v>
+        <v>297.8351904882726</v>
       </c>
       <c r="O119" t="n">
-        <v>343.52</v>
+        <v>308.4051904882726</v>
       </c>
     </row>
     <row r="120">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>308.2372071311196</v>
+        <v>300.6596893769217</v>
       </c>
       <c r="O120" t="n">
-        <v>308.2372071311196</v>
+        <v>300.6596893769217</v>
       </c>
     </row>
     <row r="121">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -4455,10 +4455,10 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>308.2372071311196</v>
+        <v>300.6596893769217</v>
       </c>
       <c r="O121" t="n">
-        <v>308.531948905071</v>
+        <v>327.7245733966218</v>
       </c>
     </row>
     <row r="122">
@@ -4479,19 +4479,19 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>308.531948905071</v>
+        <v>303.52</v>
       </c>
       <c r="O122" t="n">
-        <v>317.6245984608001</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="123">
@@ -4512,19 +4512,19 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>314.6604425007374</v>
+        <v>303.52</v>
       </c>
       <c r="O123" t="n">
-        <v>314.6604425007374</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="124">
@@ -4545,19 +4545,19 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>314.6604425007374</v>
+        <v>303.52</v>
       </c>
       <c r="O124" t="n">
-        <v>314.6604425007374</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="125">
@@ -4578,19 +4578,19 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>314.6604425007374</v>
+        <v>308.4051904882726</v>
       </c>
       <c r="O125" t="n">
-        <v>325.7280004908874</v>
+        <v>308.4051904882726</v>
       </c>
     </row>
     <row r="126">
@@ -4611,19 +4611,19 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>317.6245984608001</v>
+        <v>308.4051904882726</v>
       </c>
       <c r="O126" t="n">
-        <v>317.6245984608001</v>
+        <v>337.8351904882726</v>
       </c>
     </row>
     <row r="127">
@@ -4649,14 +4649,14 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>317.6245984608001</v>
+        <v>314.4051904882726</v>
       </c>
       <c r="O127" t="n">
-        <v>341.469041314943</v>
+        <v>321.7245733966218</v>
       </c>
     </row>
     <row r="128">
@@ -4689,7 +4689,7 @@
         <v>321.52</v>
       </c>
       <c r="O128" t="n">
-        <v>325.969041314943</v>
+        <v>331.8351904882726</v>
       </c>
     </row>
     <row r="129">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>325.7280004908874</v>
+        <v>321.7245733966218</v>
       </c>
       <c r="O129" t="n">
-        <v>325.7280004908874</v>
+        <v>321.7245733966218</v>
       </c>
     </row>
     <row r="130">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>325.7280004908874</v>
+        <v>321.7245733966218</v>
       </c>
       <c r="O130" t="n">
-        <v>325.7280004908874</v>
+        <v>354.4051904882726</v>
       </c>
     </row>
     <row r="131">
@@ -4785,10 +4785,10 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>325.7280004908874</v>
+        <v>327.7245733966218</v>
       </c>
       <c r="O131" t="n">
-        <v>333.950722611011</v>
+        <v>334.970017636869</v>
       </c>
     </row>
     <row r="132">
@@ -4818,10 +4818,10 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>325.969041314943</v>
+        <v>331.8351904882726</v>
       </c>
       <c r="O132" t="n">
-        <v>325.969041314943</v>
+        <v>331.8351904882726</v>
       </c>
     </row>
     <row r="133">
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>325.969041314943</v>
+        <v>331.8351904882726</v>
       </c>
       <c r="O133" t="n">
         <v>361.52</v>
@@ -4875,19 +4875,19 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>331.969041314943</v>
+        <v>334.970017636869</v>
       </c>
       <c r="O134" t="n">
-        <v>335.469041314943</v>
+        <v>334.970017636869</v>
       </c>
     </row>
     <row r="135">
@@ -4913,14 +4913,14 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>333.950722611011</v>
+        <v>334.970017636869</v>
       </c>
       <c r="O135" t="n">
-        <v>333.950722611011</v>
+        <v>367.7245733966218</v>
       </c>
     </row>
     <row r="136">
@@ -4941,19 +4941,19 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>333.950722611011</v>
+        <v>337.8351904882726</v>
       </c>
       <c r="O136" t="n">
-        <v>351.6220242207774</v>
+        <v>348.4051904882726</v>
       </c>
     </row>
     <row r="137">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>335.469041314943</v>
+        <v>343.52</v>
       </c>
       <c r="O137" t="n">
-        <v>335.469041314943</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="138">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -5016,10 +5016,10 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>335.469041314943</v>
+        <v>343.52</v>
       </c>
       <c r="O138" t="n">
-        <v>382.1087756185271</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="139">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -5049,10 +5049,10 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>341.469041314943</v>
+        <v>343.52</v>
       </c>
       <c r="O139" t="n">
-        <v>345.6220242207774</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="140">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -5082,10 +5082,10 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>343.52</v>
+        <v>348.4051904882726</v>
       </c>
       <c r="O140" t="n">
-        <v>343.52</v>
+        <v>348.4051904882726</v>
       </c>
     </row>
     <row r="141">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>343.52</v>
+        <v>348.4051904882726</v>
       </c>
       <c r="O141" t="n">
-        <v>343.52</v>
+        <v>377.8351904882726</v>
       </c>
     </row>
     <row r="142">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -5148,10 +5148,10 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>343.52</v>
+        <v>354.4051904882726</v>
       </c>
       <c r="O142" t="n">
-        <v>383.52</v>
+        <v>361.7245733966218</v>
       </c>
     </row>
     <row r="143">
@@ -5172,19 +5172,19 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>345.6220242207774</v>
+        <v>361.52</v>
       </c>
       <c r="O143" t="n">
-        <v>345.6220242207774</v>
+        <v>371.8351904882726</v>
       </c>
     </row>
     <row r="144">
@@ -5210,14 +5210,14 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>345.6220242207774</v>
+        <v>361.7245733966218</v>
       </c>
       <c r="O144" t="n">
-        <v>398.6787756185271</v>
+        <v>361.7245733966218</v>
       </c>
     </row>
     <row r="145">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>351.6220242207774</v>
+        <v>361.7245733966218</v>
       </c>
       <c r="O145" t="n">
-        <v>361.772112638303</v>
+        <v>394.4051904882726</v>
       </c>
     </row>
     <row r="146">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -5280,10 +5280,10 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>361.52</v>
+        <v>367.7245733966218</v>
       </c>
       <c r="O146" t="n">
-        <v>376.1087756185271</v>
+        <v>378.824750231673</v>
       </c>
     </row>
     <row r="147">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -5313,10 +5313,10 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>361.772112638303</v>
+        <v>371.8351904882726</v>
       </c>
       <c r="O147" t="n">
-        <v>361.772112638303</v>
+        <v>371.8351904882726</v>
       </c>
     </row>
     <row r="148">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>361.772112638303</v>
+        <v>371.8351904882726</v>
       </c>
       <c r="O148" t="n">
-        <v>428.3715404496953</v>
+        <v>401.52</v>
       </c>
     </row>
     <row r="149">
@@ -5370,19 +5370,19 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>376.1087756185271</v>
+        <v>377.8351904882726</v>
       </c>
       <c r="O149" t="n">
-        <v>376.1087756185271</v>
+        <v>388.4051904882726</v>
       </c>
     </row>
     <row r="150">
@@ -5403,19 +5403,19 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>376.1087756185271</v>
+        <v>378.824750231673</v>
       </c>
       <c r="O150" t="n">
-        <v>401.52</v>
+        <v>378.824750231673</v>
       </c>
     </row>
     <row r="151">
@@ -5436,19 +5436,19 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>382.1087756185271</v>
+        <v>378.824750231673</v>
       </c>
       <c r="O151" t="n">
-        <v>392.6787756185271</v>
+        <v>407.7245733966218</v>
       </c>
     </row>
     <row r="152">
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>392.6787756185271</v>
+        <v>388.4051904882726</v>
       </c>
       <c r="O155" t="n">
-        <v>392.6787756185271</v>
+        <v>388.4051904882726</v>
       </c>
     </row>
     <row r="156">
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>392.6787756185271</v>
+        <v>388.4051904882726</v>
       </c>
       <c r="O156" t="n">
-        <v>419.5099192088014</v>
+        <v>417.8351904882726</v>
       </c>
     </row>
     <row r="157">
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>398.6787756185271</v>
+        <v>394.4051904882726</v>
       </c>
       <c r="O157" t="n">
-        <v>422.3715404496953</v>
+        <v>401.7245733966218</v>
       </c>
     </row>
     <row r="158">
@@ -5679,7 +5679,7 @@
         <v>401.52</v>
       </c>
       <c r="O158" t="n">
-        <v>413.5099192088014</v>
+        <v>411.8351904882726</v>
       </c>
     </row>
     <row r="159">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -5709,10 +5709,10 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>413.5099192088014</v>
+        <v>401.7245733966218</v>
       </c>
       <c r="O159" t="n">
-        <v>413.5099192088014</v>
+        <v>401.7245733966218</v>
       </c>
     </row>
     <row r="160">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -5742,10 +5742,10 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>413.5099192088014</v>
+        <v>401.7245733966218</v>
       </c>
       <c r="O160" t="n">
-        <v>441.52</v>
+        <v>434.4051904882726</v>
       </c>
     </row>
     <row r="161">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -5775,10 +5775,10 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>419.5099192088014</v>
+        <v>407.7245733966218</v>
       </c>
       <c r="O161" t="n">
-        <v>430.0799192088014</v>
+        <v>416.6218589800264</v>
       </c>
     </row>
     <row r="162">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -5808,10 +5808,10 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>422.3715404496953</v>
+        <v>411.8351904882726</v>
       </c>
       <c r="O162" t="n">
-        <v>422.3715404496953</v>
+        <v>411.8351904882726</v>
       </c>
     </row>
     <row r="163">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>422.3715404496953</v>
+        <v>411.8351904882726</v>
       </c>
       <c r="O163" t="n">
-        <v>436.0799192088014</v>
+        <v>441.52</v>
       </c>
     </row>
     <row r="164">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -5874,10 +5874,10 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>423.52</v>
+        <v>416.6218589800264</v>
       </c>
       <c r="O164" t="n">
-        <v>423.52</v>
+        <v>416.6218589800264</v>
       </c>
     </row>
     <row r="165">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -5907,9 +5907,11 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
+        <v>416.6218589800264</v>
+      </c>
+      <c r="O165" t="n">
+        <v>447.7245733966218</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5929,7 +5931,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -5938,10 +5940,10 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>428.3715404496953</v>
+        <v>417.8351904882726</v>
       </c>
       <c r="O166" t="n">
-        <v>437.4201832413976</v>
+        <v>428.4051904882726</v>
       </c>
     </row>
     <row r="167">
@@ -5962,7 +5964,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5971,10 +5973,10 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>430.0799192088014</v>
+        <v>423.52</v>
       </c>
       <c r="O167" t="n">
-        <v>430.0799192088014</v>
+        <v>423.52</v>
       </c>
     </row>
     <row r="168">
@@ -5995,7 +5997,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -6004,11 +6006,9 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>430.0799192088014</v>
-      </c>
-      <c r="O168" t="n">
-        <v>454.1670263662991</v>
-      </c>
+        <v>423.52</v>
+      </c>
+      <c r="O168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6028,19 +6028,19 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>436.0799192088014</v>
+        <v>428.4051904882726</v>
       </c>
       <c r="O169" t="n">
-        <v>447.8300718521417</v>
+        <v>428.4051904882726</v>
       </c>
     </row>
     <row r="170">
@@ -6061,19 +6061,19 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>437.4201832413976</v>
+        <v>428.4051904882726</v>
       </c>
       <c r="O170" t="n">
-        <v>437.4201832413976</v>
+        <v>457.8351904882726</v>
       </c>
     </row>
     <row r="171">
@@ -6094,19 +6094,19 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>437.4201832413976</v>
+        <v>434.4051904882726</v>
       </c>
       <c r="O171" t="n">
-        <v>453.8300718521417</v>
+        <v>441.7245733966218</v>
       </c>
     </row>
     <row r="172">
@@ -6139,7 +6139,7 @@
         <v>441.52</v>
       </c>
       <c r="O172" t="n">
-        <v>448.1670263662991</v>
+        <v>451.8351904882726</v>
       </c>
     </row>
     <row r="173">
@@ -6169,10 +6169,10 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>447.8300718521417</v>
+        <v>441.7245733966218</v>
       </c>
       <c r="O173" t="n">
-        <v>447.8300718521417</v>
+        <v>441.7245733966218</v>
       </c>
     </row>
     <row r="174">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>447.8300718521417</v>
+        <v>441.7245733966218</v>
       </c>
       <c r="O174" t="n">
-        <v>470.7370263662991</v>
+        <v>474.4051904882726</v>
       </c>
     </row>
     <row r="175">
@@ -6226,19 +6226,19 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>448.1670263662991</v>
+        <v>447.7245733966218</v>
       </c>
       <c r="O175" t="n">
-        <v>448.1670263662991</v>
+        <v>456.7181356930347</v>
       </c>
     </row>
     <row r="176">
@@ -6264,13 +6264,15 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>448.1670263662991</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
+        <v>451.8351904882726</v>
+      </c>
+      <c r="O176" t="n">
+        <v>451.8351904882726</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6290,20 +6292,18 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>453.8300718521417</v>
-      </c>
-      <c r="O177" t="n">
-        <v>462.9268530003482</v>
-      </c>
+        <v>451.8351904882726</v>
+      </c>
+      <c r="O177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6323,19 +6323,19 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>454.1670263662991</v>
+        <v>456.7181356930347</v>
       </c>
       <c r="O178" t="n">
-        <v>464.7370263662991</v>
+        <v>456.7181356930347</v>
       </c>
     </row>
     <row r="179">
@@ -6361,14 +6361,14 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>462.9268530003482</v>
+        <v>456.7181356930347</v>
       </c>
       <c r="O179" t="n">
-        <v>462.9268530003482</v>
+        <v>487.7245733966218</v>
       </c>
     </row>
     <row r="180">
@@ -6389,19 +6389,19 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>462.9268530003482</v>
+        <v>457.8351904882726</v>
       </c>
       <c r="O180" t="n">
-        <v>480.8688399943525</v>
+        <v>468.4051904882726</v>
       </c>
     </row>
     <row r="181">
@@ -6431,10 +6431,10 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>464.7370263662991</v>
+        <v>468.4051904882726</v>
       </c>
       <c r="O181" t="n">
-        <v>464.7370263662991</v>
+        <v>468.4051904882726</v>
       </c>
     </row>
     <row r="182">
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>464.7370263662991</v>
+        <v>468.4051904882726</v>
       </c>
       <c r="O182" t="inlineStr"/>
     </row>
@@ -6495,10 +6495,10 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>470.7370263662991</v>
+        <v>474.4051904882726</v>
       </c>
       <c r="O183" t="n">
-        <v>474.8688399943525</v>
+        <v>481.7245733966218</v>
       </c>
     </row>
     <row r="184">
@@ -6528,10 +6528,10 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>474.8688399943525</v>
+        <v>481.7245733966218</v>
       </c>
       <c r="O184" t="n">
-        <v>474.8688399943525</v>
+        <v>481.7245733966218</v>
       </c>
     </row>
     <row r="185">
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>474.8688399943525</v>
+        <v>481.7245733966218</v>
       </c>
       <c r="O185" t="inlineStr"/>
     </row>
@@ -6592,10 +6592,10 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>480.8688399943525</v>
+        <v>487.7245733966218</v>
       </c>
       <c r="O186" t="n">
-        <v>490.4794384962909</v>
+        <v>497.7457704004985</v>
       </c>
     </row>
     <row r="187">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>490.4794384962909</v>
+        <v>497.7457704004985</v>
       </c>
       <c r="O187" t="inlineStr"/>
     </row>

--- a/spazio_stati.xlsx
+++ b/spazio_stati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,206 +509,164 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001E235A41650&gt;</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E2" t="n">
-        <v>40</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.64513793119204</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.807942639991795</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.245444240247178</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001E2391F6790&gt;</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E3" t="n">
-        <v>40</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>3.64513793119204</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.807942639991795</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.10017683505118</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001E23A2F5150&gt;</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.64513793119204</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.807942639991795</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.897285583404603</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001E235A40F10&gt;</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.64513793119204</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.807942639991795</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.993562296412884</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>61.52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001E239CB16D0&gt;</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
-        <v>3.64513793119204</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.807942639991795</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.02119700387674</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>71.20053822476727</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -728,7 +686,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -739,7 +697,9 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>87.77053822476728</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -759,7 +719,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -770,7 +730,9 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>113.2552373854407</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -790,18 +752,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>17.52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -821,18 +785,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
+        <v>17.52</v>
+      </c>
+      <c r="O10" t="n">
+        <v>17.52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -852,7 +818,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -861,9 +827,11 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
+        <v>17.52</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17.52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -883,18 +851,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
+        <v>17.52</v>
+      </c>
+      <c r="O12" t="n">
+        <v>28.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -914,18 +884,5750 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="O13" t="n">
+        <v>43.52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="O14" t="n">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="O15" t="n">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="O16" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="O17" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="O18" t="n">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="O19" t="n">
+        <v>49.08</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="O20" t="n">
+        <v>43.52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="O21" t="n">
+        <v>43.52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="O22" t="n">
+        <v>63.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="O23" t="n">
+        <v>49.08</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="O24" t="n">
+        <v>49.08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="O25" t="n">
+        <v>59.59999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="O26" t="n">
+        <v>59.59999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="O27" t="n">
+        <v>59.59999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="O28" t="n">
+        <v>70.11999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>61.52</v>
+      </c>
+      <c r="O29" t="n">
+        <v>65.20053822476727</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="O30" t="n">
+        <v>63.52</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="O31" t="n">
+        <v>63.52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="O32" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>65.20053822476727</v>
+      </c>
+      <c r="O33" t="n">
+        <v>65.20053822476727</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>65.20053822476727</v>
+      </c>
+      <c r="O34" t="n">
+        <v>81.52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>70.11999999999999</v>
+      </c>
+      <c r="O35" t="n">
+        <v>70.11999999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>70.11999999999999</v>
+      </c>
+      <c r="O36" t="n">
+        <v>70.11999999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>70.11999999999999</v>
+      </c>
+      <c r="O37" t="n">
+        <v>80.63999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>71.20053822476727</v>
+      </c>
+      <c r="O38" t="n">
+        <v>81.77053822476728</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>80.63999999999999</v>
+      </c>
+      <c r="O39" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="O40" t="n">
+        <v>85.20053822476727</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>81.77053822476728</v>
+      </c>
+      <c r="O41" t="n">
+        <v>81.77053822476728</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>81.77053822476728</v>
+      </c>
+      <c r="O42" t="n">
+        <v>91.20053822476727</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O43" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O44" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O45" t="n">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O46" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O47" t="n">
+        <v>94.03999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>85.20053822476727</v>
+      </c>
+      <c r="O48" t="n">
+        <v>85.20053822476727</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>85.20053822476727</v>
+      </c>
+      <c r="O49" t="n">
+        <v>101.52</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>87.77053822476728</v>
+      </c>
+      <c r="O50" t="n">
+        <v>107.2552373854407</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>91.20053822476727</v>
+      </c>
+      <c r="O51" t="n">
+        <v>101.7705382247673</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>94.03999999999999</v>
+      </c>
+      <c r="O52" t="n">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>101.52</v>
+      </c>
+      <c r="O53" t="n">
+        <v>105.2005382247673</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>101.7705382247673</v>
+      </c>
+      <c r="O54" t="n">
+        <v>101.7705382247673</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>101.7705382247673</v>
+      </c>
+      <c r="O55" t="n">
+        <v>111.2005382247673</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="O56" t="n">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="O57" t="n">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="O58" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="O59" t="n">
+        <v>103.52</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>103.52</v>
+      </c>
+      <c r="O60" t="n">
+        <v>114.04</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>105.2005382247673</v>
+      </c>
+      <c r="O61" t="n">
+        <v>105.2005382247673</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>105.2005382247673</v>
+      </c>
+      <c r="O62" t="n">
+        <v>121.52</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>107.2552373854407</v>
+      </c>
+      <c r="O63" t="n">
+        <v>107.2552373854407</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>107.2552373854407</v>
+      </c>
+      <c r="O64" t="n">
+        <v>107.7705382247673</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>107.7705382247673</v>
+      </c>
+      <c r="O65" t="n">
+        <v>127.2552373854407</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>111.2005382247673</v>
+      </c>
+      <c r="O66" t="n">
+        <v>121.7705382247673</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>113.2552373854407</v>
+      </c>
+      <c r="O67" t="n">
+        <v>125.983342077376</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>114.04</v>
+      </c>
+      <c r="O68" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>121.52</v>
+      </c>
+      <c r="O69" t="n">
+        <v>125.2005382247673</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>121.7705382247673</v>
+      </c>
+      <c r="O70" t="n">
+        <v>121.7705382247673</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>Starving</t>
         </is>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>121.7705382247673</v>
+      </c>
+      <c r="O71" t="n">
+        <v>131.2005382247673</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="O72" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="O73" t="n">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="O74" t="n">
+        <v>143.52</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="O75" t="n">
+        <v>170.4127133536522</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>125.2005382247673</v>
+      </c>
+      <c r="O76" t="n">
+        <v>125.2005382247673</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>125.2005382247673</v>
+      </c>
+      <c r="O77" t="n">
+        <v>141.52</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>125.983342077376</v>
+      </c>
+      <c r="O78" t="n">
+        <v>125.983342077376</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>125.983342077376</v>
+      </c>
+      <c r="O79" t="n">
+        <v>133.2552373854407</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>127.2552373854407</v>
+      </c>
+      <c r="O80" t="n">
+        <v>127.2552373854407</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>127.2552373854407</v>
+      </c>
+      <c r="O81" t="n">
+        <v>127.7705382247673</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>127.7705382247673</v>
+      </c>
+      <c r="O82" t="n">
+        <v>147.2552373854407</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>131.2005382247673</v>
+      </c>
+      <c r="O83" t="n">
+        <v>141.7705382247673</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>133.2552373854407</v>
+      </c>
+      <c r="O84" t="n">
+        <v>143.2555518021751</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>141.52</v>
+      </c>
+      <c r="O85" t="n">
+        <v>145.2005382247673</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>141.7705382247673</v>
+      </c>
+      <c r="O86" t="n">
+        <v>141.7705382247673</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>141.7705382247673</v>
+      </c>
+      <c r="O87" t="n">
+        <v>151.2005382247673</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>143.2555518021751</v>
+      </c>
+      <c r="O88" t="n">
+        <v>143.2555518021751</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>143.2555518021751</v>
+      </c>
+      <c r="O89" t="n">
+        <v>153.2552373854407</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>143.52</v>
+      </c>
+      <c r="O90" t="n">
+        <v>143.52</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>143.52</v>
+      </c>
+      <c r="O91" t="n">
+        <v>143.52</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>143.52</v>
+      </c>
+      <c r="O92" t="n">
+        <v>163.52</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>145.2005382247673</v>
+      </c>
+      <c r="O93" t="n">
+        <v>145.2005382247673</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>145.2005382247673</v>
+      </c>
+      <c r="O94" t="n">
+        <v>161.52</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>147.2552373854407</v>
+      </c>
+      <c r="O95" t="n">
+        <v>147.2552373854407</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>147.2552373854407</v>
+      </c>
+      <c r="O96" t="n">
+        <v>147.7705382247673</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>147.7705382247673</v>
+      </c>
+      <c r="O97" t="n">
+        <v>167.2552373854407</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>151.2005382247673</v>
+      </c>
+      <c r="O98" t="n">
+        <v>161.7705382247673</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>153.2552373854407</v>
+      </c>
+      <c r="O99" t="n">
+        <v>164.4127133536522</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>161.52</v>
+      </c>
+      <c r="O100" t="n">
+        <v>165.2005382247673</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>161.7705382247673</v>
+      </c>
+      <c r="O101" t="n">
+        <v>161.7705382247673</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>161.7705382247673</v>
+      </c>
+      <c r="O102" t="n">
+        <v>171.2005382247673</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>163.52</v>
+      </c>
+      <c r="O103" t="n">
+        <v>163.52</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>163.52</v>
+      </c>
+      <c r="O104" t="n">
+        <v>163.52</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>163.52</v>
+      </c>
+      <c r="O105" t="n">
+        <v>183.52</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>164.4127133536522</v>
+      </c>
+      <c r="O106" t="n">
+        <v>164.4127133536522</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>164.4127133536522</v>
+      </c>
+      <c r="O107" t="n">
+        <v>173.2552373854407</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>165.2005382247673</v>
+      </c>
+      <c r="O108" t="n">
+        <v>165.2005382247673</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>165.2005382247673</v>
+      </c>
+      <c r="O109" t="n">
+        <v>181.52</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>167.2552373854407</v>
+      </c>
+      <c r="O110" t="n">
+        <v>167.2552373854407</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>167.2552373854407</v>
+      </c>
+      <c r="O111" t="n">
+        <v>167.7705382247673</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>167.7705382247673</v>
+      </c>
+      <c r="O112" t="n">
+        <v>187.2552373854407</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>170.4127133536522</v>
+      </c>
+      <c r="O113" t="n">
+        <v>180.9327133536522</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>171.2005382247673</v>
+      </c>
+      <c r="O114" t="n">
+        <v>181.7705382247673</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>173.2552373854407</v>
+      </c>
+      <c r="O115" t="n">
+        <v>186.9370237838436</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>180.9327133536522</v>
+      </c>
+      <c r="O116" t="n">
+        <v>180.9327133536522</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>180.9327133536522</v>
+      </c>
+      <c r="O117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>181.52</v>
+      </c>
+      <c r="O118" t="n">
+        <v>185.2005382247673</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>181.7705382247673</v>
+      </c>
+      <c r="O119" t="n">
+        <v>181.7705382247673</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>181.7705382247673</v>
+      </c>
+      <c r="O120" t="n">
+        <v>191.2005382247673</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>183.52</v>
+      </c>
+      <c r="O121" t="n">
+        <v>183.52</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>183.52</v>
+      </c>
+      <c r="O122" t="n">
+        <v>183.52</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>183.52</v>
+      </c>
+      <c r="O123" t="n">
+        <v>203.52</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>185.2005382247673</v>
+      </c>
+      <c r="O124" t="n">
+        <v>185.2005382247673</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>185.2005382247673</v>
+      </c>
+      <c r="O125" t="n">
+        <v>201.52</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>186.9370237838436</v>
+      </c>
+      <c r="O126" t="n">
+        <v>186.9370237838436</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>186.9370237838436</v>
+      </c>
+      <c r="O127" t="n">
+        <v>193.2552373854407</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>187.2552373854407</v>
+      </c>
+      <c r="O128" t="n">
+        <v>187.2552373854407</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>187.2552373854407</v>
+      </c>
+      <c r="O129" t="n">
+        <v>187.7705382247673</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>187.7705382247673</v>
+      </c>
+      <c r="O130" t="n">
+        <v>207.2552373854407</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>191.2005382247673</v>
+      </c>
+      <c r="O131" t="n">
+        <v>201.7705382247673</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>193.2552373854407</v>
+      </c>
+      <c r="O132" t="n">
+        <v>206.1903533657406</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>201.52</v>
+      </c>
+      <c r="O133" t="n">
+        <v>205.2005382247673</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>201.7705382247673</v>
+      </c>
+      <c r="O134" t="n">
+        <v>201.7705382247673</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>201.7705382247673</v>
+      </c>
+      <c r="O135" t="n">
+        <v>211.2005382247673</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>203.52</v>
+      </c>
+      <c r="O136" t="n">
+        <v>203.52</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>203.52</v>
+      </c>
+      <c r="O137" t="n">
+        <v>203.52</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>203.52</v>
+      </c>
+      <c r="O138" t="n">
+        <v>223.52</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>205.2005382247673</v>
+      </c>
+      <c r="O139" t="n">
+        <v>205.2005382247673</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>205.2005382247673</v>
+      </c>
+      <c r="O140" t="n">
+        <v>221.52</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>206.1903533657406</v>
+      </c>
+      <c r="O141" t="n">
+        <v>206.1903533657406</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>206.1903533657406</v>
+      </c>
+      <c r="O142" t="n">
+        <v>213.2552373854407</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>207.2552373854407</v>
+      </c>
+      <c r="O143" t="n">
+        <v>207.2552373854407</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>207.2552373854407</v>
+      </c>
+      <c r="O144" t="n">
+        <v>207.7705382247673</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>207.7705382247673</v>
+      </c>
+      <c r="O145" t="n">
+        <v>227.2552373854407</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>211.2005382247673</v>
+      </c>
+      <c r="O146" t="n">
+        <v>221.7705382247673</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>213.2552373854407</v>
+      </c>
+      <c r="O147" t="n">
+        <v>220.5006816256878</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>220.5006816256878</v>
+      </c>
+      <c r="O148" t="n">
+        <v>220.5006816256878</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>220.5006816256878</v>
+      </c>
+      <c r="O149" t="n">
+        <v>233.2552373854407</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>221.52</v>
+      </c>
+      <c r="O150" t="n">
+        <v>225.2005382247673</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>221.7705382247673</v>
+      </c>
+      <c r="O151" t="n">
+        <v>221.7705382247673</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>221.7705382247673</v>
+      </c>
+      <c r="O152" t="n">
+        <v>231.2005382247673</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>223.52</v>
+      </c>
+      <c r="O153" t="n">
+        <v>223.52</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>223.52</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>225.2005382247673</v>
+      </c>
+      <c r="O155" t="n">
+        <v>225.2005382247673</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>225.2005382247673</v>
+      </c>
+      <c r="O156" t="n">
+        <v>241.52</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>227.2552373854407</v>
+      </c>
+      <c r="O157" t="n">
+        <v>227.2552373854407</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>227.2552373854407</v>
+      </c>
+      <c r="O158" t="n">
+        <v>227.7705382247673</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>227.7705382247673</v>
+      </c>
+      <c r="O159" t="n">
+        <v>247.2552373854407</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>231.2005382247673</v>
+      </c>
+      <c r="O160" t="n">
+        <v>241.7705382247673</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>233.2552373854407</v>
+      </c>
+      <c r="O161" t="n">
+        <v>244.3554142204918</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>241.52</v>
+      </c>
+      <c r="O162" t="n">
+        <v>245.2005382247673</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>241.7705382247673</v>
+      </c>
+      <c r="O163" t="n">
+        <v>241.7705382247673</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>241.7705382247673</v>
+      </c>
+      <c r="O164" t="n">
+        <v>251.2005382247673</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>244.3554142204918</v>
+      </c>
+      <c r="O165" t="n">
+        <v>244.3554142204918</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>244.3554142204918</v>
+      </c>
+      <c r="O166" t="n">
+        <v>253.2552373854407</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>245.2005382247673</v>
+      </c>
+      <c r="O167" t="n">
+        <v>245.2005382247673</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>245.2005382247673</v>
+      </c>
+      <c r="O168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>247.2552373854407</v>
+      </c>
+      <c r="O169" t="n">
+        <v>247.2552373854407</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>247.2552373854407</v>
+      </c>
+      <c r="O170" t="n">
+        <v>247.7705382247673</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>247.7705382247673</v>
+      </c>
+      <c r="O171" t="n">
+        <v>267.2552373854406</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>251.2005382247673</v>
+      </c>
+      <c r="O172" t="n">
+        <v>261.7705382247673</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>253.2552373854407</v>
+      </c>
+      <c r="O173" t="n">
+        <v>262.1525229688453</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>261.7705382247673</v>
+      </c>
+      <c r="O174" t="n">
+        <v>261.7705382247673</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>261.7705382247673</v>
+      </c>
+      <c r="O175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>262.1525229688453</v>
+      </c>
+      <c r="O176" t="n">
+        <v>262.1525229688453</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>262.1525229688453</v>
+      </c>
+      <c r="O177" t="n">
+        <v>273.2552373854406</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>267.2552373854406</v>
+      </c>
+      <c r="O178" t="n">
+        <v>267.2552373854406</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>267.2552373854406</v>
+      </c>
+      <c r="O179" t="n">
+        <v>267.7705382247673</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>267.7705382247673</v>
+      </c>
+      <c r="O180" t="n">
+        <v>287.2552373854407</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>273.2552373854406</v>
+      </c>
+      <c r="O181" t="n">
+        <v>282.2487996818535</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>282.2487996818535</v>
+      </c>
+      <c r="O182" t="n">
+        <v>282.2487996818535</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>282.2487996818535</v>
+      </c>
+      <c r="O183" t="n">
+        <v>293.2552373854407</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>287.2552373854407</v>
+      </c>
+      <c r="O184" t="n">
+        <v>287.2552373854407</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>287.2552373854407</v>
+      </c>
+      <c r="O185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>293.2552373854407</v>
+      </c>
+      <c r="O186" t="n">
+        <v>303.2764343893174</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>303.2764343893174</v>
+      </c>
+      <c r="O187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spazio_stati.xlsx
+++ b/spazio_stati.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>71.20053822476727</v>
+        <v>71.5222273953971</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>87.77053822476728</v>
+        <v>88.09222739539709</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>113.2552373854407</v>
+        <v>124.2665719836312</v>
       </c>
     </row>
     <row r="9">
@@ -1193,7 +1193,7 @@
         <v>43.52</v>
       </c>
       <c r="O22" t="n">
-        <v>63.52</v>
+        <v>93.52</v>
       </c>
     </row>
     <row r="23">
@@ -1424,7 +1424,7 @@
         <v>61.52</v>
       </c>
       <c r="O29" t="n">
-        <v>65.20053822476727</v>
+        <v>65.5222273953971</v>
       </c>
     </row>
     <row r="30">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>63.52</v>
+        <v>65.5222273953971</v>
       </c>
       <c r="O30" t="n">
-        <v>63.52</v>
+        <v>65.5222273953971</v>
       </c>
     </row>
     <row r="31">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>63.52</v>
+        <v>65.5222273953971</v>
       </c>
       <c r="O31" t="n">
-        <v>63.52</v>
+        <v>111.52</v>
       </c>
     </row>
     <row r="32">
@@ -1511,19 +1511,19 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>63.52</v>
+        <v>70.11999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>83.52</v>
+        <v>93.52</v>
       </c>
     </row>
     <row r="33">
@@ -1544,19 +1544,19 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>65.20053822476727</v>
+        <v>71.5222273953971</v>
       </c>
       <c r="O33" t="n">
-        <v>65.20053822476727</v>
+        <v>82.09222739539709</v>
       </c>
     </row>
     <row r="34">
@@ -1577,19 +1577,19 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>65.20053822476727</v>
+        <v>82.09222739539709</v>
       </c>
       <c r="O34" t="n">
-        <v>81.52</v>
+        <v>82.09222739539709</v>
       </c>
     </row>
     <row r="35">
@@ -1610,19 +1610,19 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>70.11999999999999</v>
+        <v>82.09222739539709</v>
       </c>
       <c r="O35" t="n">
-        <v>70.11999999999999</v>
+        <v>131.093362422336</v>
       </c>
     </row>
     <row r="36">
@@ -1643,19 +1643,19 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>70.11999999999999</v>
+        <v>88.09222739539709</v>
       </c>
       <c r="O36" t="n">
-        <v>70.11999999999999</v>
+        <v>118.2665719836312</v>
       </c>
     </row>
     <row r="37">
@@ -1676,19 +1676,19 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>70.11999999999999</v>
+        <v>93.52</v>
       </c>
       <c r="O37" t="n">
-        <v>80.63999999999999</v>
+        <v>93.52</v>
       </c>
     </row>
     <row r="38">
@@ -1709,19 +1709,19 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>71.20053822476727</v>
+        <v>93.52</v>
       </c>
       <c r="O38" t="n">
-        <v>81.77053822476728</v>
+        <v>93.52</v>
       </c>
     </row>
     <row r="39">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>80.63999999999999</v>
+        <v>93.52</v>
       </c>
       <c r="O39" t="n">
-        <v>83.52</v>
+        <v>113.52</v>
       </c>
     </row>
     <row r="40">
@@ -1775,19 +1775,19 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>81.52</v>
+        <v>93.52</v>
       </c>
       <c r="O40" t="n">
-        <v>85.20053822476727</v>
+        <v>93.52</v>
       </c>
     </row>
     <row r="41">
@@ -1808,19 +1808,19 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>81.77053822476728</v>
+        <v>93.52</v>
       </c>
       <c r="O41" t="n">
-        <v>81.77053822476728</v>
+        <v>104.04</v>
       </c>
     </row>
     <row r="42">
@@ -1841,19 +1841,19 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>81.77053822476728</v>
+        <v>104.04</v>
       </c>
       <c r="O42" t="n">
-        <v>91.20053822476727</v>
+        <v>113.52</v>
       </c>
     </row>
     <row r="43">
@@ -1874,19 +1874,19 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>83.52</v>
+        <v>111.52</v>
       </c>
       <c r="O43" t="n">
-        <v>83.52</v>
+        <v>125.093362422336</v>
       </c>
     </row>
     <row r="44">
@@ -1912,14 +1912,14 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>83.52</v>
+        <v>113.52</v>
       </c>
       <c r="O44" t="n">
-        <v>83.52</v>
+        <v>113.52</v>
       </c>
     </row>
     <row r="45">
@@ -1945,14 +1945,14 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>83.52</v>
+        <v>113.52</v>
       </c>
       <c r="O45" t="n">
-        <v>103.52</v>
+        <v>113.52</v>
       </c>
     </row>
     <row r="46">
@@ -1973,19 +1973,19 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>83.52</v>
+        <v>113.52</v>
       </c>
       <c r="O46" t="n">
-        <v>83.52</v>
+        <v>163.52</v>
       </c>
     </row>
     <row r="47">
@@ -2011,14 +2011,14 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>83.52</v>
+        <v>113.52</v>
       </c>
       <c r="O47" t="n">
-        <v>94.03999999999999</v>
+        <v>113.52</v>
       </c>
     </row>
     <row r="48">
@@ -2039,19 +2039,19 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>85.20053822476727</v>
+        <v>113.52</v>
       </c>
       <c r="O48" t="n">
-        <v>85.20053822476727</v>
+        <v>124.04</v>
       </c>
     </row>
     <row r="49">
@@ -2072,19 +2072,19 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>85.20053822476727</v>
+        <v>118.2665719836312</v>
       </c>
       <c r="O49" t="n">
-        <v>101.52</v>
+        <v>118.2665719836312</v>
       </c>
     </row>
     <row r="50">
@@ -2110,14 +2110,14 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>87.77053822476728</v>
+        <v>118.2665719836312</v>
       </c>
       <c r="O50" t="n">
-        <v>107.2552373854407</v>
+        <v>147.663362422336</v>
       </c>
     </row>
     <row r="51">
@@ -2138,19 +2138,19 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>91.20053822476727</v>
+        <v>124.04</v>
       </c>
       <c r="O51" t="n">
-        <v>101.7705382247673</v>
+        <v>163.52</v>
       </c>
     </row>
     <row r="52">
@@ -2171,19 +2171,19 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>94.03999999999999</v>
+        <v>124.2665719836312</v>
       </c>
       <c r="O52" t="n">
-        <v>103.52</v>
+        <v>136.9946766755665</v>
       </c>
     </row>
     <row r="53">
@@ -2209,14 +2209,14 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>101.52</v>
+        <v>125.093362422336</v>
       </c>
       <c r="O53" t="n">
-        <v>105.2005382247673</v>
+        <v>125.093362422336</v>
       </c>
     </row>
     <row r="54">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>101.7705382247673</v>
+        <v>125.093362422336</v>
       </c>
       <c r="O54" t="n">
-        <v>101.7705382247673</v>
+        <v>131.52</v>
       </c>
     </row>
     <row r="55">
@@ -2275,14 +2275,14 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>101.7705382247673</v>
+        <v>131.093362422336</v>
       </c>
       <c r="O55" t="n">
-        <v>111.2005382247673</v>
+        <v>141.663362422336</v>
       </c>
     </row>
     <row r="56">
@@ -2303,19 +2303,19 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>103.52</v>
+        <v>131.52</v>
       </c>
       <c r="O56" t="n">
-        <v>103.52</v>
+        <v>144.9147873130792</v>
       </c>
     </row>
     <row r="57">
@@ -2336,19 +2336,19 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>103.52</v>
+        <v>136.9946766755665</v>
       </c>
       <c r="O57" t="n">
-        <v>103.52</v>
+        <v>136.9946766755665</v>
       </c>
     </row>
     <row r="58">
@@ -2369,19 +2369,19 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>103.52</v>
+        <v>136.9946766755665</v>
       </c>
       <c r="O58" t="n">
-        <v>123.52</v>
+        <v>158.4712023175533</v>
       </c>
     </row>
     <row r="59">
@@ -2402,19 +2402,19 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>103.52</v>
+        <v>141.663362422336</v>
       </c>
       <c r="O59" t="n">
-        <v>103.52</v>
+        <v>141.663362422336</v>
       </c>
     </row>
     <row r="60">
@@ -2435,19 +2435,19 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>103.52</v>
+        <v>141.663362422336</v>
       </c>
       <c r="O60" t="n">
-        <v>114.04</v>
+        <v>150.9147873130792</v>
       </c>
     </row>
     <row r="61">
@@ -2477,10 +2477,10 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>105.2005382247673</v>
+        <v>144.9147873130792</v>
       </c>
       <c r="O61" t="n">
-        <v>105.2005382247673</v>
+        <v>144.9147873130792</v>
       </c>
     </row>
     <row r="62">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>105.2005382247673</v>
+        <v>144.9147873130792</v>
       </c>
       <c r="O62" t="n">
-        <v>121.52</v>
+        <v>181.52</v>
       </c>
     </row>
     <row r="63">
@@ -2539,14 +2539,14 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>107.2552373854407</v>
+        <v>147.663362422336</v>
       </c>
       <c r="O63" t="n">
-        <v>107.2552373854407</v>
+        <v>152.4712023175533</v>
       </c>
     </row>
     <row r="64">
@@ -2567,19 +2567,19 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>107.2552373854407</v>
+        <v>150.9147873130792</v>
       </c>
       <c r="O64" t="n">
-        <v>107.7705382247673</v>
+        <v>154.4147873130792</v>
       </c>
     </row>
     <row r="65">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>107.7705382247673</v>
+        <v>152.4712023175533</v>
       </c>
       <c r="O65" t="n">
-        <v>127.2552373854407</v>
+        <v>152.4712023175533</v>
       </c>
     </row>
     <row r="66">
@@ -2633,19 +2633,19 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>111.2005382247673</v>
+        <v>152.4712023175533</v>
       </c>
       <c r="O66" t="n">
-        <v>121.7705382247673</v>
+        <v>160.4147873130792</v>
       </c>
     </row>
     <row r="67">
@@ -2666,19 +2666,19 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>113.2552373854407</v>
+        <v>154.4147873130792</v>
       </c>
       <c r="O67" t="n">
-        <v>125.983342077376</v>
+        <v>154.4147873130792</v>
       </c>
     </row>
     <row r="68">
@@ -2699,19 +2699,19 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>114.04</v>
+        <v>154.4147873130792</v>
       </c>
       <c r="O68" t="n">
-        <v>123.52</v>
+        <v>192.1856924685908</v>
       </c>
     </row>
     <row r="69">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>121.52</v>
+        <v>158.4712023175533</v>
       </c>
       <c r="O69" t="n">
-        <v>125.2005382247673</v>
+        <v>171.1993070094886</v>
       </c>
     </row>
     <row r="70">
@@ -2765,19 +2765,19 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>121.7705382247673</v>
+        <v>160.4147873130792</v>
       </c>
       <c r="O70" t="n">
-        <v>121.7705382247673</v>
+        <v>174.5663654672636</v>
       </c>
     </row>
     <row r="71">
@@ -2798,19 +2798,19 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>121.7705382247673</v>
+        <v>163.52</v>
       </c>
       <c r="O71" t="n">
-        <v>131.2005382247673</v>
+        <v>163.52</v>
       </c>
     </row>
     <row r="72">
@@ -2836,14 +2836,14 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>123.52</v>
+        <v>163.52</v>
       </c>
       <c r="O72" t="n">
-        <v>123.52</v>
+        <v>163.52</v>
       </c>
     </row>
     <row r="73">
@@ -2869,14 +2869,14 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>123.52</v>
+        <v>163.52</v>
       </c>
       <c r="O73" t="n">
-        <v>123.52</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="74">
@@ -2897,19 +2897,19 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>123.52</v>
+        <v>163.52</v>
       </c>
       <c r="O74" t="n">
-        <v>143.52</v>
+        <v>163.52</v>
       </c>
     </row>
     <row r="75">
@@ -2935,14 +2935,14 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>123.52</v>
+        <v>163.52</v>
       </c>
       <c r="O75" t="n">
-        <v>170.4127133536522</v>
+        <v>174.04</v>
       </c>
     </row>
     <row r="76">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>125.2005382247673</v>
+        <v>171.1993070094886</v>
       </c>
       <c r="O76" t="n">
-        <v>125.2005382247673</v>
+        <v>171.1993070094886</v>
       </c>
     </row>
     <row r="77">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -3005,10 +3005,10 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>125.2005382247673</v>
+        <v>171.1993070094886</v>
       </c>
       <c r="O77" t="n">
-        <v>141.52</v>
+        <v>180.5663654672636</v>
       </c>
     </row>
     <row r="78">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -3038,10 +3038,10 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>125.983342077376</v>
+        <v>174.04</v>
       </c>
       <c r="O78" t="n">
-        <v>125.983342077376</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="79">
@@ -3062,19 +3062,19 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>125.983342077376</v>
+        <v>174.5663654672636</v>
       </c>
       <c r="O79" t="n">
-        <v>133.2552373854407</v>
+        <v>174.5663654672636</v>
       </c>
     </row>
     <row r="80">
@@ -3100,14 +3100,14 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>127.2552373854407</v>
+        <v>174.5663654672636</v>
       </c>
       <c r="O80" t="n">
-        <v>127.2552373854407</v>
+        <v>208.7556924685908</v>
       </c>
     </row>
     <row r="81">
@@ -3128,19 +3128,19 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>127.2552373854407</v>
+        <v>180.5663654672636</v>
       </c>
       <c r="O81" t="n">
-        <v>127.7705382247673</v>
+        <v>193.2944701591989</v>
       </c>
     </row>
     <row r="82">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -3170,10 +3170,10 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>127.7705382247673</v>
+        <v>181.52</v>
       </c>
       <c r="O82" t="n">
-        <v>147.2552373854407</v>
+        <v>186.1856924685908</v>
       </c>
     </row>
     <row r="83">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>131.2005382247673</v>
+        <v>186.1856924685908</v>
       </c>
       <c r="O83" t="n">
-        <v>141.7705382247673</v>
+        <v>186.1856924685908</v>
       </c>
     </row>
     <row r="84">
@@ -3227,19 +3227,19 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>133.2552373854407</v>
+        <v>186.1856924685908</v>
       </c>
       <c r="O84" t="n">
-        <v>143.2555518021751</v>
+        <v>221.52</v>
       </c>
     </row>
     <row r="85">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>141.52</v>
+        <v>192.1856924685908</v>
       </c>
       <c r="O85" t="n">
-        <v>145.2005382247673</v>
+        <v>202.7556924685908</v>
       </c>
     </row>
     <row r="86">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>141.7705382247673</v>
+        <v>193.2944701591989</v>
       </c>
       <c r="O86" t="n">
-        <v>141.7705382247673</v>
+        <v>193.2944701591989</v>
       </c>
     </row>
     <row r="87">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>141.7705382247673</v>
+        <v>193.2944701591989</v>
       </c>
       <c r="O87" t="n">
-        <v>151.2005382247673</v>
+        <v>228.7757880773786</v>
       </c>
     </row>
     <row r="88">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>143.2555518021751</v>
+        <v>202.7556924685908</v>
       </c>
       <c r="O88" t="n">
-        <v>143.2555518021751</v>
+        <v>202.7556924685908</v>
       </c>
     </row>
     <row r="89">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>143.2555518021751</v>
+        <v>202.7556924685908</v>
       </c>
       <c r="O89" t="n">
-        <v>153.2552373854407</v>
+        <v>231.9195880457531</v>
       </c>
     </row>
     <row r="90">
@@ -3434,10 +3434,10 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>143.52</v>
+        <v>203.52</v>
       </c>
       <c r="O90" t="n">
-        <v>143.52</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="91">
@@ -3467,10 +3467,10 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>143.52</v>
+        <v>203.52</v>
       </c>
       <c r="O91" t="n">
-        <v>143.52</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="92">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>143.52</v>
+        <v>203.52</v>
       </c>
       <c r="O92" t="n">
-        <v>163.52</v>
+        <v>253.52</v>
       </c>
     </row>
     <row r="93">
@@ -3524,19 +3524,19 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>145.2005382247673</v>
+        <v>203.52</v>
       </c>
       <c r="O93" t="n">
-        <v>145.2005382247673</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="94">
@@ -3557,19 +3557,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>145.2005382247673</v>
+        <v>203.52</v>
       </c>
       <c r="O94" t="n">
-        <v>161.52</v>
+        <v>214.04</v>
       </c>
     </row>
     <row r="95">
@@ -3595,14 +3595,14 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>147.2552373854407</v>
+        <v>208.7556924685908</v>
       </c>
       <c r="O95" t="n">
-        <v>147.2552373854407</v>
+        <v>222.7757880773786</v>
       </c>
     </row>
     <row r="96">
@@ -3623,19 +3623,19 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>147.2552373854407</v>
+        <v>214.04</v>
       </c>
       <c r="O96" t="n">
-        <v>147.7705382247673</v>
+        <v>253.52</v>
       </c>
     </row>
     <row r="97">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>147.7705382247673</v>
+        <v>221.52</v>
       </c>
       <c r="O97" t="n">
-        <v>167.2552373854407</v>
+        <v>225.9195880457531</v>
       </c>
     </row>
     <row r="98">
@@ -3689,19 +3689,19 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>151.2005382247673</v>
+        <v>222.7757880773786</v>
       </c>
       <c r="O98" t="n">
-        <v>161.7705382247673</v>
+        <v>222.7757880773786</v>
       </c>
     </row>
     <row r="99">
@@ -3722,19 +3722,19 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>153.2552373854407</v>
+        <v>222.7757880773786</v>
       </c>
       <c r="O99" t="n">
-        <v>164.4127133536522</v>
+        <v>248.4895880457531</v>
       </c>
     </row>
     <row r="100">
@@ -3760,14 +3760,14 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>161.52</v>
+        <v>225.9195880457531</v>
       </c>
       <c r="O100" t="n">
-        <v>165.2005382247673</v>
+        <v>225.9195880457531</v>
       </c>
     </row>
     <row r="101">
@@ -3788,19 +3788,19 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>161.7705382247673</v>
+        <v>225.9195880457531</v>
       </c>
       <c r="O101" t="n">
-        <v>161.7705382247673</v>
+        <v>271.52</v>
       </c>
     </row>
     <row r="102">
@@ -3821,19 +3821,19 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>161.7705382247673</v>
+        <v>228.7757880773786</v>
       </c>
       <c r="O102" t="n">
-        <v>171.2005382247673</v>
+        <v>241.5038927693139</v>
       </c>
     </row>
     <row r="103">
@@ -3854,19 +3854,19 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>163.52</v>
+        <v>231.9195880457531</v>
       </c>
       <c r="O103" t="n">
-        <v>163.52</v>
+        <v>242.4895880457531</v>
       </c>
     </row>
     <row r="104">
@@ -3887,19 +3887,19 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>163.52</v>
+        <v>241.5038927693139</v>
       </c>
       <c r="O104" t="n">
-        <v>163.52</v>
+        <v>241.5038927693139</v>
       </c>
     </row>
     <row r="105">
@@ -3920,19 +3920,19 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>163.52</v>
+        <v>241.5038927693139</v>
       </c>
       <c r="O105" t="n">
-        <v>183.52</v>
+        <v>265.5847552654759</v>
       </c>
     </row>
     <row r="106">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -3962,10 +3962,10 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>164.4127133536522</v>
+        <v>242.4895880457531</v>
       </c>
       <c r="O106" t="n">
-        <v>164.4127133536522</v>
+        <v>242.4895880457531</v>
       </c>
     </row>
     <row r="107">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>164.4127133536522</v>
+        <v>242.4895880457531</v>
       </c>
       <c r="O107" t="n">
-        <v>173.2552373854407</v>
+        <v>287.3803235023908</v>
       </c>
     </row>
     <row r="108">
@@ -4019,19 +4019,19 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>165.2005382247673</v>
+        <v>248.4895880457531</v>
       </c>
       <c r="O108" t="n">
-        <v>165.2005382247673</v>
+        <v>259.5847552654759</v>
       </c>
     </row>
     <row r="109">
@@ -4052,19 +4052,19 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>165.2005382247673</v>
+        <v>253.52</v>
       </c>
       <c r="O109" t="n">
-        <v>181.52</v>
+        <v>253.52</v>
       </c>
     </row>
     <row r="110">
@@ -4085,19 +4085,19 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>167.2552373854407</v>
+        <v>253.52</v>
       </c>
       <c r="O110" t="n">
-        <v>167.2552373854407</v>
+        <v>253.52</v>
       </c>
     </row>
     <row r="111">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>167.2552373854407</v>
+        <v>253.52</v>
       </c>
       <c r="O111" t="n">
-        <v>167.7705382247673</v>
+        <v>293.52</v>
       </c>
     </row>
     <row r="112">
@@ -4151,20 +4151,18 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>167.7705382247673</v>
-      </c>
-      <c r="O112" t="n">
-        <v>187.2552373854407</v>
-      </c>
+        <v>253.52</v>
+      </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4184,19 +4182,19 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>170.4127133536522</v>
+        <v>259.5847552654759</v>
       </c>
       <c r="O113" t="n">
-        <v>180.9327133536522</v>
+        <v>259.5847552654759</v>
       </c>
     </row>
     <row r="114">
@@ -4217,19 +4215,19 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>171.2005382247673</v>
+        <v>259.5847552654759</v>
       </c>
       <c r="O114" t="n">
-        <v>181.7705382247673</v>
+        <v>303.9503235023908</v>
       </c>
     </row>
     <row r="115">
@@ -4259,10 +4257,10 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>173.2552373854407</v>
+        <v>265.5847552654759</v>
       </c>
       <c r="O115" t="n">
-        <v>186.9370237838436</v>
+        <v>278.3128599574112</v>
       </c>
     </row>
     <row r="116">
@@ -4283,19 +4281,19 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>180.9327133536522</v>
+        <v>271.52</v>
       </c>
       <c r="O116" t="n">
-        <v>180.9327133536522</v>
+        <v>281.3803235023908</v>
       </c>
     </row>
     <row r="117">
@@ -4316,18 +4314,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>180.9327133536522</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
+        <v>278.3128599574112</v>
+      </c>
+      <c r="O117" t="n">
+        <v>278.3128599574112</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4347,19 +4347,19 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>181.52</v>
+        <v>278.3128599574112</v>
       </c>
       <c r="O118" t="n">
-        <v>185.2005382247673</v>
+        <v>340.6969935927576</v>
       </c>
     </row>
     <row r="119">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>181.7705382247673</v>
+        <v>281.3803235023908</v>
       </c>
       <c r="O119" t="n">
-        <v>181.7705382247673</v>
+        <v>281.3803235023908</v>
       </c>
     </row>
     <row r="120">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>181.7705382247673</v>
+        <v>281.3803235023908</v>
       </c>
       <c r="O120" t="n">
-        <v>191.2005382247673</v>
+        <v>311.52</v>
       </c>
     </row>
     <row r="121">
@@ -4446,19 +4446,19 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>183.52</v>
+        <v>287.3803235023908</v>
       </c>
       <c r="O121" t="n">
-        <v>183.52</v>
+        <v>297.9503235023908</v>
       </c>
     </row>
     <row r="122">
@@ -4484,14 +4484,14 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>183.52</v>
+        <v>293.52</v>
       </c>
       <c r="O122" t="n">
-        <v>183.52</v>
+        <v>293.52</v>
       </c>
     </row>
     <row r="123">
@@ -4517,14 +4517,14 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>183.52</v>
+        <v>293.52</v>
       </c>
       <c r="O123" t="n">
-        <v>203.52</v>
+        <v>293.52</v>
       </c>
     </row>
     <row r="124">
@@ -4545,19 +4545,19 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>185.2005382247673</v>
+        <v>293.52</v>
       </c>
       <c r="O124" t="n">
-        <v>185.2005382247673</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="125">
@@ -4578,19 +4578,19 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>185.2005382247673</v>
+        <v>297.9503235023908</v>
       </c>
       <c r="O125" t="n">
-        <v>201.52</v>
+        <v>297.9503235023908</v>
       </c>
     </row>
     <row r="126">
@@ -4611,19 +4611,19 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>186.9370237838436</v>
+        <v>297.9503235023908</v>
       </c>
       <c r="O126" t="n">
-        <v>186.9370237838436</v>
+        <v>342.6140346530728</v>
       </c>
     </row>
     <row r="127">
@@ -4644,19 +4644,19 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>186.9370237838436</v>
+        <v>303.9503235023908</v>
       </c>
       <c r="O127" t="n">
-        <v>193.2552373854407</v>
+        <v>334.6969935927576</v>
       </c>
     </row>
     <row r="128">
@@ -4677,19 +4677,19 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>187.2552373854407</v>
+        <v>311.52</v>
       </c>
       <c r="O128" t="n">
-        <v>187.2552373854407</v>
+        <v>336.6140346530728</v>
       </c>
     </row>
     <row r="129">
@@ -4715,14 +4715,14 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>187.2552373854407</v>
+        <v>334.6969935927576</v>
       </c>
       <c r="O129" t="n">
-        <v>187.7705382247673</v>
+        <v>334.6969935927576</v>
       </c>
     </row>
     <row r="130">
@@ -4748,14 +4748,14 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>187.7705382247673</v>
+        <v>334.6969935927576</v>
       </c>
       <c r="O130" t="n">
-        <v>207.2552373854407</v>
+        <v>359.1840346530728</v>
       </c>
     </row>
     <row r="131">
@@ -4776,19 +4776,19 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>191.2005382247673</v>
+        <v>336.6140346530728</v>
       </c>
       <c r="O131" t="n">
-        <v>201.7705382247673</v>
+        <v>336.6140346530728</v>
       </c>
     </row>
     <row r="132">
@@ -4809,19 +4809,19 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>193.2552373854407</v>
+        <v>336.6140346530728</v>
       </c>
       <c r="O132" t="n">
-        <v>206.1903533657406</v>
+        <v>361.52</v>
       </c>
     </row>
     <row r="133">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -4851,10 +4851,10 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>201.52</v>
+        <v>340.6969935927576</v>
       </c>
       <c r="O133" t="n">
-        <v>205.2005382247673</v>
+        <v>353.4250982846929</v>
       </c>
     </row>
     <row r="134">
@@ -4880,14 +4880,14 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>201.7705382247673</v>
+        <v>342.6140346530728</v>
       </c>
       <c r="O134" t="n">
-        <v>201.7705382247673</v>
+        <v>353.1840346530728</v>
       </c>
     </row>
     <row r="135">
@@ -4908,19 +4908,19 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>201.7705382247673</v>
+        <v>343.52</v>
       </c>
       <c r="O135" t="n">
-        <v>211.2005382247673</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="136">
@@ -4946,14 +4946,14 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>203.52</v>
+        <v>343.52</v>
       </c>
       <c r="O136" t="n">
-        <v>203.52</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="137">
@@ -4979,14 +4979,14 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>203.52</v>
+        <v>343.52</v>
       </c>
       <c r="O137" t="n">
-        <v>203.52</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="138">
@@ -5007,19 +5007,19 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>203.52</v>
+        <v>353.1840346530728</v>
       </c>
       <c r="O138" t="n">
-        <v>223.52</v>
+        <v>353.1840346530728</v>
       </c>
     </row>
     <row r="139">
@@ -5040,19 +5040,19 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>205.2005382247673</v>
+        <v>353.1840346530728</v>
       </c>
       <c r="O139" t="n">
-        <v>205.2005382247673</v>
+        <v>375.7577349289623</v>
       </c>
     </row>
     <row r="140">
@@ -5073,19 +5073,19 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>205.2005382247673</v>
+        <v>353.4250982846929</v>
       </c>
       <c r="O140" t="n">
-        <v>221.52</v>
+        <v>353.4250982846929</v>
       </c>
     </row>
     <row r="141">
@@ -5111,14 +5111,14 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>206.1903533657406</v>
+        <v>353.4250982846929</v>
       </c>
       <c r="O141" t="n">
-        <v>206.1903533657406</v>
+        <v>370.2072791378403</v>
       </c>
     </row>
     <row r="142">
@@ -5139,19 +5139,19 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>206.1903533657406</v>
+        <v>359.1840346530728</v>
       </c>
       <c r="O142" t="n">
-        <v>213.2552373854407</v>
+        <v>364.2072791378403</v>
       </c>
     </row>
     <row r="143">
@@ -5172,19 +5172,19 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>207.2552373854407</v>
+        <v>361.52</v>
       </c>
       <c r="O143" t="n">
-        <v>207.2552373854407</v>
+        <v>369.7577349289623</v>
       </c>
     </row>
     <row r="144">
@@ -5210,14 +5210,14 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>207.2552373854407</v>
+        <v>364.2072791378403</v>
       </c>
       <c r="O144" t="n">
-        <v>207.7705382247673</v>
+        <v>364.2072791378403</v>
       </c>
     </row>
     <row r="145">
@@ -5243,14 +5243,14 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>207.7705382247673</v>
+        <v>364.2072791378403</v>
       </c>
       <c r="O145" t="n">
-        <v>227.2552373854407</v>
+        <v>392.3277349289623</v>
       </c>
     </row>
     <row r="146">
@@ -5271,19 +5271,19 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>211.2005382247673</v>
+        <v>369.7577349289623</v>
       </c>
       <c r="O146" t="n">
-        <v>221.7705382247673</v>
+        <v>369.7577349289623</v>
       </c>
     </row>
     <row r="147">
@@ -5304,19 +5304,19 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>213.2552373854407</v>
+        <v>369.7577349289623</v>
       </c>
       <c r="O147" t="n">
-        <v>220.5006816256878</v>
+        <v>411.52</v>
       </c>
     </row>
     <row r="148">
@@ -5342,14 +5342,14 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>220.5006816256878</v>
+        <v>370.2072791378403</v>
       </c>
       <c r="O148" t="n">
-        <v>220.5006816256878</v>
+        <v>382.9353838297756</v>
       </c>
     </row>
     <row r="149">
@@ -5370,19 +5370,19 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>220.5006816256878</v>
+        <v>375.7577349289623</v>
       </c>
       <c r="O149" t="n">
-        <v>233.2552373854407</v>
+        <v>386.3277349289623</v>
       </c>
     </row>
     <row r="150">
@@ -5403,19 +5403,19 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>221.52</v>
+        <v>382.9353838297756</v>
       </c>
       <c r="O150" t="n">
-        <v>225.2005382247673</v>
+        <v>382.9353838297756</v>
       </c>
     </row>
     <row r="151">
@@ -5436,19 +5436,19 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>221.7705382247673</v>
+        <v>382.9353838297756</v>
       </c>
       <c r="O151" t="n">
-        <v>221.7705382247673</v>
+        <v>402.3084203990721</v>
       </c>
     </row>
     <row r="152">
@@ -5474,14 +5474,14 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>221.7705382247673</v>
+        <v>386.3277349289623</v>
       </c>
       <c r="O152" t="n">
-        <v>231.2005382247673</v>
+        <v>386.3277349289623</v>
       </c>
     </row>
     <row r="153">
@@ -5502,19 +5502,19 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>223.52</v>
+        <v>386.3277349289623</v>
       </c>
       <c r="O153" t="n">
-        <v>223.52</v>
+        <v>426.8766373809532</v>
       </c>
     </row>
     <row r="154">
@@ -5535,18 +5535,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>223.52</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
+        <v>392.3277349289623</v>
+      </c>
+      <c r="O154" t="n">
+        <v>396.3084203990721</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5566,7 +5568,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -5575,10 +5577,10 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>225.2005382247673</v>
+        <v>393.52</v>
       </c>
       <c r="O155" t="n">
-        <v>225.2005382247673</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="156">
@@ -5599,7 +5601,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -5608,10 +5610,10 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>225.2005382247673</v>
+        <v>393.52</v>
       </c>
       <c r="O156" t="n">
-        <v>241.52</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="157">
@@ -5632,19 +5634,19 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>227.2552373854407</v>
+        <v>393.52</v>
       </c>
       <c r="O157" t="n">
-        <v>227.2552373854407</v>
+        <v>443.52</v>
       </c>
     </row>
     <row r="158">
@@ -5670,14 +5672,14 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>227.2552373854407</v>
+        <v>396.3084203990721</v>
       </c>
       <c r="O158" t="n">
-        <v>227.7705382247673</v>
+        <v>396.3084203990721</v>
       </c>
     </row>
     <row r="159">
@@ -5703,14 +5705,14 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>227.7705382247673</v>
+        <v>396.3084203990721</v>
       </c>
       <c r="O159" t="n">
-        <v>247.2552373854407</v>
+        <v>443.4466373809532</v>
       </c>
     </row>
     <row r="160">
@@ -5731,7 +5733,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -5740,10 +5742,10 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>231.2005382247673</v>
+        <v>402.3084203990721</v>
       </c>
       <c r="O160" t="n">
-        <v>241.7705382247673</v>
+        <v>415.0365250910074</v>
       </c>
     </row>
     <row r="161">
@@ -5764,7 +5766,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -5773,10 +5775,10 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>233.2552373854407</v>
+        <v>411.52</v>
       </c>
       <c r="O161" t="n">
-        <v>244.3554142204918</v>
+        <v>420.8766373809532</v>
       </c>
     </row>
     <row r="162">
@@ -5797,19 +5799,19 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>241.52</v>
+        <v>415.0365250910074</v>
       </c>
       <c r="O162" t="n">
-        <v>245.2005382247673</v>
+        <v>415.0365250910074</v>
       </c>
     </row>
     <row r="163">
@@ -5830,19 +5832,19 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>241.7705382247673</v>
+        <v>415.0365250910074</v>
       </c>
       <c r="O163" t="n">
-        <v>241.7705382247673</v>
+        <v>453.7169267353171</v>
       </c>
     </row>
     <row r="164">
@@ -5863,19 +5865,19 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>241.7705382247673</v>
+        <v>420.8766373809532</v>
       </c>
       <c r="O164" t="n">
-        <v>251.2005382247673</v>
+        <v>420.8766373809532</v>
       </c>
     </row>
     <row r="165">
@@ -5896,19 +5898,19 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>244.3554142204918</v>
+        <v>420.8766373809532</v>
       </c>
       <c r="O165" t="n">
-        <v>244.3554142204918</v>
+        <v>461.52</v>
       </c>
     </row>
     <row r="166">
@@ -5929,19 +5931,19 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>244.3554142204918</v>
+        <v>426.8766373809532</v>
       </c>
       <c r="O166" t="n">
-        <v>253.2552373854407</v>
+        <v>437.4466373809532</v>
       </c>
     </row>
     <row r="167">
@@ -5962,7 +5964,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5971,10 +5973,10 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>245.2005382247673</v>
+        <v>437.4466373809532</v>
       </c>
       <c r="O167" t="n">
-        <v>245.2005382247673</v>
+        <v>437.4466373809532</v>
       </c>
     </row>
     <row r="168">
@@ -5995,7 +5997,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -6004,9 +6006,11 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>245.2005382247673</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
+        <v>437.4466373809532</v>
+      </c>
+      <c r="O168" t="n">
+        <v>480.3357754022976</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6031,14 +6035,14 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>247.2552373854407</v>
+        <v>443.4466373809532</v>
       </c>
       <c r="O169" t="n">
-        <v>247.2552373854407</v>
+        <v>447.7169267353171</v>
       </c>
     </row>
     <row r="170">
@@ -6059,19 +6063,19 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>247.2552373854407</v>
+        <v>443.52</v>
       </c>
       <c r="O170" t="n">
-        <v>247.7705382247673</v>
+        <v>443.52</v>
       </c>
     </row>
     <row r="171">
@@ -6092,20 +6096,18 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>247.7705382247673</v>
-      </c>
-      <c r="O171" t="n">
-        <v>267.2552373854406</v>
-      </c>
+        <v>443.52</v>
+      </c>
+      <c r="O171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6125,19 +6127,19 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>251.2005382247673</v>
+        <v>447.7169267353171</v>
       </c>
       <c r="O172" t="n">
-        <v>261.7705382247673</v>
+        <v>447.7169267353171</v>
       </c>
     </row>
     <row r="173">
@@ -6158,19 +6160,19 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>253.2552373854407</v>
+        <v>447.7169267353171</v>
       </c>
       <c r="O173" t="n">
-        <v>262.1525229688453</v>
+        <v>496.9057754022976</v>
       </c>
     </row>
     <row r="174">
@@ -6191,19 +6193,19 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>261.7705382247673</v>
+        <v>453.7169267353171</v>
       </c>
       <c r="O174" t="n">
-        <v>261.7705382247673</v>
+        <v>466.4450314272524</v>
       </c>
     </row>
     <row r="175">
@@ -6224,18 +6226,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>261.7705382247673</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
+        <v>461.52</v>
+      </c>
+      <c r="O175" t="n">
+        <v>474.3357754022976</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6264,10 +6268,10 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>262.1525229688453</v>
+        <v>466.4450314272524</v>
       </c>
       <c r="O176" t="n">
-        <v>262.1525229688453</v>
+        <v>466.4450314272524</v>
       </c>
     </row>
     <row r="177">
@@ -6297,10 +6301,10 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>262.1525229688453</v>
+        <v>466.4450314272524</v>
       </c>
       <c r="O177" t="n">
-        <v>273.2552373854406</v>
+        <v>512.3419080236812</v>
       </c>
     </row>
     <row r="178">
@@ -6321,7 +6325,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -6330,10 +6334,10 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>267.2552373854406</v>
+        <v>474.3357754022976</v>
       </c>
       <c r="O178" t="n">
-        <v>267.2552373854406</v>
+        <v>474.3357754022976</v>
       </c>
     </row>
     <row r="179">
@@ -6354,7 +6358,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -6363,11 +6367,9 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>267.2552373854406</v>
-      </c>
-      <c r="O179" t="n">
-        <v>267.7705382247673</v>
-      </c>
+        <v>474.3357754022976</v>
+      </c>
+      <c r="O179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6387,7 +6389,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -6396,10 +6398,10 @@
         </is>
       </c>
       <c r="N180" t="n">
-        <v>267.7705382247673</v>
+        <v>480.3357754022976</v>
       </c>
       <c r="O180" t="n">
-        <v>287.2552373854407</v>
+        <v>490.9057754022976</v>
       </c>
     </row>
     <row r="181">
@@ -6420,19 +6422,19 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>273.2552373854406</v>
+        <v>490.9057754022976</v>
       </c>
       <c r="O181" t="n">
-        <v>282.2487996818535</v>
+        <v>490.9057754022976</v>
       </c>
     </row>
     <row r="182">
@@ -6453,20 +6455,18 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>282.2487996818535</v>
-      </c>
-      <c r="O182" t="n">
-        <v>282.2487996818535</v>
-      </c>
+        <v>490.9057754022976</v>
+      </c>
+      <c r="O182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6486,19 +6486,19 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>282.2487996818535</v>
+        <v>496.9057754022976</v>
       </c>
       <c r="O183" t="n">
-        <v>293.2552373854407</v>
+        <v>506.3419080236812</v>
       </c>
     </row>
     <row r="184">
@@ -6528,10 +6528,10 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>287.2552373854407</v>
+        <v>506.3419080236812</v>
       </c>
       <c r="O184" t="n">
-        <v>287.2552373854407</v>
+        <v>506.3419080236812</v>
       </c>
     </row>
     <row r="185">
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>287.2552373854407</v>
+        <v>506.3419080236812</v>
       </c>
       <c r="O185" t="inlineStr"/>
     </row>
@@ -6592,10 +6592,10 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>293.2552373854407</v>
+        <v>512.3419080236812</v>
       </c>
       <c r="O186" t="n">
-        <v>303.2764343893174</v>
+        <v>525.0700127156165</v>
       </c>
     </row>
     <row r="187">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>303.2764343893174</v>
+        <v>525.0700127156165</v>
       </c>
       <c r="O187" t="inlineStr"/>
     </row>

--- a/spazio_stati.xlsx
+++ b/spazio_stati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O187"/>
+  <dimension ref="A1:O376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,9 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>81.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -632,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>61.52</v>
+        <v>121.52</v>
       </c>
     </row>
     <row r="6">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>71.5222273953971</v>
+        <v>133.0993586955334</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>88.09222739539709</v>
+        <v>149.6693586955334</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2665719836312</v>
+        <v>172.2969948987913</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +898,7 @@
         <v>23.52</v>
       </c>
       <c r="O13" t="n">
-        <v>43.52</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="14">
@@ -1115,7 +1117,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1124,10 +1126,10 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>43.52</v>
+        <v>49.08</v>
       </c>
       <c r="O20" t="n">
-        <v>43.52</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="21">
@@ -1148,7 +1150,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1157,10 +1159,10 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>43.52</v>
+        <v>49.08</v>
       </c>
       <c r="O21" t="n">
-        <v>43.52</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="22">
@@ -1181,7 +1183,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1190,10 +1192,10 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>43.52</v>
+        <v>49.08</v>
       </c>
       <c r="O22" t="n">
-        <v>93.52</v>
+        <v>59.59999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1223,10 +1225,10 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>49.08</v>
+        <v>59.59999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>49.08</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="24">
@@ -1247,19 +1249,19 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>49.08</v>
+        <v>63.52</v>
       </c>
       <c r="O24" t="n">
-        <v>49.08</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="25">
@@ -1280,19 +1282,19 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>49.08</v>
+        <v>63.52</v>
       </c>
       <c r="O25" t="n">
-        <v>59.59999999999999</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="26">
@@ -1313,19 +1315,19 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>59.59999999999999</v>
+        <v>63.52</v>
       </c>
       <c r="O26" t="n">
-        <v>59.59999999999999</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="27">
@@ -1355,10 +1357,10 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>59.59999999999999</v>
+        <v>63.52</v>
       </c>
       <c r="O27" t="n">
-        <v>59.59999999999999</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="28">
@@ -1388,10 +1390,10 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>59.59999999999999</v>
+        <v>63.52</v>
       </c>
       <c r="O28" t="n">
-        <v>70.11999999999999</v>
+        <v>74.03999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1412,19 +1414,19 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>61.52</v>
+        <v>74.03999999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>65.5222273953971</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="30">
@@ -1445,19 +1447,19 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>65.5222273953971</v>
+        <v>81.52</v>
       </c>
       <c r="O30" t="n">
-        <v>65.5222273953971</v>
+        <v>189.52</v>
       </c>
     </row>
     <row r="31">
@@ -1478,19 +1480,19 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>65.5222273953971</v>
+        <v>103.52</v>
       </c>
       <c r="O31" t="n">
-        <v>111.52</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="32">
@@ -1511,19 +1513,19 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>70.11999999999999</v>
+        <v>103.52</v>
       </c>
       <c r="O32" t="n">
-        <v>93.52</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="33">
@@ -1544,7 +1546,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -1553,10 +1555,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>71.5222273953971</v>
+        <v>103.52</v>
       </c>
       <c r="O33" t="n">
-        <v>82.09222739539709</v>
+        <v>123.52</v>
       </c>
     </row>
     <row r="34">
@@ -1577,19 +1579,19 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>82.09222739539709</v>
+        <v>103.52</v>
       </c>
       <c r="O34" t="n">
-        <v>82.09222739539709</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="35">
@@ -1610,19 +1612,19 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>82.09222739539709</v>
+        <v>103.52</v>
       </c>
       <c r="O35" t="n">
-        <v>131.093362422336</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="36">
@@ -1643,19 +1645,19 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>88.09222739539709</v>
+        <v>114.04</v>
       </c>
       <c r="O36" t="n">
-        <v>118.2665719836312</v>
+        <v>123.52</v>
       </c>
     </row>
     <row r="37">
@@ -1676,19 +1678,19 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>93.52</v>
+        <v>121.52</v>
       </c>
       <c r="O37" t="n">
-        <v>93.52</v>
+        <v>127.0993586955334</v>
       </c>
     </row>
     <row r="38">
@@ -1714,14 +1716,14 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>93.52</v>
+        <v>123.52</v>
       </c>
       <c r="O38" t="n">
-        <v>93.52</v>
+        <v>123.52</v>
       </c>
     </row>
     <row r="39">
@@ -1747,14 +1749,14 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>93.52</v>
+        <v>123.52</v>
       </c>
       <c r="O39" t="n">
-        <v>113.52</v>
+        <v>123.52</v>
       </c>
     </row>
     <row r="40">
@@ -1775,19 +1777,19 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>93.52</v>
+        <v>123.52</v>
       </c>
       <c r="O40" t="n">
-        <v>93.52</v>
+        <v>163.52</v>
       </c>
     </row>
     <row r="41">
@@ -1813,14 +1815,14 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>93.52</v>
+        <v>123.52</v>
       </c>
       <c r="O41" t="n">
-        <v>104.04</v>
+        <v>123.52</v>
       </c>
     </row>
     <row r="42">
@@ -1846,14 +1848,14 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>104.04</v>
+        <v>123.52</v>
       </c>
       <c r="O42" t="n">
-        <v>113.52</v>
+        <v>134.04</v>
       </c>
     </row>
     <row r="43">
@@ -1879,14 +1881,14 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>111.52</v>
+        <v>127.0993586955334</v>
       </c>
       <c r="O43" t="n">
-        <v>125.093362422336</v>
+        <v>127.0993586955334</v>
       </c>
     </row>
     <row r="44">
@@ -1907,19 +1909,19 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>113.52</v>
+        <v>127.0993586955334</v>
       </c>
       <c r="O44" t="n">
-        <v>113.52</v>
+        <v>141.52</v>
       </c>
     </row>
     <row r="45">
@@ -1940,19 +1942,19 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>113.52</v>
+        <v>133.0993586955334</v>
       </c>
       <c r="O45" t="n">
-        <v>113.52</v>
+        <v>143.6693586955334</v>
       </c>
     </row>
     <row r="46">
@@ -1973,16 +1975,16 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>113.52</v>
+        <v>134.04</v>
       </c>
       <c r="O46" t="n">
         <v>163.52</v>
@@ -2006,19 +2008,19 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>113.52</v>
+        <v>141.52</v>
       </c>
       <c r="O47" t="n">
-        <v>113.52</v>
+        <v>148.0095749283927</v>
       </c>
     </row>
     <row r="48">
@@ -2039,19 +2041,19 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>113.52</v>
+        <v>143.6693586955334</v>
       </c>
       <c r="O48" t="n">
-        <v>124.04</v>
+        <v>143.6693586955334</v>
       </c>
     </row>
     <row r="49">
@@ -2072,19 +2074,19 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>118.2665719836312</v>
+        <v>143.6693586955334</v>
       </c>
       <c r="O49" t="n">
-        <v>118.2665719836312</v>
+        <v>154.0095749283927</v>
       </c>
     </row>
     <row r="50">
@@ -2105,19 +2107,19 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>118.2665719836312</v>
+        <v>148.0095749283927</v>
       </c>
       <c r="O50" t="n">
-        <v>147.663362422336</v>
+        <v>148.0095749283927</v>
       </c>
     </row>
     <row r="51">
@@ -2138,19 +2140,19 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>124.04</v>
+        <v>148.0095749283927</v>
       </c>
       <c r="O51" t="n">
-        <v>163.52</v>
+        <v>181.52</v>
       </c>
     </row>
     <row r="52">
@@ -2171,7 +2173,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -2180,10 +2182,10 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>124.2665719836312</v>
+        <v>149.6693586955334</v>
       </c>
       <c r="O52" t="n">
-        <v>136.9946766755665</v>
+        <v>166.2969948987913</v>
       </c>
     </row>
     <row r="53">
@@ -2204,19 +2206,19 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>125.093362422336</v>
+        <v>154.0095749283927</v>
       </c>
       <c r="O53" t="n">
-        <v>125.093362422336</v>
+        <v>164.5795749283927</v>
       </c>
     </row>
     <row r="54">
@@ -2237,19 +2239,19 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>125.093362422336</v>
+        <v>163.52</v>
       </c>
       <c r="O54" t="n">
-        <v>131.52</v>
+        <v>163.52</v>
       </c>
     </row>
     <row r="55">
@@ -2270,19 +2272,19 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>131.093362422336</v>
+        <v>163.52</v>
       </c>
       <c r="O55" t="n">
-        <v>141.663362422336</v>
+        <v>163.52</v>
       </c>
     </row>
     <row r="56">
@@ -2303,7 +2305,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -2312,10 +2314,10 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>131.52</v>
+        <v>163.52</v>
       </c>
       <c r="O56" t="n">
-        <v>144.9147873130792</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="57">
@@ -2336,19 +2338,19 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>136.9946766755665</v>
+        <v>163.52</v>
       </c>
       <c r="O57" t="n">
-        <v>136.9946766755665</v>
+        <v>163.52</v>
       </c>
     </row>
     <row r="58">
@@ -2369,19 +2371,19 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>136.9946766755665</v>
+        <v>163.52</v>
       </c>
       <c r="O58" t="n">
-        <v>158.4712023175533</v>
+        <v>174.04</v>
       </c>
     </row>
     <row r="59">
@@ -2411,10 +2413,10 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>141.663362422336</v>
+        <v>164.5795749283927</v>
       </c>
       <c r="O59" t="n">
-        <v>141.663362422336</v>
+        <v>164.5795749283927</v>
       </c>
     </row>
     <row r="60">
@@ -2444,10 +2446,10 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>141.663362422336</v>
+        <v>164.5795749283927</v>
       </c>
       <c r="O60" t="n">
-        <v>150.9147873130792</v>
+        <v>191.0938387476926</v>
       </c>
     </row>
     <row r="61">
@@ -2468,7 +2470,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -2477,10 +2479,10 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>144.9147873130792</v>
+        <v>166.2969948987913</v>
       </c>
       <c r="O61" t="n">
-        <v>144.9147873130792</v>
+        <v>166.2969948987913</v>
       </c>
     </row>
     <row r="62">
@@ -2501,7 +2503,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -2510,10 +2512,10 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>144.9147873130792</v>
+        <v>166.2969948987913</v>
       </c>
       <c r="O62" t="n">
-        <v>181.52</v>
+        <v>170.5795749283927</v>
       </c>
     </row>
     <row r="63">
@@ -2543,10 +2545,10 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>147.663362422336</v>
+        <v>170.5795749283927</v>
       </c>
       <c r="O63" t="n">
-        <v>152.4712023175533</v>
+        <v>182.0292293558573</v>
       </c>
     </row>
     <row r="64">
@@ -2567,7 +2569,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -2576,10 +2578,10 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>150.9147873130792</v>
+        <v>172.2969948987913</v>
       </c>
       <c r="O64" t="n">
-        <v>154.4147873130792</v>
+        <v>185.0250995907266</v>
       </c>
     </row>
     <row r="65">
@@ -2600,7 +2602,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -2609,10 +2611,10 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>152.4712023175533</v>
+        <v>174.04</v>
       </c>
       <c r="O65" t="n">
-        <v>152.4712023175533</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="66">
@@ -2633,19 +2635,19 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>152.4712023175533</v>
+        <v>181.52</v>
       </c>
       <c r="O66" t="n">
-        <v>160.4147873130792</v>
+        <v>185.0938387476926</v>
       </c>
     </row>
     <row r="67">
@@ -2666,7 +2668,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -2675,10 +2677,10 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>154.4147873130792</v>
+        <v>182.0292293558573</v>
       </c>
       <c r="O67" t="n">
-        <v>154.4147873130792</v>
+        <v>182.0292293558573</v>
       </c>
     </row>
     <row r="68">
@@ -2699,7 +2701,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -2708,10 +2710,10 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>154.4147873130792</v>
+        <v>182.0292293558573</v>
       </c>
       <c r="O68" t="n">
-        <v>192.1856924685908</v>
+        <v>207.6638387476926</v>
       </c>
     </row>
     <row r="69">
@@ -2732,19 +2734,19 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>158.4712023175533</v>
+        <v>183.52</v>
       </c>
       <c r="O69" t="n">
-        <v>171.1993070094886</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="70">
@@ -2765,19 +2767,19 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>160.4147873130792</v>
+        <v>183.52</v>
       </c>
       <c r="O70" t="n">
-        <v>174.5663654672636</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="71">
@@ -2803,14 +2805,14 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>163.52</v>
+        <v>183.52</v>
       </c>
       <c r="O71" t="n">
-        <v>163.52</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="72">
@@ -2831,7 +2833,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -2840,10 +2842,10 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>163.52</v>
+        <v>183.52</v>
       </c>
       <c r="O72" t="n">
-        <v>163.52</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="73">
@@ -2864,7 +2866,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -2873,10 +2875,10 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>163.52</v>
+        <v>183.52</v>
       </c>
       <c r="O73" t="n">
-        <v>203.52</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="74">
@@ -2897,19 +2899,19 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>163.52</v>
+        <v>185.0250995907266</v>
       </c>
       <c r="O74" t="n">
-        <v>163.52</v>
+        <v>185.0250995907266</v>
       </c>
     </row>
     <row r="75">
@@ -2930,19 +2932,19 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>163.52</v>
+        <v>185.0250995907266</v>
       </c>
       <c r="O75" t="n">
-        <v>174.04</v>
+        <v>188.0292293558573</v>
       </c>
     </row>
     <row r="76">
@@ -2963,7 +2965,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -2972,10 +2974,10 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>171.1993070094886</v>
+        <v>185.0938387476926</v>
       </c>
       <c r="O76" t="n">
-        <v>171.1993070094886</v>
+        <v>185.0938387476926</v>
       </c>
     </row>
     <row r="77">
@@ -2996,7 +2998,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -3005,10 +3007,10 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>171.1993070094886</v>
+        <v>185.0938387476926</v>
       </c>
       <c r="O77" t="n">
-        <v>180.5663654672636</v>
+        <v>201.52</v>
       </c>
     </row>
     <row r="78">
@@ -3029,19 +3031,19 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>174.04</v>
+        <v>188.0292293558573</v>
       </c>
       <c r="O78" t="n">
-        <v>203.52</v>
+        <v>200.7573340477926</v>
       </c>
     </row>
     <row r="79">
@@ -3062,7 +3064,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -3071,10 +3073,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>174.5663654672636</v>
+        <v>189.52</v>
       </c>
       <c r="O79" t="n">
-        <v>174.5663654672636</v>
+        <v>189.52</v>
       </c>
     </row>
     <row r="80">
@@ -3095,7 +3097,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -3104,10 +3106,10 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>174.5663654672636</v>
+        <v>189.52</v>
       </c>
       <c r="O80" t="n">
-        <v>208.7556924685908</v>
+        <v>261.52</v>
       </c>
     </row>
     <row r="81">
@@ -3128,7 +3130,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -3137,10 +3139,10 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>180.5663654672636</v>
+        <v>191.0938387476926</v>
       </c>
       <c r="O81" t="n">
-        <v>193.2944701591989</v>
+        <v>201.6638387476926</v>
       </c>
     </row>
     <row r="82">
@@ -3161,19 +3163,19 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>181.52</v>
+        <v>194.04</v>
       </c>
       <c r="O82" t="n">
-        <v>186.1856924685908</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="83">
@@ -3194,7 +3196,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -3203,10 +3205,10 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>186.1856924685908</v>
+        <v>200.7573340477926</v>
       </c>
       <c r="O83" t="n">
-        <v>186.1856924685908</v>
+        <v>200.7573340477926</v>
       </c>
     </row>
     <row r="84">
@@ -3227,7 +3229,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -3236,10 +3238,10 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>186.1856924685908</v>
+        <v>200.7573340477926</v>
       </c>
       <c r="O84" t="n">
-        <v>221.52</v>
+        <v>217.6378938875086</v>
       </c>
     </row>
     <row r="85">
@@ -3260,7 +3262,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -3269,10 +3271,10 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>192.1856924685908</v>
+        <v>201.52</v>
       </c>
       <c r="O85" t="n">
-        <v>202.7556924685908</v>
+        <v>218.3918555054868</v>
       </c>
     </row>
     <row r="86">
@@ -3293,7 +3295,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -3302,10 +3304,10 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>193.2944701591989</v>
+        <v>201.6638387476926</v>
       </c>
       <c r="O86" t="n">
-        <v>193.2944701591989</v>
+        <v>201.6638387476926</v>
       </c>
     </row>
     <row r="87">
@@ -3326,7 +3328,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -3335,10 +3337,10 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>193.2944701591989</v>
+        <v>201.6638387476926</v>
       </c>
       <c r="O87" t="n">
-        <v>228.7757880773786</v>
+        <v>224.3918555054868</v>
       </c>
     </row>
     <row r="88">
@@ -3359,7 +3361,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -3368,10 +3370,10 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>202.7556924685908</v>
+        <v>203.52</v>
       </c>
       <c r="O88" t="n">
-        <v>202.7556924685908</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="89">
@@ -3392,7 +3394,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -3401,10 +3403,10 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>202.7556924685908</v>
+        <v>203.52</v>
       </c>
       <c r="O89" t="n">
-        <v>231.9195880457531</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="90">
@@ -3430,14 +3432,14 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N90" t="n">
         <v>203.52</v>
       </c>
       <c r="O90" t="n">
-        <v>203.52</v>
+        <v>243.52</v>
       </c>
     </row>
     <row r="91">
@@ -3458,7 +3460,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -3491,7 +3493,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -3503,7 +3505,7 @@
         <v>203.52</v>
       </c>
       <c r="O92" t="n">
-        <v>253.52</v>
+        <v>214.04</v>
       </c>
     </row>
     <row r="93">
@@ -3524,19 +3526,19 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>203.52</v>
+        <v>207.6638387476926</v>
       </c>
       <c r="O93" t="n">
-        <v>203.52</v>
+        <v>211.6378938875086</v>
       </c>
     </row>
     <row r="94">
@@ -3557,19 +3559,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>203.52</v>
+        <v>211.6378938875086</v>
       </c>
       <c r="O94" t="n">
-        <v>214.04</v>
+        <v>211.6378938875086</v>
       </c>
     </row>
     <row r="95">
@@ -3595,14 +3597,14 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>208.7556924685908</v>
+        <v>211.6378938875086</v>
       </c>
       <c r="O95" t="n">
-        <v>222.7757880773786</v>
+        <v>240.9618555054868</v>
       </c>
     </row>
     <row r="96">
@@ -3635,7 +3637,7 @@
         <v>214.04</v>
       </c>
       <c r="O96" t="n">
-        <v>253.52</v>
+        <v>243.52</v>
       </c>
     </row>
     <row r="97">
@@ -3656,7 +3658,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -3665,10 +3667,10 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>221.52</v>
+        <v>217.6378938875086</v>
       </c>
       <c r="O97" t="n">
-        <v>225.9195880457531</v>
+        <v>230.3659985794439</v>
       </c>
     </row>
     <row r="98">
@@ -3689,7 +3691,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -3698,10 +3700,10 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>222.7757880773786</v>
+        <v>218.3918555054868</v>
       </c>
       <c r="O98" t="n">
-        <v>222.7757880773786</v>
+        <v>218.3918555054868</v>
       </c>
     </row>
     <row r="99">
@@ -3722,7 +3724,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -3731,10 +3733,10 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>222.7757880773786</v>
+        <v>218.3918555054868</v>
       </c>
       <c r="O99" t="n">
-        <v>248.4895880457531</v>
+        <v>218.3918555054868</v>
       </c>
     </row>
     <row r="100">
@@ -3760,14 +3762,14 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>225.9195880457531</v>
+        <v>218.3918555054868</v>
       </c>
       <c r="O100" t="n">
-        <v>225.9195880457531</v>
+        <v>223.0000695296232</v>
       </c>
     </row>
     <row r="101">
@@ -3793,14 +3795,14 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>225.9195880457531</v>
+        <v>223.0000695296232</v>
       </c>
       <c r="O101" t="n">
-        <v>271.52</v>
+        <v>224.3918555054868</v>
       </c>
     </row>
     <row r="102">
@@ -3821,19 +3823,19 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>228.7757880773786</v>
+        <v>224.3918555054868</v>
       </c>
       <c r="O102" t="n">
-        <v>241.5038927693139</v>
+        <v>224.3918555054868</v>
       </c>
     </row>
     <row r="103">
@@ -3854,7 +3856,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -3863,10 +3865,10 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>231.9195880457531</v>
+        <v>224.3918555054868</v>
       </c>
       <c r="O103" t="n">
-        <v>242.4895880457531</v>
+        <v>228.2477873496714</v>
       </c>
     </row>
     <row r="104">
@@ -3887,19 +3889,19 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>241.5038927693139</v>
+        <v>224.3918555054868</v>
       </c>
       <c r="O104" t="n">
-        <v>241.5038927693139</v>
+        <v>234.9618555054868</v>
       </c>
     </row>
     <row r="105">
@@ -3920,19 +3922,19 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>241.5038927693139</v>
+        <v>228.2477873496714</v>
       </c>
       <c r="O105" t="n">
-        <v>265.5847552654759</v>
+        <v>230.3918555054868</v>
       </c>
     </row>
     <row r="106">
@@ -3953,7 +3955,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -3962,10 +3964,10 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>242.4895880457531</v>
+        <v>230.3659985794439</v>
       </c>
       <c r="O106" t="n">
-        <v>242.4895880457531</v>
+        <v>230.3659985794439</v>
       </c>
     </row>
     <row r="107">
@@ -3986,7 +3988,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -3995,10 +3997,10 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>242.4895880457531</v>
+        <v>230.3659985794439</v>
       </c>
       <c r="O107" t="n">
-        <v>287.3803235023908</v>
+        <v>262.6471473408129</v>
       </c>
     </row>
     <row r="108">
@@ -4019,19 +4021,19 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>248.4895880457531</v>
+        <v>230.3918555054868</v>
       </c>
       <c r="O108" t="n">
-        <v>259.5847552654759</v>
+        <v>311.52</v>
       </c>
     </row>
     <row r="109">
@@ -4052,7 +4054,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -4061,10 +4063,10 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>253.52</v>
+        <v>234.9618555054868</v>
       </c>
       <c r="O109" t="n">
-        <v>253.52</v>
+        <v>234.9618555054868</v>
       </c>
     </row>
     <row r="110">
@@ -4085,7 +4087,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -4094,10 +4096,10 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>253.52</v>
+        <v>234.9618555054868</v>
       </c>
       <c r="O110" t="n">
-        <v>253.52</v>
+        <v>234.9618555054868</v>
       </c>
     </row>
     <row r="111">
@@ -4118,7 +4120,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -4127,10 +4129,10 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>253.52</v>
+        <v>234.9618555054868</v>
       </c>
       <c r="O111" t="n">
-        <v>293.52</v>
+        <v>245.5318555054868</v>
       </c>
     </row>
     <row r="112">
@@ -4151,18 +4153,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>253.52</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
+        <v>240.9618555054868</v>
+      </c>
+      <c r="O112" t="n">
+        <v>256.6471473408129</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4182,7 +4186,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -4191,10 +4195,10 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>259.5847552654759</v>
+        <v>243.52</v>
       </c>
       <c r="O113" t="n">
-        <v>259.5847552654759</v>
+        <v>243.52</v>
       </c>
     </row>
     <row r="114">
@@ -4215,7 +4219,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -4224,10 +4228,10 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>259.5847552654759</v>
+        <v>243.52</v>
       </c>
       <c r="O114" t="n">
-        <v>303.9503235023908</v>
+        <v>243.52</v>
       </c>
     </row>
     <row r="115">
@@ -4248,7 +4252,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -4257,10 +4261,10 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>265.5847552654759</v>
+        <v>243.52</v>
       </c>
       <c r="O115" t="n">
-        <v>278.3128599574112</v>
+        <v>293.52</v>
       </c>
     </row>
     <row r="116">
@@ -4281,19 +4285,19 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>271.52</v>
+        <v>243.52</v>
       </c>
       <c r="O116" t="n">
-        <v>281.3803235023908</v>
+        <v>243.52</v>
       </c>
     </row>
     <row r="117">
@@ -4314,19 +4318,19 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>278.3128599574112</v>
+        <v>243.52</v>
       </c>
       <c r="O117" t="n">
-        <v>278.3128599574112</v>
+        <v>254.04</v>
       </c>
     </row>
     <row r="118">
@@ -4347,19 +4351,19 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>278.3128599574112</v>
+        <v>245.5318555054868</v>
       </c>
       <c r="O118" t="n">
-        <v>340.6969935927576</v>
+        <v>245.5318555054868</v>
       </c>
     </row>
     <row r="119">
@@ -4380,19 +4384,19 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>281.3803235023908</v>
+        <v>245.5318555054868</v>
       </c>
       <c r="O119" t="n">
-        <v>281.3803235023908</v>
+        <v>245.5318555054868</v>
       </c>
     </row>
     <row r="120">
@@ -4413,19 +4417,19 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>281.3803235023908</v>
+        <v>245.5318555054868</v>
       </c>
       <c r="O120" t="n">
-        <v>311.52</v>
+        <v>256.1018555054868</v>
       </c>
     </row>
     <row r="121">
@@ -4446,19 +4450,19 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>287.3803235023908</v>
+        <v>254.04</v>
       </c>
       <c r="O121" t="n">
-        <v>297.9503235023908</v>
+        <v>293.52</v>
       </c>
     </row>
     <row r="122">
@@ -4479,7 +4483,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -4488,10 +4492,10 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>293.52</v>
+        <v>256.1018555054868</v>
       </c>
       <c r="O122" t="n">
-        <v>293.52</v>
+        <v>256.1018555054868</v>
       </c>
     </row>
     <row r="123">
@@ -4512,7 +4516,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -4521,10 +4525,10 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>293.52</v>
+        <v>256.1018555054868</v>
       </c>
       <c r="O123" t="n">
-        <v>293.52</v>
+        <v>326.3618242809876</v>
       </c>
     </row>
     <row r="124">
@@ -4545,19 +4549,19 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>293.52</v>
+        <v>256.6471473408129</v>
       </c>
       <c r="O124" t="n">
-        <v>343.52</v>
+        <v>256.6471473408129</v>
       </c>
     </row>
     <row r="125">
@@ -4578,19 +4582,19 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>297.9503235023908</v>
+        <v>256.6471473408129</v>
       </c>
       <c r="O125" t="n">
-        <v>297.9503235023908</v>
+        <v>256.6471473408129</v>
       </c>
     </row>
     <row r="126">
@@ -4611,19 +4615,19 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>297.9503235023908</v>
+        <v>256.6471473408129</v>
       </c>
       <c r="O126" t="n">
-        <v>342.6140346530728</v>
+        <v>261.3543488691413</v>
       </c>
     </row>
     <row r="127">
@@ -4649,14 +4653,14 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>303.9503235023908</v>
+        <v>261.3543488691413</v>
       </c>
       <c r="O127" t="n">
-        <v>334.6969935927576</v>
+        <v>262.6471473408129</v>
       </c>
     </row>
     <row r="128">
@@ -4677,7 +4681,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -4686,10 +4690,10 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>311.52</v>
+        <v>261.52</v>
       </c>
       <c r="O128" t="n">
-        <v>336.6140346530728</v>
+        <v>381.52</v>
       </c>
     </row>
     <row r="129">
@@ -4715,14 +4719,14 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>334.6969935927576</v>
+        <v>262.6471473408129</v>
       </c>
       <c r="O129" t="n">
-        <v>334.6969935927576</v>
+        <v>262.6471473408129</v>
       </c>
     </row>
     <row r="130">
@@ -4748,14 +4752,14 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>334.6969935927576</v>
+        <v>262.6471473408129</v>
       </c>
       <c r="O130" t="n">
-        <v>359.1840346530728</v>
+        <v>266.9469860601103</v>
       </c>
     </row>
     <row r="131">
@@ -4776,19 +4780,19 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>336.6140346530728</v>
+        <v>262.6471473408129</v>
       </c>
       <c r="O131" t="n">
-        <v>336.6140346530728</v>
+        <v>275.3752520327482</v>
       </c>
     </row>
     <row r="132">
@@ -4809,19 +4813,19 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>336.6140346530728</v>
+        <v>266.9469860601103</v>
       </c>
       <c r="O132" t="n">
-        <v>361.52</v>
+        <v>268.6471473408129</v>
       </c>
     </row>
     <row r="133">
@@ -4842,19 +4846,19 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>340.6969935927576</v>
+        <v>268.6471473408129</v>
       </c>
       <c r="O133" t="n">
-        <v>353.4250982846929</v>
+        <v>342.9318242809876</v>
       </c>
     </row>
     <row r="134">
@@ -4875,19 +4879,19 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>342.6140346530728</v>
+        <v>275.3752520327482</v>
       </c>
       <c r="O134" t="n">
-        <v>353.1840346530728</v>
+        <v>275.3752520327482</v>
       </c>
     </row>
     <row r="135">
@@ -4908,19 +4912,19 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>343.52</v>
+        <v>275.3752520327482</v>
       </c>
       <c r="O135" t="n">
-        <v>343.52</v>
+        <v>275.3752520327482</v>
       </c>
     </row>
     <row r="136">
@@ -4941,19 +4945,19 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>343.52</v>
+        <v>275.3752520327482</v>
       </c>
       <c r="O136" t="n">
-        <v>343.52</v>
+        <v>288.1033567246835</v>
       </c>
     </row>
     <row r="137">
@@ -4974,19 +4978,19 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>343.52</v>
+        <v>288.1033567246835</v>
       </c>
       <c r="O137" t="n">
-        <v>393.52</v>
+        <v>288.1033567246835</v>
       </c>
     </row>
     <row r="138">
@@ -5007,19 +5011,19 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>353.1840346530728</v>
+        <v>288.1033567246835</v>
       </c>
       <c r="O138" t="n">
-        <v>353.1840346530728</v>
+        <v>288.1033567246835</v>
       </c>
     </row>
     <row r="139">
@@ -5040,19 +5044,19 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>353.1840346530728</v>
+        <v>288.1033567246835</v>
       </c>
       <c r="O139" t="n">
-        <v>375.7577349289623</v>
+        <v>300.8314614166188</v>
       </c>
     </row>
     <row r="140">
@@ -5073,7 +5077,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -5082,10 +5086,10 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>353.4250982846929</v>
+        <v>293.52</v>
       </c>
       <c r="O140" t="n">
-        <v>353.4250982846929</v>
+        <v>293.52</v>
       </c>
     </row>
     <row r="141">
@@ -5106,7 +5110,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -5115,10 +5119,10 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>353.4250982846929</v>
+        <v>293.52</v>
       </c>
       <c r="O141" t="n">
-        <v>370.2072791378403</v>
+        <v>293.52</v>
       </c>
     </row>
     <row r="142">
@@ -5139,7 +5143,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -5148,10 +5152,10 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>359.1840346530728</v>
+        <v>293.52</v>
       </c>
       <c r="O142" t="n">
-        <v>364.2072791378403</v>
+        <v>313.52</v>
       </c>
     </row>
     <row r="143">
@@ -5172,19 +5176,19 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>361.52</v>
+        <v>293.52</v>
       </c>
       <c r="O143" t="n">
-        <v>369.7577349289623</v>
+        <v>293.52</v>
       </c>
     </row>
     <row r="144">
@@ -5205,19 +5209,19 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>364.2072791378403</v>
+        <v>293.52</v>
       </c>
       <c r="O144" t="n">
-        <v>364.2072791378403</v>
+        <v>304.04</v>
       </c>
     </row>
     <row r="145">
@@ -5238,19 +5242,19 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>364.2072791378403</v>
+        <v>300.8314614166188</v>
       </c>
       <c r="O145" t="n">
-        <v>392.3277349289623</v>
+        <v>300.8314614166188</v>
       </c>
     </row>
     <row r="146">
@@ -5271,19 +5275,19 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>369.7577349289623</v>
+        <v>300.8314614166188</v>
       </c>
       <c r="O146" t="n">
-        <v>369.7577349289623</v>
+        <v>354.4140537622065</v>
       </c>
     </row>
     <row r="147">
@@ -5304,19 +5308,19 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>369.7577349289623</v>
+        <v>304.04</v>
       </c>
       <c r="O147" t="n">
-        <v>411.52</v>
+        <v>313.52</v>
       </c>
     </row>
     <row r="148">
@@ -5337,7 +5341,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -5346,10 +5350,10 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>370.2072791378403</v>
+        <v>311.52</v>
       </c>
       <c r="O148" t="n">
-        <v>382.9353838297756</v>
+        <v>320.3618242809876</v>
       </c>
     </row>
     <row r="149">
@@ -5370,19 +5374,19 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>375.7577349289623</v>
+        <v>313.52</v>
       </c>
       <c r="O149" t="n">
-        <v>386.3277349289623</v>
+        <v>313.52</v>
       </c>
     </row>
     <row r="150">
@@ -5403,19 +5407,19 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>382.9353838297756</v>
+        <v>313.52</v>
       </c>
       <c r="O150" t="n">
-        <v>382.9353838297756</v>
+        <v>313.52</v>
       </c>
     </row>
     <row r="151">
@@ -5436,19 +5440,19 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>382.9353838297756</v>
+        <v>313.52</v>
       </c>
       <c r="O151" t="n">
-        <v>402.3084203990721</v>
+        <v>353.52</v>
       </c>
     </row>
     <row r="152">
@@ -5469,19 +5473,19 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>386.3277349289623</v>
+        <v>313.52</v>
       </c>
       <c r="O152" t="n">
-        <v>386.3277349289623</v>
+        <v>313.52</v>
       </c>
     </row>
     <row r="153">
@@ -5502,19 +5506,19 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>386.3277349289623</v>
+        <v>313.52</v>
       </c>
       <c r="O153" t="n">
-        <v>426.8766373809532</v>
+        <v>324.04</v>
       </c>
     </row>
     <row r="154">
@@ -5535,19 +5539,19 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>392.3277349289623</v>
+        <v>320.3618242809876</v>
       </c>
       <c r="O154" t="n">
-        <v>396.3084203990721</v>
+        <v>320.3618242809876</v>
       </c>
     </row>
     <row r="155">
@@ -5568,19 +5572,19 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>393.52</v>
+        <v>320.3618242809876</v>
       </c>
       <c r="O155" t="n">
-        <v>393.52</v>
+        <v>331.52</v>
       </c>
     </row>
     <row r="156">
@@ -5601,19 +5605,19 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>393.52</v>
+        <v>324.04</v>
       </c>
       <c r="O156" t="n">
-        <v>393.52</v>
+        <v>353.52</v>
       </c>
     </row>
     <row r="157">
@@ -5634,7 +5638,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -5643,10 +5647,10 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>393.52</v>
+        <v>326.3618242809876</v>
       </c>
       <c r="O157" t="n">
-        <v>443.52</v>
+        <v>336.9318242809876</v>
       </c>
     </row>
     <row r="158">
@@ -5667,19 +5671,19 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>396.3084203990721</v>
+        <v>331.52</v>
       </c>
       <c r="O158" t="n">
-        <v>396.3084203990721</v>
+        <v>345.5666881226223</v>
       </c>
     </row>
     <row r="159">
@@ -5700,19 +5704,19 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>396.3084203990721</v>
+        <v>336.9318242809876</v>
       </c>
       <c r="O159" t="n">
-        <v>443.4466373809532</v>
+        <v>336.9318242809876</v>
       </c>
     </row>
     <row r="160">
@@ -5733,19 +5737,19 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>402.3084203990721</v>
+        <v>336.9318242809876</v>
       </c>
       <c r="O160" t="n">
-        <v>415.0365250910074</v>
+        <v>351.5666881226223</v>
       </c>
     </row>
     <row r="161">
@@ -5766,7 +5770,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -5775,10 +5779,10 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>411.52</v>
+        <v>342.9318242809876</v>
       </c>
       <c r="O161" t="n">
-        <v>420.8766373809532</v>
+        <v>348.4140537622065</v>
       </c>
     </row>
     <row r="162">
@@ -5799,7 +5803,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -5808,10 +5812,10 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>415.0365250910074</v>
+        <v>345.5666881226223</v>
       </c>
       <c r="O162" t="n">
-        <v>415.0365250910074</v>
+        <v>345.5666881226223</v>
       </c>
     </row>
     <row r="163">
@@ -5832,7 +5836,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -5841,10 +5845,10 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>415.0365250910074</v>
+        <v>345.5666881226223</v>
       </c>
       <c r="O163" t="n">
-        <v>453.7169267353171</v>
+        <v>391.52</v>
       </c>
     </row>
     <row r="164">
@@ -5865,7 +5869,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -5874,10 +5878,10 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>420.8766373809532</v>
+        <v>348.4140537622065</v>
       </c>
       <c r="O164" t="n">
-        <v>420.8766373809532</v>
+        <v>348.4140537622065</v>
       </c>
     </row>
     <row r="165">
@@ -5898,7 +5902,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -5907,10 +5911,10 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>420.8766373809532</v>
+        <v>348.4140537622065</v>
       </c>
       <c r="O165" t="n">
-        <v>461.52</v>
+        <v>368.1366881226223</v>
       </c>
     </row>
     <row r="166">
@@ -5940,10 +5944,10 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>426.8766373809532</v>
+        <v>351.5666881226223</v>
       </c>
       <c r="O166" t="n">
-        <v>437.4466373809532</v>
+        <v>362.1366881226223</v>
       </c>
     </row>
     <row r="167">
@@ -5964,7 +5968,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5973,10 +5977,10 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>437.4466373809532</v>
+        <v>353.52</v>
       </c>
       <c r="O167" t="n">
-        <v>437.4466373809532</v>
+        <v>353.52</v>
       </c>
     </row>
     <row r="168">
@@ -5997,7 +6001,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -6006,10 +6010,10 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>437.4466373809532</v>
+        <v>353.52</v>
       </c>
       <c r="O168" t="n">
-        <v>480.3357754022976</v>
+        <v>353.52</v>
       </c>
     </row>
     <row r="169">
@@ -6030,7 +6034,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -6039,10 +6043,10 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>443.4466373809532</v>
+        <v>353.52</v>
       </c>
       <c r="O169" t="n">
-        <v>447.7169267353171</v>
+        <v>373.52</v>
       </c>
     </row>
     <row r="170">
@@ -6063,19 +6067,19 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>443.52</v>
+        <v>353.52</v>
       </c>
       <c r="O170" t="n">
-        <v>443.52</v>
+        <v>353.52</v>
       </c>
     </row>
     <row r="171">
@@ -6096,18 +6100,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>443.52</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
+        <v>353.52</v>
+      </c>
+      <c r="O171" t="n">
+        <v>364.04</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6127,19 +6133,19 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>447.7169267353171</v>
+        <v>354.4140537622065</v>
       </c>
       <c r="O172" t="n">
-        <v>447.7169267353171</v>
+        <v>367.1421584541418</v>
       </c>
     </row>
     <row r="173">
@@ -6160,19 +6166,19 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>447.7169267353171</v>
+        <v>362.1366881226223</v>
       </c>
       <c r="O173" t="n">
-        <v>496.9057754022976</v>
+        <v>362.1366881226223</v>
       </c>
     </row>
     <row r="174">
@@ -6193,19 +6199,19 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>453.7169267353171</v>
+        <v>362.1366881226223</v>
       </c>
       <c r="O174" t="n">
-        <v>466.4450314272524</v>
+        <v>406.573249700271</v>
       </c>
     </row>
     <row r="175">
@@ -6226,19 +6232,19 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>461.52</v>
+        <v>364.04</v>
       </c>
       <c r="O175" t="n">
-        <v>474.3357754022976</v>
+        <v>373.52</v>
       </c>
     </row>
     <row r="176">
@@ -6268,10 +6274,10 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>466.4450314272524</v>
+        <v>367.1421584541418</v>
       </c>
       <c r="O176" t="n">
-        <v>466.4450314272524</v>
+        <v>367.1421584541418</v>
       </c>
     </row>
     <row r="177">
@@ -6301,10 +6307,10 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>466.4450314272524</v>
+        <v>367.1421584541418</v>
       </c>
       <c r="O177" t="n">
-        <v>512.3419080236812</v>
+        <v>388.4925080981465</v>
       </c>
     </row>
     <row r="178">
@@ -6325,19 +6331,19 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>474.3357754022976</v>
+        <v>368.1366881226223</v>
       </c>
       <c r="O178" t="n">
-        <v>474.3357754022976</v>
+        <v>382.4925080981465</v>
       </c>
     </row>
     <row r="179">
@@ -6358,18 +6364,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>474.3357754022976</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
+        <v>373.52</v>
+      </c>
+      <c r="O179" t="n">
+        <v>373.52</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6389,19 +6397,19 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>480.3357754022976</v>
+        <v>373.52</v>
       </c>
       <c r="O180" t="n">
-        <v>490.9057754022976</v>
+        <v>373.52</v>
       </c>
     </row>
     <row r="181">
@@ -6422,19 +6430,19 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>490.9057754022976</v>
+        <v>373.52</v>
       </c>
       <c r="O181" t="n">
-        <v>490.9057754022976</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="182">
@@ -6455,7 +6463,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -6464,9 +6472,11 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>490.9057754022976</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
+        <v>373.52</v>
+      </c>
+      <c r="O182" t="n">
+        <v>373.52</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6486,7 +6496,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -6495,10 +6505,10 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>496.9057754022976</v>
+        <v>373.52</v>
       </c>
       <c r="O183" t="n">
-        <v>506.3419080236812</v>
+        <v>384.04</v>
       </c>
     </row>
     <row r="184">
@@ -6519,7 +6529,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -6528,10 +6538,10 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>506.3419080236812</v>
+        <v>381.52</v>
       </c>
       <c r="O184" t="n">
-        <v>506.3419080236812</v>
+        <v>381.52</v>
       </c>
     </row>
     <row r="185">
@@ -6552,7 +6562,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -6561,9 +6571,11 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>506.3419080236812</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
+        <v>381.52</v>
+      </c>
+      <c r="O185" t="n">
+        <v>381.52</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6583,7 +6595,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -6592,10 +6604,10 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>512.3419080236812</v>
+        <v>381.52</v>
       </c>
       <c r="O186" t="n">
-        <v>525.0700127156165</v>
+        <v>489.52</v>
       </c>
     </row>
     <row r="187">
@@ -6616,18 +6628,6243 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>382.4925080981465</v>
+      </c>
+      <c r="O187" t="n">
+        <v>382.4925080981465</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>382.4925080981465</v>
+      </c>
+      <c r="O188" t="n">
+        <v>423.143249700271</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>384.04</v>
+      </c>
+      <c r="O189" t="n">
+        <v>393.52</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>388.4925080981465</v>
+      </c>
+      <c r="O190" t="n">
+        <v>401.2206127900818</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>391.52</v>
+      </c>
+      <c r="O191" t="n">
+        <v>400.573249700271</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
         <is>
           <t>Blocking</t>
         </is>
       </c>
-      <c r="N187" t="n">
-        <v>525.0700127156165</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>393.52</v>
+      </c>
+      <c r="O192" t="n">
+        <v>393.52</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>393.52</v>
+      </c>
+      <c r="O193" t="n">
+        <v>393.52</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>393.52</v>
+      </c>
+      <c r="O194" t="n">
+        <v>433.52</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>393.52</v>
+      </c>
+      <c r="O195" t="n">
+        <v>393.52</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>393.52</v>
+      </c>
+      <c r="O196" t="n">
+        <v>404.04</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>400.573249700271</v>
+      </c>
+      <c r="O197" t="n">
+        <v>400.573249700271</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>400.573249700271</v>
+      </c>
+      <c r="O198" t="n">
+        <v>400.573249700271</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>400.573249700271</v>
+      </c>
+      <c r="O199" t="n">
+        <v>404.6004702457166</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>401.2206127900818</v>
+      </c>
+      <c r="O200" t="n">
+        <v>401.2206127900818</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>401.2206127900818</v>
+      </c>
+      <c r="O201" t="n">
+        <v>434.2652486837995</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>404.04</v>
+      </c>
+      <c r="O202" t="n">
+        <v>433.52</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>404.6004702457166</v>
+      </c>
+      <c r="O203" t="n">
+        <v>406.573249700271</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>406.573249700271</v>
+      </c>
+      <c r="O204" t="n">
+        <v>411.52</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>406.573249700271</v>
+      </c>
+      <c r="O205" t="n">
+        <v>417.143249700271</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>411.52</v>
+      </c>
+      <c r="O206" t="n">
+        <v>417.5379621427975</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>417.143249700271</v>
+      </c>
+      <c r="O207" t="n">
+        <v>417.143249700271</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>417.143249700271</v>
+      </c>
+      <c r="O208" t="n">
+        <v>417.143249700271</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>417.143249700271</v>
+      </c>
+      <c r="O209" t="n">
+        <v>427.713249700271</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>417.5379621427975</v>
+      </c>
+      <c r="O210" t="n">
+        <v>417.5379621427975</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>417.5379621427975</v>
+      </c>
+      <c r="O211" t="n">
+        <v>451.52</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>423.143249700271</v>
+      </c>
+      <c r="O212" t="n">
+        <v>428.2652486837995</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>427.713249700271</v>
+      </c>
+      <c r="O213" t="n">
+        <v>427.713249700271</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>427.713249700271</v>
+      </c>
+      <c r="O214" t="n">
+        <v>427.713249700271</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>427.713249700271</v>
+      </c>
+      <c r="O215" t="n">
+        <v>438.283249700271</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>428.2652486837995</v>
+      </c>
+      <c r="O216" t="n">
+        <v>428.2652486837995</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>428.2652486837995</v>
+      </c>
+      <c r="O217" t="n">
+        <v>433.713249700271</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>433.52</v>
+      </c>
+      <c r="O218" t="n">
+        <v>433.52</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>433.52</v>
+      </c>
+      <c r="O219" t="n">
+        <v>433.52</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>433.52</v>
+      </c>
+      <c r="O220" t="n">
+        <v>473.52</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>433.52</v>
+      </c>
+      <c r="O221" t="n">
+        <v>433.52</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>433.52</v>
+      </c>
+      <c r="O222" t="n">
+        <v>444.04</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>433.713249700271</v>
+      </c>
+      <c r="O223" t="n">
+        <v>441.2986928133453</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>434.2652486837995</v>
+      </c>
+      <c r="O224" t="n">
+        <v>446.9933533757348</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>438.283249700271</v>
+      </c>
+      <c r="O225" t="n">
+        <v>438.283249700271</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>438.283249700271</v>
+      </c>
+      <c r="O226" t="n">
+        <v>466.1106888274484</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>441.2986928133453</v>
+      </c>
+      <c r="O227" t="n">
+        <v>441.2986928133453</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>441.2986928133453</v>
+      </c>
+      <c r="O228" t="n">
+        <v>444.283249700271</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>444.04</v>
+      </c>
+      <c r="O229" t="n">
+        <v>473.52</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>444.283249700271</v>
+      </c>
+      <c r="O230" t="n">
+        <v>448.8718536260009</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>446.9933533757348</v>
+      </c>
+      <c r="O231" t="n">
+        <v>446.9933533757348</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>446.9933533757348</v>
+      </c>
+      <c r="O232" t="n">
+        <v>447.2986928133453</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>447.2986928133453</v>
+      </c>
+      <c r="O233" t="n">
+        <v>460.0267975052806</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>448.8718536260009</v>
+      </c>
+      <c r="O234" t="n">
+        <v>448.8718536260009</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>448.8718536260009</v>
+      </c>
+      <c r="O235" t="n">
+        <v>482.6806888274484</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>451.52</v>
+      </c>
+      <c r="O236" t="n">
+        <v>460.1106888274484</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>460.0267975052806</v>
+      </c>
+      <c r="O237" t="n">
+        <v>460.0267975052806</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>460.0267975052806</v>
+      </c>
+      <c r="O238" t="n">
+        <v>460.0267975052806</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>460.0267975052806</v>
+      </c>
+      <c r="O239" t="n">
+        <v>472.7549021972159</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>460.1106888274484</v>
+      </c>
+      <c r="O240" t="n">
+        <v>460.1106888274484</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>460.1106888274484</v>
+      </c>
+      <c r="O241" t="n">
+        <v>491.52</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>466.1106888274484</v>
+      </c>
+      <c r="O242" t="n">
+        <v>476.6806888274484</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>472.7549021972159</v>
+      </c>
+      <c r="O243" t="n">
+        <v>472.7549021972159</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>472.7549021972159</v>
+      </c>
+      <c r="O244" t="n">
+        <v>493.8285174088891</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>473.52</v>
+      </c>
+      <c r="O245" t="n">
+        <v>473.52</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>473.52</v>
+      </c>
+      <c r="O246" t="n">
+        <v>473.52</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>473.52</v>
+      </c>
+      <c r="O247" t="n">
+        <v>513.52</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>473.52</v>
+      </c>
+      <c r="O248" t="n">
+        <v>473.52</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>473.52</v>
+      </c>
+      <c r="O249" t="n">
+        <v>484.04</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>476.6806888274484</v>
+      </c>
+      <c r="O250" t="n">
+        <v>476.6806888274484</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>476.6806888274484</v>
+      </c>
+      <c r="O251" t="n">
+        <v>504.7102852274671</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>482.6806888274484</v>
+      </c>
+      <c r="O252" t="n">
+        <v>487.8285174088891</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>484.04</v>
+      </c>
+      <c r="O253" t="n">
+        <v>513.52</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>487.8285174088891</v>
+      </c>
+      <c r="O254" t="n">
+        <v>487.8285174088891</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>487.8285174088891</v>
+      </c>
+      <c r="O255" t="n">
+        <v>521.2802852274671</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>489.52</v>
+      </c>
+      <c r="O256" t="n">
+        <v>489.52</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>489.52</v>
+      </c>
+      <c r="O257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>491.52</v>
+      </c>
+      <c r="O258" t="n">
+        <v>498.7102852274671</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>493.8285174088891</v>
+      </c>
+      <c r="O259" t="n">
+        <v>506.5566221008244</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
+        <v>498.7102852274671</v>
+      </c>
+      <c r="O260" t="n">
+        <v>498.7102852274671</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
+        <v>498.7102852274671</v>
+      </c>
+      <c r="O261" t="n">
+        <v>501.52</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>501.52</v>
+      </c>
+      <c r="O262" t="n">
+        <v>514.7036891418156</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>504.7102852274671</v>
+      </c>
+      <c r="O263" t="n">
+        <v>515.2802852274671</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>506.5566221008244</v>
+      </c>
+      <c r="O264" t="n">
+        <v>506.5566221008244</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>506.5566221008244</v>
+      </c>
+      <c r="O265" t="n">
+        <v>531.6507407637022</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>513.52</v>
+      </c>
+      <c r="O266" t="n">
+        <v>513.52</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>513.52</v>
+      </c>
+      <c r="O267" t="n">
+        <v>513.52</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>513.52</v>
+      </c>
+      <c r="O268" t="n">
+        <v>533.52</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>513.52</v>
+      </c>
+      <c r="O269" t="n">
+        <v>513.52</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>513.52</v>
+      </c>
+      <c r="O270" t="n">
+        <v>524.04</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>514.7036891418156</v>
+      </c>
+      <c r="O271" t="n">
+        <v>514.7036891418156</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>514.7036891418156</v>
+      </c>
+      <c r="O272" t="n">
+        <v>531.52</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>515.2802852274671</v>
+      </c>
+      <c r="O273" t="n">
+        <v>515.2802852274671</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>515.2802852274671</v>
+      </c>
+      <c r="O274" t="n">
+        <v>520.7036891418156</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>520.7036891418156</v>
+      </c>
+      <c r="O275" t="n">
+        <v>524.2036891418156</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>521.2802852274671</v>
+      </c>
+      <c r="O276" t="n">
+        <v>525.6507407637022</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>524.04</v>
+      </c>
+      <c r="O277" t="n">
+        <v>533.52</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
+        <v>524.2036891418156</v>
+      </c>
+      <c r="O278" t="n">
+        <v>524.2036891418156</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>524.2036891418156</v>
+      </c>
+      <c r="O279" t="n">
+        <v>548.1078790662692</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
+        <v>525.6507407637022</v>
+      </c>
+      <c r="O280" t="n">
+        <v>525.6507407637022</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>525.6507407637022</v>
+      </c>
+      <c r="O281" t="n">
+        <v>530.2036891418156</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
+        <v>530.2036891418156</v>
+      </c>
+      <c r="O282" t="n">
+        <v>537.4581518521167</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>531.52</v>
+      </c>
+      <c r="O283" t="n">
+        <v>542.1078790662692</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
+        <v>531.6507407637022</v>
+      </c>
+      <c r="O284" t="n">
+        <v>544.3788454556375</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>533.52</v>
+      </c>
+      <c r="O285" t="n">
+        <v>533.52</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
+        <v>533.52</v>
+      </c>
+      <c r="O286" t="n">
+        <v>533.52</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>533.52</v>
+      </c>
+      <c r="O287" t="n">
+        <v>553.52</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>533.52</v>
+      </c>
+      <c r="O288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
+        <v>537.4581518521167</v>
+      </c>
+      <c r="O289" t="n">
+        <v>537.4581518521167</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
+        <v>537.4581518521167</v>
+      </c>
+      <c r="O290" t="n">
+        <v>564.6778790662693</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
+        <v>542.1078790662692</v>
+      </c>
+      <c r="O291" t="n">
+        <v>542.1078790662692</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
+        <v>542.1078790662692</v>
+      </c>
+      <c r="O292" t="n">
+        <v>551.52</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
+        <v>544.3788454556375</v>
+      </c>
+      <c r="O293" t="n">
+        <v>544.3788454556375</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
+        <v>544.3788454556375</v>
+      </c>
+      <c r="O294" t="n">
+        <v>544.3788454556375</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
+        <v>544.3788454556375</v>
+      </c>
+      <c r="O295" t="n">
+        <v>557.1069501475728</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
+        <v>548.1078790662692</v>
+      </c>
+      <c r="O296" t="n">
+        <v>558.6778790662693</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
+        <v>551.52</v>
+      </c>
+      <c r="O297" t="n">
+        <v>557.143890895046</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
+        <v>553.52</v>
+      </c>
+      <c r="O298" t="n">
+        <v>553.52</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
+        <v>553.52</v>
+      </c>
+      <c r="O299" t="n">
+        <v>553.52</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>553.52</v>
+      </c>
+      <c r="O300" t="n">
+        <v>593.52</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
+        <v>557.1069501475728</v>
+      </c>
+      <c r="O301" t="n">
+        <v>557.1069501475728</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
+        <v>557.1069501475728</v>
+      </c>
+      <c r="O302" t="n">
+        <v>579.2389140042561</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
+        <v>557.143890895046</v>
+      </c>
+      <c r="O303" t="n">
+        <v>557.143890895046</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>557.143890895046</v>
+      </c>
+      <c r="O304" t="n">
+        <v>571.52</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
+        <v>558.6778790662693</v>
+      </c>
+      <c r="O305" t="n">
+        <v>558.6778790662693</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
+        <v>558.6778790662693</v>
+      </c>
+      <c r="O306" t="n">
+        <v>563.143890895046</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
+        <v>563.143890895046</v>
+      </c>
+      <c r="O307" t="n">
+        <v>573.713890895046</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
+        <v>564.6778790662693</v>
+      </c>
+      <c r="O308" t="n">
+        <v>573.2389140042561</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
+        <v>571.52</v>
+      </c>
+      <c r="O309" t="n">
+        <v>575.0617441515152</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>573.2389140042561</v>
+      </c>
+      <c r="O310" t="n">
+        <v>573.2389140042561</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
+        <v>573.2389140042561</v>
+      </c>
+      <c r="O311" t="n">
+        <v>579.713890895046</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
+        <v>573.713890895046</v>
+      </c>
+      <c r="O312" t="n">
+        <v>573.713890895046</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N313" t="n">
+        <v>573.713890895046</v>
+      </c>
+      <c r="O313" t="n">
+        <v>581.0617441515152</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>575.0617441515152</v>
+      </c>
+      <c r="O314" t="n">
+        <v>575.0617441515152</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N315" t="n">
+        <v>575.0617441515152</v>
+      </c>
+      <c r="O315" t="n">
+        <v>611.52</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr"/>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
+        <v>579.2389140042561</v>
+      </c>
+      <c r="O316" t="n">
+        <v>591.9670186961914</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
+        <v>579.713890895046</v>
+      </c>
+      <c r="O317" t="n">
+        <v>589.5673289684228</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N318" t="n">
+        <v>581.0617441515152</v>
+      </c>
+      <c r="O318" t="n">
+        <v>591.6317441515152</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr"/>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
+        <v>589.5673289684228</v>
+      </c>
+      <c r="O319" t="n">
+        <v>589.5673289684228</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N320" t="n">
+        <v>589.5673289684228</v>
+      </c>
+      <c r="O320" t="n">
+        <v>597.6317441515152</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>591.6317441515152</v>
+      </c>
+      <c r="O321" t="n">
+        <v>591.6317441515152</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N322" t="n">
+        <v>591.6317441515152</v>
+      </c>
+      <c r="O322" t="n">
+        <v>633.4717410301713</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N323" t="n">
+        <v>591.9670186961914</v>
+      </c>
+      <c r="O323" t="n">
+        <v>591.9670186961914</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N324" t="n">
+        <v>591.9670186961914</v>
+      </c>
+      <c r="O324" t="n">
+        <v>595.5673289684228</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N325" t="n">
+        <v>593.52</v>
+      </c>
+      <c r="O325" t="n">
+        <v>593.52</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N326" t="n">
+        <v>593.52</v>
+      </c>
+      <c r="O326" t="n">
+        <v>593.52</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N327" t="n">
+        <v>593.52</v>
+      </c>
+      <c r="O327" t="n">
+        <v>613.52</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N328" t="n">
+        <v>595.5673289684228</v>
+      </c>
+      <c r="O328" t="n">
+        <v>608.2954336603581</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N329" t="n">
+        <v>597.6317441515152</v>
+      </c>
+      <c r="O329" t="n">
+        <v>602.7202129889785</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N330" t="n">
+        <v>602.7202129889785</v>
+      </c>
+      <c r="O330" t="n">
+        <v>602.7202129889785</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N331" t="n">
+        <v>602.7202129889785</v>
+      </c>
+      <c r="O331" t="n">
+        <v>650.0417410301714</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N332" t="n">
+        <v>608.2954336603581</v>
+      </c>
+      <c r="O332" t="n">
+        <v>608.2954336603581</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N333" t="n">
+        <v>608.2954336603581</v>
+      </c>
+      <c r="O333" t="n">
+        <v>608.7202129889785</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr"/>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N334" t="n">
+        <v>608.7202129889785</v>
+      </c>
+      <c r="O334" t="n">
+        <v>621.4483176809138</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N335" t="n">
+        <v>611.52</v>
+      </c>
+      <c r="O335" t="n">
+        <v>627.4717410301713</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N336" t="n">
+        <v>613.52</v>
+      </c>
+      <c r="O336" t="n">
+        <v>613.52</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N337" t="n">
+        <v>613.52</v>
+      </c>
+      <c r="O337" t="n">
+        <v>613.52</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N338" t="n">
+        <v>613.52</v>
+      </c>
+      <c r="O338" t="n">
+        <v>653.52</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N339" t="n">
+        <v>621.4483176809138</v>
+      </c>
+      <c r="O339" t="n">
+        <v>621.4483176809138</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N340" t="n">
+        <v>621.4483176809138</v>
+      </c>
+      <c r="O340" t="n">
+        <v>660.7786284669228</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N341" t="n">
+        <v>627.4717410301713</v>
+      </c>
+      <c r="O341" t="n">
+        <v>627.4717410301713</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N342" t="n">
+        <v>627.4717410301713</v>
+      </c>
+      <c r="O342" t="n">
+        <v>631.52</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N343" t="n">
+        <v>631.52</v>
+      </c>
+      <c r="O343" t="n">
+        <v>635.7464972746964</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N344" t="n">
+        <v>633.4717410301713</v>
+      </c>
+      <c r="O344" t="n">
+        <v>644.0417410301714</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N345" t="n">
+        <v>635.7464972746964</v>
+      </c>
+      <c r="O345" t="n">
+        <v>635.7464972746964</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N346" t="n">
+        <v>635.7464972746964</v>
+      </c>
+      <c r="O346" t="n">
+        <v>671.52</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N347" t="n">
+        <v>644.0417410301714</v>
+      </c>
+      <c r="O347" t="n">
+        <v>644.0417410301714</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr"/>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N348" t="n">
+        <v>644.0417410301714</v>
+      </c>
+      <c r="O348" t="n">
+        <v>644.0417410301714</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N349" t="n">
+        <v>644.0417410301714</v>
+      </c>
+      <c r="O349" t="n">
+        <v>654.6117410301714</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N350" t="n">
+        <v>650.0417410301714</v>
+      </c>
+      <c r="O350" t="n">
+        <v>654.7786284669228</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N351" t="n">
+        <v>653.52</v>
+      </c>
+      <c r="O351" t="n">
+        <v>653.52</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N352" t="n">
+        <v>653.52</v>
+      </c>
+      <c r="O352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N353" t="n">
+        <v>654.6117410301714</v>
+      </c>
+      <c r="O353" t="n">
+        <v>654.6117410301714</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N354" t="n">
+        <v>654.6117410301714</v>
+      </c>
+      <c r="O354" t="n">
+        <v>718.1513352143463</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>1</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N355" t="n">
+        <v>654.7786284669228</v>
+      </c>
+      <c r="O355" t="n">
+        <v>654.7786284669228</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>1</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N356" t="n">
+        <v>654.7786284669228</v>
+      </c>
+      <c r="O356" t="n">
+        <v>660.6117410301714</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>1</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N357" t="n">
+        <v>660.6117410301714</v>
+      </c>
+      <c r="O357" t="n">
+        <v>676.5022217529639</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>1</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N358" t="n">
+        <v>660.7786284669228</v>
+      </c>
+      <c r="O358" t="n">
+        <v>673.5067331588581</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>1</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N359" t="n">
+        <v>671.52</v>
+      </c>
+      <c r="O359" t="n">
+        <v>712.1513352143463</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>1</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N360" t="n">
+        <v>673.5067331588581</v>
+      </c>
+      <c r="O360" t="n">
+        <v>673.5067331588581</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>1</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N361" t="n">
+        <v>673.5067331588581</v>
+      </c>
+      <c r="O361" t="n">
+        <v>682.5022217529639</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>1</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N362" t="n">
+        <v>676.5022217529639</v>
+      </c>
+      <c r="O362" t="n">
+        <v>676.5022217529639</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr"/>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>1</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N363" t="n">
+        <v>676.5022217529639</v>
+      </c>
+      <c r="O363" t="n">
+        <v>734.7213352143464</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr"/>
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>1</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N364" t="n">
+        <v>682.5022217529639</v>
+      </c>
+      <c r="O364" t="n">
+        <v>695.2303264448992</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>1</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N365" t="n">
+        <v>695.2303264448992</v>
+      </c>
+      <c r="O365" t="n">
+        <v>695.2303264448992</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>1</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N366" t="n">
+        <v>695.2303264448992</v>
+      </c>
+      <c r="O366" t="n">
+        <v>745.4761957574073</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr"/>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>1</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N367" t="n">
+        <v>712.1513352143463</v>
+      </c>
+      <c r="O367" t="n">
+        <v>712.1513352143463</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>1</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N368" t="n">
+        <v>712.1513352143463</v>
+      </c>
+      <c r="O368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr"/>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N369" t="n">
+        <v>718.1513352143463</v>
+      </c>
+      <c r="O369" t="n">
+        <v>728.7213352143464</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr"/>
+      <c r="C370" t="inlineStr"/>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>1</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N370" t="n">
+        <v>728.7213352143464</v>
+      </c>
+      <c r="O370" t="n">
+        <v>728.7213352143464</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr"/>
+      <c r="C371" t="inlineStr"/>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>1</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N371" t="n">
+        <v>728.7213352143464</v>
+      </c>
+      <c r="O371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr"/>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>1</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N372" t="n">
+        <v>734.7213352143464</v>
+      </c>
+      <c r="O372" t="n">
+        <v>739.4761957574073</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>1</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N373" t="n">
+        <v>739.4761957574073</v>
+      </c>
+      <c r="O373" t="n">
+        <v>739.4761957574073</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>1</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="N374" t="n">
+        <v>739.4761957574073</v>
+      </c>
+      <c r="O374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr"/>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>1</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="N375" t="n">
+        <v>745.4761957574073</v>
+      </c>
+      <c r="O375" t="n">
+        <v>758.2043004493426</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr"/>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>1</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>Blocking</t>
+        </is>
+      </c>
+      <c r="N376" t="n">
+        <v>758.2043004493426</v>
+      </c>
+      <c r="O376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spazio_stati.xlsx
+++ b/spazio_stati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O376"/>
+  <dimension ref="A1:O367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,9 +600,7 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="n">
-        <v>81.52</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -634,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>121.52</v>
+        <v>91.52</v>
       </c>
     </row>
     <row r="6">
@@ -667,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>133.0993586955334</v>
+        <v>108.1495983471983</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>149.6693586955334</v>
+        <v>124.7195983471983</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>172.2969948987913</v>
+        <v>137.262374542169</v>
       </c>
     </row>
     <row r="9">
@@ -898,7 +896,7 @@
         <v>23.52</v>
       </c>
       <c r="O13" t="n">
-        <v>63.52</v>
+        <v>73.52</v>
       </c>
     </row>
     <row r="14">
@@ -1228,7 +1226,7 @@
         <v>59.59999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>63.52</v>
+        <v>73.52</v>
       </c>
     </row>
     <row r="24">
@@ -1258,10 +1256,10 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>63.52</v>
+        <v>73.52</v>
       </c>
       <c r="O24" t="n">
-        <v>63.52</v>
+        <v>73.52</v>
       </c>
     </row>
     <row r="25">
@@ -1291,10 +1289,10 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>63.52</v>
+        <v>73.52</v>
       </c>
       <c r="O25" t="n">
-        <v>63.52</v>
+        <v>73.52</v>
       </c>
     </row>
     <row r="26">
@@ -1324,7 +1322,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>63.52</v>
+        <v>73.52</v>
       </c>
       <c r="O26" t="n">
         <v>103.52</v>
@@ -1357,10 +1355,10 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>63.52</v>
+        <v>73.52</v>
       </c>
       <c r="O27" t="n">
-        <v>63.52</v>
+        <v>73.52</v>
       </c>
     </row>
     <row r="28">
@@ -1390,10 +1388,10 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>63.52</v>
+        <v>73.52</v>
       </c>
       <c r="O28" t="n">
-        <v>74.03999999999999</v>
+        <v>84.03999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1423,7 +1421,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>74.03999999999999</v>
+        <v>84.03999999999999</v>
       </c>
       <c r="O29" t="n">
         <v>103.52</v>
@@ -1447,7 +1445,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -1456,10 +1454,10 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>81.52</v>
+        <v>91.52</v>
       </c>
       <c r="O30" t="n">
-        <v>189.52</v>
+        <v>102.1495983471983</v>
       </c>
     </row>
     <row r="31">
@@ -1480,7 +1478,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1489,10 +1487,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>103.52</v>
+        <v>102.1495983471983</v>
       </c>
       <c r="O31" t="n">
-        <v>103.52</v>
+        <v>102.1495983471983</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1511,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -1522,10 +1520,10 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>103.52</v>
+        <v>102.1495983471983</v>
       </c>
       <c r="O32" t="n">
-        <v>103.52</v>
+        <v>121.52</v>
       </c>
     </row>
     <row r="33">
@@ -1551,14 +1549,14 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N33" t="n">
         <v>103.52</v>
       </c>
       <c r="O33" t="n">
-        <v>123.52</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="34">
@@ -1579,7 +1577,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -1612,7 +1610,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -1624,7 +1622,7 @@
         <v>103.52</v>
       </c>
       <c r="O35" t="n">
-        <v>114.04</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="36">
@@ -1650,14 +1648,14 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>114.04</v>
+        <v>103.52</v>
       </c>
       <c r="O36" t="n">
-        <v>123.52</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="37">
@@ -1678,7 +1676,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -1687,10 +1685,10 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>121.52</v>
+        <v>103.52</v>
       </c>
       <c r="O37" t="n">
-        <v>127.0993586955334</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="38">
@@ -1711,19 +1709,19 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>123.52</v>
+        <v>108.1495983471983</v>
       </c>
       <c r="O38" t="n">
-        <v>123.52</v>
+        <v>118.7195983471983</v>
       </c>
     </row>
     <row r="39">
@@ -1744,19 +1742,19 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>123.52</v>
+        <v>114.04</v>
       </c>
       <c r="O39" t="n">
-        <v>123.52</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="40">
@@ -1777,19 +1775,19 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>123.52</v>
+        <v>118.7195983471983</v>
       </c>
       <c r="O40" t="n">
-        <v>163.52</v>
+        <v>118.7195983471983</v>
       </c>
     </row>
     <row r="41">
@@ -1810,7 +1808,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -1819,10 +1817,10 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>123.52</v>
+        <v>118.7195983471983</v>
       </c>
       <c r="O41" t="n">
-        <v>123.52</v>
+        <v>155.2238352439459</v>
       </c>
     </row>
     <row r="42">
@@ -1843,7 +1841,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -1852,10 +1850,10 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>123.52</v>
+        <v>121.52</v>
       </c>
       <c r="O42" t="n">
-        <v>134.04</v>
+        <v>149.2238352439459</v>
       </c>
     </row>
     <row r="43">
@@ -1876,19 +1874,19 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>127.0993586955334</v>
+        <v>124.7195983471983</v>
       </c>
       <c r="O43" t="n">
-        <v>127.0993586955334</v>
+        <v>131.262374542169</v>
       </c>
     </row>
     <row r="44">
@@ -1909,19 +1907,19 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>127.0993586955334</v>
+        <v>131.262374542169</v>
       </c>
       <c r="O44" t="n">
-        <v>141.52</v>
+        <v>131.262374542169</v>
       </c>
     </row>
     <row r="45">
@@ -1942,19 +1940,19 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>133.0993586955334</v>
+        <v>131.262374542169</v>
       </c>
       <c r="O45" t="n">
-        <v>143.6693586955334</v>
+        <v>171.7938352439459</v>
       </c>
     </row>
     <row r="46">
@@ -1975,19 +1973,19 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>134.04</v>
+        <v>137.262374542169</v>
       </c>
       <c r="O46" t="n">
-        <v>163.52</v>
+        <v>149.9904792341043</v>
       </c>
     </row>
     <row r="47">
@@ -2008,19 +2006,19 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>141.52</v>
+        <v>143.52</v>
       </c>
       <c r="O47" t="n">
-        <v>148.0095749283927</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="48">
@@ -2041,19 +2039,19 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>143.6693586955334</v>
+        <v>143.52</v>
       </c>
       <c r="O48" t="n">
-        <v>143.6693586955334</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="49">
@@ -2074,19 +2072,19 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>143.6693586955334</v>
+        <v>143.52</v>
       </c>
       <c r="O49" t="n">
-        <v>154.0095749283927</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="50">
@@ -2107,19 +2105,19 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>148.0095749283927</v>
+        <v>143.52</v>
       </c>
       <c r="O50" t="n">
-        <v>148.0095749283927</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="51">
@@ -2140,19 +2138,19 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>148.0095749283927</v>
+        <v>143.52</v>
       </c>
       <c r="O51" t="n">
-        <v>181.52</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="52">
@@ -2173,19 +2171,19 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>149.6693586955334</v>
+        <v>149.2238352439459</v>
       </c>
       <c r="O52" t="n">
-        <v>166.2969948987913</v>
+        <v>149.2238352439459</v>
       </c>
     </row>
     <row r="53">
@@ -2206,19 +2204,19 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>154.0095749283927</v>
+        <v>149.2238352439459</v>
       </c>
       <c r="O53" t="n">
-        <v>164.5795749283927</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="54">
@@ -2239,7 +2237,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -2248,10 +2246,10 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>163.52</v>
+        <v>149.9904792341043</v>
       </c>
       <c r="O54" t="n">
-        <v>163.52</v>
+        <v>149.9904792341043</v>
       </c>
     </row>
     <row r="55">
@@ -2272,7 +2270,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -2281,10 +2279,10 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>163.52</v>
+        <v>149.9904792341043</v>
       </c>
       <c r="O55" t="n">
-        <v>163.52</v>
+        <v>187.7901947750554</v>
       </c>
     </row>
     <row r="56">
@@ -2305,16 +2303,16 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>163.52</v>
+        <v>154.04</v>
       </c>
       <c r="O56" t="n">
         <v>183.52</v>
@@ -2338,19 +2336,19 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>163.52</v>
+        <v>155.2238352439459</v>
       </c>
       <c r="O57" t="n">
-        <v>163.52</v>
+        <v>165.7938352439459</v>
       </c>
     </row>
     <row r="58">
@@ -2371,7 +2369,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -2380,10 +2378,10 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>163.52</v>
+        <v>161.52</v>
       </c>
       <c r="O58" t="n">
-        <v>174.04</v>
+        <v>183.2662857165521</v>
       </c>
     </row>
     <row r="59">
@@ -2413,10 +2411,10 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>164.5795749283927</v>
+        <v>165.7938352439459</v>
       </c>
       <c r="O59" t="n">
-        <v>164.5795749283927</v>
+        <v>165.7938352439459</v>
       </c>
     </row>
     <row r="60">
@@ -2446,10 +2444,10 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>164.5795749283927</v>
+        <v>165.7938352439459</v>
       </c>
       <c r="O60" t="n">
-        <v>191.0938387476926</v>
+        <v>189.2662857165521</v>
       </c>
     </row>
     <row r="61">
@@ -2475,14 +2473,14 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>166.2969948987913</v>
+        <v>171.7938352439459</v>
       </c>
       <c r="O61" t="n">
-        <v>166.2969948987913</v>
+        <v>181.7901947750554</v>
       </c>
     </row>
     <row r="62">
@@ -2508,14 +2506,14 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>166.2969948987913</v>
+        <v>181.7901947750554</v>
       </c>
       <c r="O62" t="n">
-        <v>170.5795749283927</v>
+        <v>181.7901947750554</v>
       </c>
     </row>
     <row r="63">
@@ -2541,14 +2539,14 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>170.5795749283927</v>
+        <v>181.7901947750554</v>
       </c>
       <c r="O63" t="n">
-        <v>182.0292293558573</v>
+        <v>205.8362857165521</v>
       </c>
     </row>
     <row r="64">
@@ -2569,19 +2567,19 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>172.2969948987913</v>
+        <v>183.2662857165521</v>
       </c>
       <c r="O64" t="n">
-        <v>185.0250995907266</v>
+        <v>183.2662857165521</v>
       </c>
     </row>
     <row r="65">
@@ -2602,19 +2600,19 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>174.04</v>
+        <v>183.2662857165521</v>
       </c>
       <c r="O65" t="n">
-        <v>183.52</v>
+        <v>201.52</v>
       </c>
     </row>
     <row r="66">
@@ -2635,19 +2633,19 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>181.52</v>
+        <v>183.52</v>
       </c>
       <c r="O66" t="n">
-        <v>185.0938387476926</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="67">
@@ -2668,19 +2666,19 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>182.0292293558573</v>
+        <v>183.52</v>
       </c>
       <c r="O67" t="n">
-        <v>182.0292293558573</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="68">
@@ -2701,19 +2699,19 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>182.0292293558573</v>
+        <v>183.52</v>
       </c>
       <c r="O68" t="n">
-        <v>207.6638387476926</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="69">
@@ -2734,12 +2732,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -2767,19 +2765,19 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N70" t="n">
         <v>183.52</v>
       </c>
       <c r="O70" t="n">
-        <v>183.52</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="71">
@@ -2800,7 +2798,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -2809,10 +2807,10 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>183.52</v>
+        <v>187.7901947750554</v>
       </c>
       <c r="O71" t="n">
-        <v>203.52</v>
+        <v>200.5182994669907</v>
       </c>
     </row>
     <row r="72">
@@ -2833,19 +2831,19 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>183.52</v>
+        <v>189.2662857165521</v>
       </c>
       <c r="O72" t="n">
-        <v>183.52</v>
+        <v>199.8362857165521</v>
       </c>
     </row>
     <row r="73">
@@ -2871,14 +2869,14 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>183.52</v>
+        <v>194.04</v>
       </c>
       <c r="O73" t="n">
-        <v>194.04</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="74">
@@ -2899,7 +2897,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -2908,10 +2906,10 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>185.0250995907266</v>
+        <v>199.8362857165521</v>
       </c>
       <c r="O74" t="n">
-        <v>185.0250995907266</v>
+        <v>199.8362857165521</v>
       </c>
     </row>
     <row r="75">
@@ -2932,7 +2930,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -2941,10 +2939,10 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>185.0250995907266</v>
+        <v>199.8362857165521</v>
       </c>
       <c r="O75" t="n">
-        <v>188.0292293558573</v>
+        <v>211.472254569288</v>
       </c>
     </row>
     <row r="76">
@@ -2965,7 +2963,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -2974,10 +2972,10 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>185.0938387476926</v>
+        <v>200.5182994669907</v>
       </c>
       <c r="O76" t="n">
-        <v>185.0938387476926</v>
+        <v>200.5182994669907</v>
       </c>
     </row>
     <row r="77">
@@ -2998,7 +2996,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -3007,10 +3005,10 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>185.0938387476926</v>
+        <v>200.5182994669907</v>
       </c>
       <c r="O77" t="n">
-        <v>201.52</v>
+        <v>275.2623250623591</v>
       </c>
     </row>
     <row r="78">
@@ -3031,7 +3029,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -3040,10 +3038,10 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>188.0292293558573</v>
+        <v>201.52</v>
       </c>
       <c r="O78" t="n">
-        <v>200.7573340477926</v>
+        <v>205.472254569288</v>
       </c>
     </row>
     <row r="79">
@@ -3064,7 +3062,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -3073,10 +3071,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>189.52</v>
+        <v>203.52</v>
       </c>
       <c r="O79" t="n">
-        <v>189.52</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="80">
@@ -3097,7 +3095,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -3106,10 +3104,10 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>189.52</v>
+        <v>203.52</v>
       </c>
       <c r="O80" t="n">
-        <v>261.52</v>
+        <v>203.52</v>
       </c>
     </row>
     <row r="81">
@@ -3130,7 +3128,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -3139,10 +3137,10 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>191.0938387476926</v>
+        <v>203.52</v>
       </c>
       <c r="O81" t="n">
-        <v>201.6638387476926</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="82">
@@ -3168,11 +3166,11 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>194.04</v>
+        <v>203.52</v>
       </c>
       <c r="O82" t="n">
         <v>203.52</v>
@@ -3196,19 +3194,19 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>200.7573340477926</v>
+        <v>203.52</v>
       </c>
       <c r="O83" t="n">
-        <v>200.7573340477926</v>
+        <v>214.04</v>
       </c>
     </row>
     <row r="84">
@@ -3229,19 +3227,19 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>200.7573340477926</v>
+        <v>205.472254569288</v>
       </c>
       <c r="O84" t="n">
-        <v>217.6378938875086</v>
+        <v>205.472254569288</v>
       </c>
     </row>
     <row r="85">
@@ -3267,14 +3265,14 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>201.52</v>
+        <v>205.472254569288</v>
       </c>
       <c r="O85" t="n">
-        <v>218.3918555054868</v>
+        <v>221.52</v>
       </c>
     </row>
     <row r="86">
@@ -3295,19 +3293,19 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>201.6638387476926</v>
+        <v>205.8362857165521</v>
       </c>
       <c r="O86" t="n">
-        <v>201.6638387476926</v>
+        <v>269.2623250623591</v>
       </c>
     </row>
     <row r="87">
@@ -3333,14 +3331,14 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>201.6638387476926</v>
+        <v>211.472254569288</v>
       </c>
       <c r="O87" t="n">
-        <v>224.3918555054868</v>
+        <v>222.042254569288</v>
       </c>
     </row>
     <row r="88">
@@ -3361,7 +3359,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -3370,10 +3368,10 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>203.52</v>
+        <v>214.04</v>
       </c>
       <c r="O88" t="n">
-        <v>203.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="89">
@@ -3394,19 +3392,19 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>203.52</v>
+        <v>221.52</v>
       </c>
       <c r="O89" t="n">
-        <v>203.52</v>
+        <v>227.360619087392</v>
       </c>
     </row>
     <row r="90">
@@ -3427,19 +3425,19 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>203.52</v>
+        <v>222.042254569288</v>
       </c>
       <c r="O90" t="n">
-        <v>243.52</v>
+        <v>222.042254569288</v>
       </c>
     </row>
     <row r="91">
@@ -3460,7 +3458,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -3469,10 +3467,10 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>203.52</v>
+        <v>222.042254569288</v>
       </c>
       <c r="O91" t="n">
-        <v>203.52</v>
+        <v>233.360619087392</v>
       </c>
     </row>
     <row r="92">
@@ -3493,19 +3491,19 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>203.52</v>
+        <v>223.52</v>
       </c>
       <c r="O92" t="n">
-        <v>214.04</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="93">
@@ -3526,19 +3524,19 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>207.6638387476926</v>
+        <v>223.52</v>
       </c>
       <c r="O93" t="n">
-        <v>211.6378938875086</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="94">
@@ -3559,19 +3557,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>211.6378938875086</v>
+        <v>223.52</v>
       </c>
       <c r="O94" t="n">
-        <v>211.6378938875086</v>
+        <v>243.52</v>
       </c>
     </row>
     <row r="95">
@@ -3592,7 +3590,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -3601,10 +3599,10 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>211.6378938875086</v>
+        <v>223.52</v>
       </c>
       <c r="O95" t="n">
-        <v>240.9618555054868</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="96">
@@ -3630,14 +3628,14 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>214.04</v>
+        <v>223.52</v>
       </c>
       <c r="O96" t="n">
-        <v>243.52</v>
+        <v>234.04</v>
       </c>
     </row>
     <row r="97">
@@ -3658,19 +3656,19 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>217.6378938875086</v>
+        <v>227.360619087392</v>
       </c>
       <c r="O97" t="n">
-        <v>230.3659985794439</v>
+        <v>227.360619087392</v>
       </c>
     </row>
     <row r="98">
@@ -3696,14 +3694,14 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>218.3918555054868</v>
+        <v>227.360619087392</v>
       </c>
       <c r="O98" t="n">
-        <v>218.3918555054868</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="99">
@@ -3724,19 +3722,19 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>218.3918555054868</v>
+        <v>233.360619087392</v>
       </c>
       <c r="O99" t="n">
-        <v>218.3918555054868</v>
+        <v>236.860619087392</v>
       </c>
     </row>
     <row r="100">
@@ -3757,19 +3755,19 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>218.3918555054868</v>
+        <v>234.04</v>
       </c>
       <c r="O100" t="n">
-        <v>223.0000695296232</v>
+        <v>243.52</v>
       </c>
     </row>
     <row r="101">
@@ -3790,7 +3788,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -3799,10 +3797,10 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>223.0000695296232</v>
+        <v>236.860619087392</v>
       </c>
       <c r="O101" t="n">
-        <v>224.3918555054868</v>
+        <v>236.860619087392</v>
       </c>
     </row>
     <row r="102">
@@ -3823,7 +3821,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -3832,10 +3830,10 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>224.3918555054868</v>
+        <v>236.860619087392</v>
       </c>
       <c r="O102" t="n">
-        <v>224.3918555054868</v>
+        <v>258.5195747264932</v>
       </c>
     </row>
     <row r="103">
@@ -3865,10 +3863,10 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>224.3918555054868</v>
+        <v>241.52</v>
       </c>
       <c r="O103" t="n">
-        <v>228.2477873496714</v>
+        <v>252.5195747264932</v>
       </c>
     </row>
     <row r="104">
@@ -3889,19 +3887,19 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>224.3918555054868</v>
+        <v>243.52</v>
       </c>
       <c r="O104" t="n">
-        <v>234.9618555054868</v>
+        <v>243.52</v>
       </c>
     </row>
     <row r="105">
@@ -3922,19 +3920,19 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>228.2477873496714</v>
+        <v>243.52</v>
       </c>
       <c r="O105" t="n">
-        <v>230.3918555054868</v>
+        <v>243.52</v>
       </c>
     </row>
     <row r="106">
@@ -3955,19 +3953,19 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>230.3659985794439</v>
+        <v>243.52</v>
       </c>
       <c r="O106" t="n">
-        <v>230.3659985794439</v>
+        <v>283.52</v>
       </c>
     </row>
     <row r="107">
@@ -3988,7 +3986,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -3997,10 +3995,10 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>230.3659985794439</v>
+        <v>243.52</v>
       </c>
       <c r="O107" t="n">
-        <v>262.6471473408129</v>
+        <v>243.52</v>
       </c>
     </row>
     <row r="108">
@@ -4021,19 +4019,19 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>230.3918555054868</v>
+        <v>243.52</v>
       </c>
       <c r="O108" t="n">
-        <v>311.52</v>
+        <v>254.04</v>
       </c>
     </row>
     <row r="109">
@@ -4054,7 +4052,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -4063,10 +4061,10 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>234.9618555054868</v>
+        <v>252.5195747264932</v>
       </c>
       <c r="O109" t="n">
-        <v>234.9618555054868</v>
+        <v>252.5195747264932</v>
       </c>
     </row>
     <row r="110">
@@ -4087,7 +4085,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -4096,10 +4094,10 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>234.9618555054868</v>
+        <v>252.5195747264932</v>
       </c>
       <c r="O110" t="n">
-        <v>234.9618555054868</v>
+        <v>261.52</v>
       </c>
     </row>
     <row r="111">
@@ -4120,19 +4118,19 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>234.9618555054868</v>
+        <v>254.04</v>
       </c>
       <c r="O111" t="n">
-        <v>245.5318555054868</v>
+        <v>283.52</v>
       </c>
     </row>
     <row r="112">
@@ -4153,7 +4151,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -4162,10 +4160,10 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>240.9618555054868</v>
+        <v>258.5195747264932</v>
       </c>
       <c r="O112" t="n">
-        <v>256.6471473408129</v>
+        <v>269.0895747264932</v>
       </c>
     </row>
     <row r="113">
@@ -4186,19 +4184,19 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>243.52</v>
+        <v>261.52</v>
       </c>
       <c r="O113" t="n">
-        <v>243.52</v>
+        <v>265.7474522320646</v>
       </c>
     </row>
     <row r="114">
@@ -4219,19 +4217,19 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>243.52</v>
+        <v>265.7474522320646</v>
       </c>
       <c r="O114" t="n">
-        <v>243.52</v>
+        <v>265.7474522320646</v>
       </c>
     </row>
     <row r="115">
@@ -4252,19 +4250,19 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>243.52</v>
+        <v>265.7474522320646</v>
       </c>
       <c r="O115" t="n">
-        <v>293.52</v>
+        <v>301.52</v>
       </c>
     </row>
     <row r="116">
@@ -4285,19 +4283,19 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>243.52</v>
+        <v>269.0895747264932</v>
       </c>
       <c r="O116" t="n">
-        <v>243.52</v>
+        <v>269.0895747264932</v>
       </c>
     </row>
     <row r="117">
@@ -4318,19 +4316,19 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>243.52</v>
+        <v>269.0895747264932</v>
       </c>
       <c r="O117" t="n">
-        <v>254.04</v>
+        <v>271.7474522320646</v>
       </c>
     </row>
     <row r="118">
@@ -4351,7 +4349,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -4360,10 +4358,10 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>245.5318555054868</v>
+        <v>269.2623250623591</v>
       </c>
       <c r="O118" t="n">
-        <v>245.5318555054868</v>
+        <v>269.2623250623591</v>
       </c>
     </row>
     <row r="119">
@@ -4384,7 +4382,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -4393,10 +4391,10 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>245.5318555054868</v>
+        <v>269.2623250623591</v>
       </c>
       <c r="O119" t="n">
-        <v>245.5318555054868</v>
+        <v>269.2623250623591</v>
       </c>
     </row>
     <row r="120">
@@ -4417,7 +4415,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -4426,10 +4424,10 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>245.5318555054868</v>
+        <v>269.2623250623591</v>
       </c>
       <c r="O120" t="n">
-        <v>256.1018555054868</v>
+        <v>275.5362341720321</v>
       </c>
     </row>
     <row r="121">
@@ -4450,19 +4448,19 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>254.04</v>
+        <v>271.7474522320646</v>
       </c>
       <c r="O121" t="n">
-        <v>293.52</v>
+        <v>275.2474522320646</v>
       </c>
     </row>
     <row r="122">
@@ -4492,10 +4490,10 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>256.1018555054868</v>
+        <v>275.2474522320646</v>
       </c>
       <c r="O122" t="n">
-        <v>256.1018555054868</v>
+        <v>275.2474522320646</v>
       </c>
     </row>
     <row r="123">
@@ -4525,10 +4523,10 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>256.1018555054868</v>
+        <v>275.2474522320646</v>
       </c>
       <c r="O123" t="n">
-        <v>326.3618242809876</v>
+        <v>313.7002076840895</v>
       </c>
     </row>
     <row r="124">
@@ -4549,19 +4547,19 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>256.6471473408129</v>
+        <v>275.2623250623591</v>
       </c>
       <c r="O124" t="n">
-        <v>256.6471473408129</v>
+        <v>287.9904297542944</v>
       </c>
     </row>
     <row r="125">
@@ -4587,14 +4585,14 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>256.6471473408129</v>
+        <v>275.5362341720321</v>
       </c>
       <c r="O125" t="n">
-        <v>256.6471473408129</v>
+        <v>275.5362341720321</v>
       </c>
     </row>
     <row r="126">
@@ -4620,14 +4618,14 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>256.6471473408129</v>
+        <v>275.5362341720321</v>
       </c>
       <c r="O126" t="n">
-        <v>261.3543488691413</v>
+        <v>275.5362341720321</v>
       </c>
     </row>
     <row r="127">
@@ -4653,14 +4651,14 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>261.3543488691413</v>
+        <v>275.5362341720321</v>
       </c>
       <c r="O127" t="n">
-        <v>262.6471473408129</v>
+        <v>290.4436990883169</v>
       </c>
     </row>
     <row r="128">
@@ -4681,19 +4679,19 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>261.52</v>
+        <v>283.52</v>
       </c>
       <c r="O128" t="n">
-        <v>381.52</v>
+        <v>283.52</v>
       </c>
     </row>
     <row r="129">
@@ -4714,7 +4712,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -4723,10 +4721,10 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>262.6471473408129</v>
+        <v>283.52</v>
       </c>
       <c r="O129" t="n">
-        <v>262.6471473408129</v>
+        <v>283.52</v>
       </c>
     </row>
     <row r="130">
@@ -4747,7 +4745,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -4756,10 +4754,10 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>262.6471473408129</v>
+        <v>283.52</v>
       </c>
       <c r="O130" t="n">
-        <v>266.9469860601103</v>
+        <v>333.52</v>
       </c>
     </row>
     <row r="131">
@@ -4780,19 +4778,19 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>262.6471473408129</v>
+        <v>283.52</v>
       </c>
       <c r="O131" t="n">
-        <v>275.3752520327482</v>
+        <v>319.446639138165</v>
       </c>
     </row>
     <row r="132">
@@ -4813,7 +4811,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -4822,10 +4820,10 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>266.9469860601103</v>
+        <v>287.9904297542944</v>
       </c>
       <c r="O132" t="n">
-        <v>268.6471473408129</v>
+        <v>287.9904297542944</v>
       </c>
     </row>
     <row r="133">
@@ -4846,7 +4844,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -4855,10 +4853,10 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>268.6471473408129</v>
+        <v>287.9904297542944</v>
       </c>
       <c r="O133" t="n">
-        <v>342.9318242809876</v>
+        <v>287.9904297542944</v>
       </c>
     </row>
     <row r="134">
@@ -4884,14 +4882,14 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>275.3752520327482</v>
+        <v>287.9904297542944</v>
       </c>
       <c r="O134" t="n">
-        <v>275.3752520327482</v>
+        <v>300.7185344462297</v>
       </c>
     </row>
     <row r="135">
@@ -4912,19 +4910,19 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>275.3752520327482</v>
+        <v>290.4436990883169</v>
       </c>
       <c r="O135" t="n">
-        <v>275.3752520327482</v>
+        <v>290.4436990883169</v>
       </c>
     </row>
     <row r="136">
@@ -4945,19 +4943,19 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>275.3752520327482</v>
+        <v>290.4436990883169</v>
       </c>
       <c r="O136" t="n">
-        <v>288.1033567246835</v>
+        <v>290.4436990883169</v>
       </c>
     </row>
     <row r="137">
@@ -4978,19 +4976,19 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>288.1033567246835</v>
+        <v>290.4436990883169</v>
       </c>
       <c r="O137" t="n">
-        <v>288.1033567246835</v>
+        <v>294.0465012731295</v>
       </c>
     </row>
     <row r="138">
@@ -5011,19 +5009,19 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>288.1033567246835</v>
+        <v>294.0465012731295</v>
       </c>
       <c r="O138" t="n">
-        <v>288.1033567246835</v>
+        <v>296.4436990883169</v>
       </c>
     </row>
     <row r="139">
@@ -5044,19 +5042,19 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>288.1033567246835</v>
+        <v>296.4436990883169</v>
       </c>
       <c r="O139" t="n">
-        <v>300.8314614166188</v>
+        <v>296.4436990883169</v>
       </c>
     </row>
     <row r="140">
@@ -5077,19 +5075,19 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>293.52</v>
+        <v>296.4436990883169</v>
       </c>
       <c r="O140" t="n">
-        <v>293.52</v>
+        <v>308.2615427695991</v>
       </c>
     </row>
     <row r="141">
@@ -5110,19 +5108,19 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>293.52</v>
+        <v>300.7185344462297</v>
       </c>
       <c r="O141" t="n">
-        <v>293.52</v>
+        <v>300.7185344462297</v>
       </c>
     </row>
     <row r="142">
@@ -5143,19 +5141,19 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>293.52</v>
+        <v>300.7185344462297</v>
       </c>
       <c r="O142" t="n">
-        <v>313.52</v>
+        <v>300.7185344462297</v>
       </c>
     </row>
     <row r="143">
@@ -5176,19 +5174,19 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>293.52</v>
+        <v>300.7185344462297</v>
       </c>
       <c r="O143" t="n">
-        <v>293.52</v>
+        <v>313.446639138165</v>
       </c>
     </row>
     <row r="144">
@@ -5209,7 +5207,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -5218,10 +5216,10 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>293.52</v>
+        <v>301.52</v>
       </c>
       <c r="O144" t="n">
-        <v>304.04</v>
+        <v>307.7002076840895</v>
       </c>
     </row>
     <row r="145">
@@ -5242,7 +5240,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -5251,10 +5249,10 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>300.8314614166188</v>
+        <v>307.7002076840895</v>
       </c>
       <c r="O145" t="n">
-        <v>300.8314614166188</v>
+        <v>307.7002076840895</v>
       </c>
     </row>
     <row r="146">
@@ -5275,7 +5273,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -5284,10 +5282,10 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>300.8314614166188</v>
+        <v>307.7002076840895</v>
       </c>
       <c r="O146" t="n">
-        <v>354.4140537622065</v>
+        <v>351.52</v>
       </c>
     </row>
     <row r="147">
@@ -5308,7 +5306,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -5317,10 +5315,10 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>304.04</v>
+        <v>308.2615427695991</v>
       </c>
       <c r="O147" t="n">
-        <v>313.52</v>
+        <v>308.2615427695991</v>
       </c>
     </row>
     <row r="148">
@@ -5341,19 +5339,19 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>311.52</v>
+        <v>308.2615427695991</v>
       </c>
       <c r="O148" t="n">
-        <v>320.3618242809876</v>
+        <v>330.2702076840895</v>
       </c>
     </row>
     <row r="149">
@@ -5374,7 +5372,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -5383,10 +5381,10 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>313.52</v>
+        <v>313.446639138165</v>
       </c>
       <c r="O149" t="n">
-        <v>313.52</v>
+        <v>313.446639138165</v>
       </c>
     </row>
     <row r="150">
@@ -5407,7 +5405,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -5416,10 +5414,10 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>313.52</v>
+        <v>313.446639138165</v>
       </c>
       <c r="O150" t="n">
-        <v>313.52</v>
+        <v>313.446639138165</v>
       </c>
     </row>
     <row r="151">
@@ -5440,7 +5438,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -5449,10 +5447,10 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>313.52</v>
+        <v>313.446639138165</v>
       </c>
       <c r="O151" t="n">
-        <v>353.52</v>
+        <v>326.1747438301003</v>
       </c>
     </row>
     <row r="152">
@@ -5473,19 +5471,19 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>313.52</v>
+        <v>313.7002076840895</v>
       </c>
       <c r="O152" t="n">
-        <v>313.52</v>
+        <v>324.2702076840895</v>
       </c>
     </row>
     <row r="153">
@@ -5515,10 +5513,10 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>313.52</v>
+        <v>319.446639138165</v>
       </c>
       <c r="O153" t="n">
-        <v>324.04</v>
+        <v>329.966639138165</v>
       </c>
     </row>
     <row r="154">
@@ -5539,7 +5537,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -5548,10 +5546,10 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>320.3618242809876</v>
+        <v>324.2702076840895</v>
       </c>
       <c r="O154" t="n">
-        <v>320.3618242809876</v>
+        <v>324.2702076840895</v>
       </c>
     </row>
     <row r="155">
@@ -5572,7 +5570,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -5581,10 +5579,10 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>320.3618242809876</v>
+        <v>324.2702076840895</v>
       </c>
       <c r="O155" t="n">
-        <v>331.52</v>
+        <v>363.6649200779872</v>
       </c>
     </row>
     <row r="156">
@@ -5605,7 +5603,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -5614,10 +5612,10 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>324.04</v>
+        <v>326.1747438301003</v>
       </c>
       <c r="O156" t="n">
-        <v>353.52</v>
+        <v>326.1747438301003</v>
       </c>
     </row>
     <row r="157">
@@ -5638,19 +5636,19 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>326.3618242809876</v>
+        <v>326.1747438301003</v>
       </c>
       <c r="O157" t="n">
-        <v>336.9318242809876</v>
+        <v>326.1747438301003</v>
       </c>
     </row>
     <row r="158">
@@ -5671,7 +5669,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -5680,10 +5678,10 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>331.52</v>
+        <v>326.1747438301003</v>
       </c>
       <c r="O158" t="n">
-        <v>345.5666881226223</v>
+        <v>338.9028485220356</v>
       </c>
     </row>
     <row r="159">
@@ -5704,7 +5702,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -5713,10 +5711,10 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>336.9318242809876</v>
+        <v>329.966639138165</v>
       </c>
       <c r="O159" t="n">
-        <v>336.9318242809876</v>
+        <v>333.52</v>
       </c>
     </row>
     <row r="160">
@@ -5737,19 +5735,19 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>336.9318242809876</v>
+        <v>330.2702076840895</v>
       </c>
       <c r="O160" t="n">
-        <v>351.5666881226223</v>
+        <v>338.4012458164355</v>
       </c>
     </row>
     <row r="161">
@@ -5770,19 +5768,19 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>342.9318242809876</v>
+        <v>333.52</v>
       </c>
       <c r="O161" t="n">
-        <v>348.4140537622065</v>
+        <v>333.52</v>
       </c>
     </row>
     <row r="162">
@@ -5803,19 +5801,19 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>345.5666881226223</v>
+        <v>333.52</v>
       </c>
       <c r="O162" t="n">
-        <v>345.5666881226223</v>
+        <v>333.52</v>
       </c>
     </row>
     <row r="163">
@@ -5836,19 +5834,19 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>345.5666881226223</v>
+        <v>333.52</v>
       </c>
       <c r="O163" t="n">
-        <v>391.52</v>
+        <v>353.52</v>
       </c>
     </row>
     <row r="164">
@@ -5869,19 +5867,19 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>348.4140537622065</v>
+        <v>333.52</v>
       </c>
       <c r="O164" t="n">
-        <v>348.4140537622065</v>
+        <v>344.9028485220356</v>
       </c>
     </row>
     <row r="165">
@@ -5907,14 +5905,14 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>348.4140537622065</v>
+        <v>338.4012458164355</v>
       </c>
       <c r="O165" t="n">
-        <v>368.1366881226223</v>
+        <v>338.4012458164355</v>
       </c>
     </row>
     <row r="166">
@@ -5935,19 +5933,19 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>351.5666881226223</v>
+        <v>338.4012458164355</v>
       </c>
       <c r="O166" t="n">
-        <v>362.1366881226223</v>
+        <v>380.2349200779872</v>
       </c>
     </row>
     <row r="167">
@@ -5968,7 +5966,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -5977,10 +5975,10 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>353.52</v>
+        <v>338.9028485220356</v>
       </c>
       <c r="O167" t="n">
-        <v>353.52</v>
+        <v>338.9028485220356</v>
       </c>
     </row>
     <row r="168">
@@ -6001,7 +5999,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -6010,10 +6008,10 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>353.52</v>
+        <v>338.9028485220356</v>
       </c>
       <c r="O168" t="n">
-        <v>353.52</v>
+        <v>344.4012458164355</v>
       </c>
     </row>
     <row r="169">
@@ -6034,7 +6032,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -6043,10 +6041,10 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>353.52</v>
+        <v>344.4012458164355</v>
       </c>
       <c r="O169" t="n">
-        <v>373.52</v>
+        <v>357.1293505083708</v>
       </c>
     </row>
     <row r="170">
@@ -6072,14 +6070,14 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>353.52</v>
+        <v>344.9028485220356</v>
       </c>
       <c r="O170" t="n">
-        <v>353.52</v>
+        <v>355.4228485220356</v>
       </c>
     </row>
     <row r="171">
@@ -6100,7 +6098,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -6109,10 +6107,10 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>353.52</v>
+        <v>351.52</v>
       </c>
       <c r="O171" t="n">
-        <v>364.04</v>
+        <v>357.6649200779872</v>
       </c>
     </row>
     <row r="172">
@@ -6133,19 +6131,19 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>354.4140537622065</v>
+        <v>353.52</v>
       </c>
       <c r="O172" t="n">
-        <v>367.1421584541418</v>
+        <v>353.52</v>
       </c>
     </row>
     <row r="173">
@@ -6166,19 +6164,19 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>362.1366881226223</v>
+        <v>353.52</v>
       </c>
       <c r="O173" t="n">
-        <v>362.1366881226223</v>
+        <v>353.52</v>
       </c>
     </row>
     <row r="174">
@@ -6199,19 +6197,19 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>362.1366881226223</v>
+        <v>353.52</v>
       </c>
       <c r="O174" t="n">
-        <v>406.573249700271</v>
+        <v>403.52</v>
       </c>
     </row>
     <row r="175">
@@ -6241,10 +6239,10 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>364.04</v>
+        <v>355.4228485220356</v>
       </c>
       <c r="O175" t="n">
-        <v>373.52</v>
+        <v>355.4228485220356</v>
       </c>
     </row>
     <row r="176">
@@ -6265,19 +6263,19 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>367.1421584541418</v>
+        <v>355.4228485220356</v>
       </c>
       <c r="O176" t="n">
-        <v>367.1421584541418</v>
+        <v>411.9212124491843</v>
       </c>
     </row>
     <row r="177">
@@ -6303,14 +6301,14 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>367.1421584541418</v>
+        <v>357.1293505083708</v>
       </c>
       <c r="O177" t="n">
-        <v>388.4925080981465</v>
+        <v>357.1293505083708</v>
       </c>
     </row>
     <row r="178">
@@ -6331,19 +6329,19 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>368.1366881226223</v>
+        <v>357.1293505083708</v>
       </c>
       <c r="O178" t="n">
-        <v>382.4925080981465</v>
+        <v>393.193107757249</v>
       </c>
     </row>
     <row r="179">
@@ -6364,7 +6362,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -6373,10 +6371,10 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>373.52</v>
+        <v>357.6649200779872</v>
       </c>
       <c r="O179" t="n">
-        <v>373.52</v>
+        <v>357.6649200779872</v>
       </c>
     </row>
     <row r="180">
@@ -6397,7 +6395,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -6406,10 +6404,10 @@
         </is>
       </c>
       <c r="N180" t="n">
-        <v>373.52</v>
+        <v>357.6649200779872</v>
       </c>
       <c r="O180" t="n">
-        <v>373.52</v>
+        <v>371.52</v>
       </c>
     </row>
     <row r="181">
@@ -6430,7 +6428,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -6439,10 +6437,10 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>373.52</v>
+        <v>363.6649200779872</v>
       </c>
       <c r="O181" t="n">
-        <v>393.52</v>
+        <v>374.2349200779872</v>
       </c>
     </row>
     <row r="182">
@@ -6463,19 +6461,19 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>373.52</v>
+        <v>371.52</v>
       </c>
       <c r="O182" t="n">
-        <v>373.52</v>
+        <v>381.8472015955837</v>
       </c>
     </row>
     <row r="183">
@@ -6496,19 +6494,19 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>373.52</v>
+        <v>374.2349200779872</v>
       </c>
       <c r="O183" t="n">
-        <v>384.04</v>
+        <v>374.2349200779872</v>
       </c>
     </row>
     <row r="184">
@@ -6529,19 +6527,19 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>381.52</v>
+        <v>374.2349200779872</v>
       </c>
       <c r="O184" t="n">
-        <v>381.52</v>
+        <v>387.8472015955837</v>
       </c>
     </row>
     <row r="185">
@@ -6562,19 +6560,19 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>381.52</v>
+        <v>380.2349200779872</v>
       </c>
       <c r="O185" t="n">
-        <v>381.52</v>
+        <v>387.193107757249</v>
       </c>
     </row>
     <row r="186">
@@ -6595,19 +6593,19 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>381.52</v>
+        <v>381.8472015955837</v>
       </c>
       <c r="O186" t="n">
-        <v>489.52</v>
+        <v>381.8472015955837</v>
       </c>
     </row>
     <row r="187">
@@ -6628,19 +6626,19 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>382.4925080981465</v>
+        <v>381.8472015955837</v>
       </c>
       <c r="O187" t="n">
-        <v>382.4925080981465</v>
+        <v>421.52</v>
       </c>
     </row>
     <row r="188">
@@ -6666,14 +6664,14 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>382.4925080981465</v>
+        <v>387.193107757249</v>
       </c>
       <c r="O188" t="n">
-        <v>423.143249700271</v>
+        <v>387.193107757249</v>
       </c>
     </row>
     <row r="189">
@@ -6694,19 +6692,19 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>384.04</v>
+        <v>387.193107757249</v>
       </c>
       <c r="O189" t="n">
-        <v>393.52</v>
+        <v>404.4172015955837</v>
       </c>
     </row>
     <row r="190">
@@ -6727,7 +6725,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -6736,10 +6734,10 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>388.4925080981465</v>
+        <v>387.8472015955837</v>
       </c>
       <c r="O190" t="n">
-        <v>401.2206127900818</v>
+        <v>398.4172015955837</v>
       </c>
     </row>
     <row r="191">
@@ -6760,7 +6758,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -6769,10 +6767,10 @@
         </is>
       </c>
       <c r="N191" t="n">
-        <v>391.52</v>
+        <v>393.193107757249</v>
       </c>
       <c r="O191" t="n">
-        <v>400.573249700271</v>
+        <v>405.9212124491843</v>
       </c>
     </row>
     <row r="192">
@@ -6793,7 +6791,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -6802,10 +6800,10 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>393.52</v>
+        <v>398.4172015955837</v>
       </c>
       <c r="O192" t="n">
-        <v>393.52</v>
+        <v>398.4172015955837</v>
       </c>
     </row>
     <row r="193">
@@ -6826,7 +6824,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -6835,10 +6833,10 @@
         </is>
       </c>
       <c r="N193" t="n">
-        <v>393.52</v>
+        <v>398.4172015955837</v>
       </c>
       <c r="O193" t="n">
-        <v>393.52</v>
+        <v>437.0875776502519</v>
       </c>
     </row>
     <row r="194">
@@ -6864,14 +6862,14 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>393.52</v>
+        <v>403.52</v>
       </c>
       <c r="O194" t="n">
-        <v>433.52</v>
+        <v>403.52</v>
       </c>
     </row>
     <row r="195">
@@ -6892,7 +6890,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -6901,10 +6899,10 @@
         </is>
       </c>
       <c r="N195" t="n">
-        <v>393.52</v>
+        <v>403.52</v>
       </c>
       <c r="O195" t="n">
-        <v>393.52</v>
+        <v>403.52</v>
       </c>
     </row>
     <row r="196">
@@ -6925,7 +6923,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -6934,10 +6932,10 @@
         </is>
       </c>
       <c r="N196" t="n">
-        <v>393.52</v>
+        <v>403.52</v>
       </c>
       <c r="O196" t="n">
-        <v>404.04</v>
+        <v>443.52</v>
       </c>
     </row>
     <row r="197">
@@ -6958,19 +6956,19 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>400.573249700271</v>
+        <v>404.4172015955837</v>
       </c>
       <c r="O197" t="n">
-        <v>400.573249700271</v>
+        <v>411.5218677296864</v>
       </c>
     </row>
     <row r="198">
@@ -6991,19 +6989,19 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>400.573249700271</v>
+        <v>405.9212124491843</v>
       </c>
       <c r="O198" t="n">
-        <v>400.573249700271</v>
+        <v>405.9212124491843</v>
       </c>
     </row>
     <row r="199">
@@ -7024,19 +7022,19 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>400.573249700271</v>
+        <v>405.9212124491843</v>
       </c>
       <c r="O199" t="n">
-        <v>404.6004702457166</v>
+        <v>417.5218677296864</v>
       </c>
     </row>
     <row r="200">
@@ -7057,7 +7055,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -7066,10 +7064,10 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>401.2206127900818</v>
+        <v>411.5218677296864</v>
       </c>
       <c r="O200" t="n">
-        <v>401.2206127900818</v>
+        <v>411.5218677296864</v>
       </c>
     </row>
     <row r="201">
@@ -7090,7 +7088,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -7099,10 +7097,10 @@
         </is>
       </c>
       <c r="N201" t="n">
-        <v>401.2206127900818</v>
+        <v>411.5218677296864</v>
       </c>
       <c r="O201" t="n">
-        <v>434.2652486837995</v>
+        <v>453.6575776502519</v>
       </c>
     </row>
     <row r="202">
@@ -7128,14 +7126,14 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>404.04</v>
+        <v>411.9212124491843</v>
       </c>
       <c r="O202" t="n">
-        <v>433.52</v>
+        <v>422.4412124491843</v>
       </c>
     </row>
     <row r="203">
@@ -7156,19 +7154,19 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>404.6004702457166</v>
+        <v>417.5218677296864</v>
       </c>
       <c r="O203" t="n">
-        <v>406.573249700271</v>
+        <v>430.2499724216217</v>
       </c>
     </row>
     <row r="204">
@@ -7194,14 +7192,14 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>406.573249700271</v>
+        <v>421.52</v>
       </c>
       <c r="O204" t="n">
-        <v>411.52</v>
+        <v>431.0875776502519</v>
       </c>
     </row>
     <row r="205">
@@ -7222,19 +7220,19 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>406.573249700271</v>
+        <v>422.4412124491843</v>
       </c>
       <c r="O205" t="n">
-        <v>417.143249700271</v>
+        <v>422.4412124491843</v>
       </c>
     </row>
     <row r="206">
@@ -7255,19 +7253,19 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>411.52</v>
+        <v>422.4412124491843</v>
       </c>
       <c r="O206" t="n">
-        <v>417.5379621427975</v>
+        <v>436.2499724216217</v>
       </c>
     </row>
     <row r="207">
@@ -7288,7 +7286,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -7297,10 +7295,10 @@
         </is>
       </c>
       <c r="N207" t="n">
-        <v>417.143249700271</v>
+        <v>430.2499724216217</v>
       </c>
       <c r="O207" t="n">
-        <v>417.143249700271</v>
+        <v>430.2499724216217</v>
       </c>
     </row>
     <row r="208">
@@ -7321,7 +7319,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -7330,10 +7328,10 @@
         </is>
       </c>
       <c r="N208" t="n">
-        <v>417.143249700271</v>
+        <v>430.2499724216217</v>
       </c>
       <c r="O208" t="n">
-        <v>417.143249700271</v>
+        <v>470.4211292917661</v>
       </c>
     </row>
     <row r="209">
@@ -7354,19 +7352,19 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>417.143249700271</v>
+        <v>431.0875776502519</v>
       </c>
       <c r="O209" t="n">
-        <v>427.713249700271</v>
+        <v>431.0875776502519</v>
       </c>
     </row>
     <row r="210">
@@ -7392,14 +7390,14 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N210" t="n">
-        <v>417.5379621427975</v>
+        <v>431.0875776502519</v>
       </c>
       <c r="O210" t="n">
-        <v>417.5379621427975</v>
+        <v>461.52</v>
       </c>
     </row>
     <row r="211">
@@ -7420,19 +7418,19 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N211" t="n">
-        <v>417.5379621427975</v>
+        <v>436.2499724216217</v>
       </c>
       <c r="O211" t="n">
-        <v>451.52</v>
+        <v>446.7699724216217</v>
       </c>
     </row>
     <row r="212">
@@ -7453,7 +7451,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -7462,10 +7460,10 @@
         </is>
       </c>
       <c r="N212" t="n">
-        <v>423.143249700271</v>
+        <v>437.0875776502519</v>
       </c>
       <c r="O212" t="n">
-        <v>428.2652486837995</v>
+        <v>447.6575776502519</v>
       </c>
     </row>
     <row r="213">
@@ -7486,7 +7484,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -7495,10 +7493,10 @@
         </is>
       </c>
       <c r="N213" t="n">
-        <v>427.713249700271</v>
+        <v>443.52</v>
       </c>
       <c r="O213" t="n">
-        <v>427.713249700271</v>
+        <v>443.52</v>
       </c>
     </row>
     <row r="214">
@@ -7519,7 +7517,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -7528,10 +7526,10 @@
         </is>
       </c>
       <c r="N214" t="n">
-        <v>427.713249700271</v>
+        <v>443.52</v>
       </c>
       <c r="O214" t="n">
-        <v>427.713249700271</v>
+        <v>443.52</v>
       </c>
     </row>
     <row r="215">
@@ -7552,7 +7550,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -7561,10 +7559,10 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>427.713249700271</v>
+        <v>443.52</v>
       </c>
       <c r="O215" t="n">
-        <v>438.283249700271</v>
+        <v>483.52</v>
       </c>
     </row>
     <row r="216">
@@ -7585,7 +7583,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -7594,10 +7592,10 @@
         </is>
       </c>
       <c r="N216" t="n">
-        <v>428.2652486837995</v>
+        <v>446.7699724216217</v>
       </c>
       <c r="O216" t="n">
-        <v>428.2652486837995</v>
+        <v>446.7699724216217</v>
       </c>
     </row>
     <row r="217">
@@ -7618,7 +7616,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -7627,10 +7625,10 @@
         </is>
       </c>
       <c r="N217" t="n">
-        <v>428.2652486837995</v>
+        <v>446.7699724216217</v>
       </c>
       <c r="O217" t="n">
-        <v>433.713249700271</v>
+        <v>489.1492339837014</v>
       </c>
     </row>
     <row r="218">
@@ -7651,7 +7649,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -7660,10 +7658,10 @@
         </is>
       </c>
       <c r="N218" t="n">
-        <v>433.52</v>
+        <v>447.6575776502519</v>
       </c>
       <c r="O218" t="n">
-        <v>433.52</v>
+        <v>447.6575776502519</v>
       </c>
     </row>
     <row r="219">
@@ -7684,7 +7682,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -7693,10 +7691,10 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>433.52</v>
+        <v>447.6575776502519</v>
       </c>
       <c r="O219" t="n">
-        <v>433.52</v>
+        <v>472.2405271161991</v>
       </c>
     </row>
     <row r="220">
@@ -7717,7 +7715,7 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -7726,10 +7724,10 @@
         </is>
       </c>
       <c r="N220" t="n">
-        <v>433.52</v>
+        <v>453.6575776502519</v>
       </c>
       <c r="O220" t="n">
-        <v>473.52</v>
+        <v>464.4211292917661</v>
       </c>
     </row>
     <row r="221">
@@ -7750,19 +7748,19 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>433.52</v>
+        <v>461.52</v>
       </c>
       <c r="O221" t="n">
-        <v>433.52</v>
+        <v>466.2405271161991</v>
       </c>
     </row>
     <row r="222">
@@ -7783,19 +7781,19 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>433.52</v>
+        <v>464.4211292917661</v>
       </c>
       <c r="O222" t="n">
-        <v>444.04</v>
+        <v>464.4211292917661</v>
       </c>
     </row>
     <row r="223">
@@ -7821,14 +7819,14 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>433.713249700271</v>
+        <v>464.4211292917661</v>
       </c>
       <c r="O223" t="n">
-        <v>441.2986928133453</v>
+        <v>488.8105271161991</v>
       </c>
     </row>
     <row r="224">
@@ -7849,19 +7847,19 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>434.2652486837995</v>
+        <v>466.2405271161991</v>
       </c>
       <c r="O224" t="n">
-        <v>446.9933533757348</v>
+        <v>466.2405271161991</v>
       </c>
     </row>
     <row r="225">
@@ -7882,19 +7880,19 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N225" t="n">
-        <v>438.283249700271</v>
+        <v>466.2405271161991</v>
       </c>
       <c r="O225" t="n">
-        <v>438.283249700271</v>
+        <v>501.52</v>
       </c>
     </row>
     <row r="226">
@@ -7915,19 +7913,19 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>438.283249700271</v>
+        <v>470.4211292917661</v>
       </c>
       <c r="O226" t="n">
-        <v>466.1106888274484</v>
+        <v>483.1492339837014</v>
       </c>
     </row>
     <row r="227">
@@ -7948,19 +7946,19 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>441.2986928133453</v>
+        <v>472.2405271161991</v>
       </c>
       <c r="O227" t="n">
-        <v>441.2986928133453</v>
+        <v>482.8105271161991</v>
       </c>
     </row>
     <row r="228">
@@ -7981,19 +7979,19 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>441.2986928133453</v>
+        <v>482.8105271161991</v>
       </c>
       <c r="O228" t="n">
-        <v>444.283249700271</v>
+        <v>482.8105271161991</v>
       </c>
     </row>
     <row r="229">
@@ -8014,19 +8012,19 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N229" t="n">
-        <v>444.04</v>
+        <v>482.8105271161991</v>
       </c>
       <c r="O229" t="n">
-        <v>473.52</v>
+        <v>514.1189964642023</v>
       </c>
     </row>
     <row r="230">
@@ -8047,19 +8045,19 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>444.283249700271</v>
+        <v>483.1492339837014</v>
       </c>
       <c r="O230" t="n">
-        <v>448.8718536260009</v>
+        <v>483.1492339837014</v>
       </c>
     </row>
     <row r="231">
@@ -8085,14 +8083,14 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>446.9933533757348</v>
+        <v>483.1492339837014</v>
       </c>
       <c r="O231" t="n">
-        <v>446.9933533757348</v>
+        <v>500.9540123487355</v>
       </c>
     </row>
     <row r="232">
@@ -8113,19 +8111,19 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>446.9933533757348</v>
+        <v>483.52</v>
       </c>
       <c r="O232" t="n">
-        <v>447.2986928133453</v>
+        <v>483.52</v>
       </c>
     </row>
     <row r="233">
@@ -8146,19 +8144,19 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>447.2986928133453</v>
+        <v>483.52</v>
       </c>
       <c r="O233" t="n">
-        <v>460.0267975052806</v>
+        <v>483.52</v>
       </c>
     </row>
     <row r="234">
@@ -8179,19 +8177,19 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N234" t="n">
-        <v>448.8718536260009</v>
+        <v>483.52</v>
       </c>
       <c r="O234" t="n">
-        <v>448.8718536260009</v>
+        <v>523.52</v>
       </c>
     </row>
     <row r="235">
@@ -8217,14 +8215,14 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N235" t="n">
-        <v>448.8718536260009</v>
+        <v>488.8105271161991</v>
       </c>
       <c r="O235" t="n">
-        <v>482.6806888274484</v>
+        <v>494.9540123487355</v>
       </c>
     </row>
     <row r="236">
@@ -8245,7 +8243,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -8254,10 +8252,10 @@
         </is>
       </c>
       <c r="N236" t="n">
-        <v>451.52</v>
+        <v>489.1492339837014</v>
       </c>
       <c r="O236" t="n">
-        <v>460.1106888274484</v>
+        <v>499.6692339837014</v>
       </c>
     </row>
     <row r="237">
@@ -8278,7 +8276,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -8287,10 +8285,10 @@
         </is>
       </c>
       <c r="N237" t="n">
-        <v>460.0267975052806</v>
+        <v>494.9540123487355</v>
       </c>
       <c r="O237" t="n">
-        <v>460.0267975052806</v>
+        <v>494.9540123487355</v>
       </c>
     </row>
     <row r="238">
@@ -8311,7 +8309,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -8320,10 +8318,10 @@
         </is>
       </c>
       <c r="N238" t="n">
-        <v>460.0267975052806</v>
+        <v>494.9540123487355</v>
       </c>
       <c r="O238" t="n">
-        <v>460.0267975052806</v>
+        <v>530.6889964642023</v>
       </c>
     </row>
     <row r="239">
@@ -8344,19 +8342,19 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N239" t="n">
-        <v>460.0267975052806</v>
+        <v>499.6692339837014</v>
       </c>
       <c r="O239" t="n">
-        <v>472.7549021972159</v>
+        <v>499.6692339837014</v>
       </c>
     </row>
     <row r="240">
@@ -8377,19 +8375,19 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>460.1106888274484</v>
+        <v>499.6692339837014</v>
       </c>
       <c r="O240" t="n">
-        <v>460.1106888274484</v>
+        <v>519.6821170406708</v>
       </c>
     </row>
     <row r="241">
@@ -8410,19 +8408,19 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>460.1106888274484</v>
+        <v>500.9540123487355</v>
       </c>
       <c r="O241" t="n">
-        <v>491.52</v>
+        <v>513.6821170406708</v>
       </c>
     </row>
     <row r="242">
@@ -8443,7 +8441,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -8452,10 +8450,10 @@
         </is>
       </c>
       <c r="N242" t="n">
-        <v>466.1106888274484</v>
+        <v>501.52</v>
       </c>
       <c r="O242" t="n">
-        <v>476.6806888274484</v>
+        <v>508.1189964642023</v>
       </c>
     </row>
     <row r="243">
@@ -8476,7 +8474,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -8485,10 +8483,10 @@
         </is>
       </c>
       <c r="N243" t="n">
-        <v>472.7549021972159</v>
+        <v>508.1189964642023</v>
       </c>
       <c r="O243" t="n">
-        <v>472.7549021972159</v>
+        <v>508.1189964642023</v>
       </c>
     </row>
     <row r="244">
@@ -8509,7 +8507,7 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
@@ -8518,10 +8516,10 @@
         </is>
       </c>
       <c r="N244" t="n">
-        <v>472.7549021972159</v>
+        <v>508.1189964642023</v>
       </c>
       <c r="O244" t="n">
-        <v>493.8285174088891</v>
+        <v>541.52</v>
       </c>
     </row>
     <row r="245">
@@ -8542,7 +8540,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
@@ -8551,10 +8549,10 @@
         </is>
       </c>
       <c r="N245" t="n">
-        <v>473.52</v>
+        <v>513.6821170406708</v>
       </c>
       <c r="O245" t="n">
-        <v>473.52</v>
+        <v>513.6821170406708</v>
       </c>
     </row>
     <row r="246">
@@ -8575,7 +8573,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
@@ -8584,10 +8582,10 @@
         </is>
       </c>
       <c r="N246" t="n">
-        <v>473.52</v>
+        <v>513.6821170406708</v>
       </c>
       <c r="O246" t="n">
-        <v>473.52</v>
+        <v>554.4520651779659</v>
       </c>
     </row>
     <row r="247">
@@ -8608,7 +8606,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
@@ -8617,10 +8615,10 @@
         </is>
       </c>
       <c r="N247" t="n">
-        <v>473.52</v>
+        <v>514.1189964642023</v>
       </c>
       <c r="O247" t="n">
-        <v>513.52</v>
+        <v>524.6889964642023</v>
       </c>
     </row>
     <row r="248">
@@ -8646,14 +8644,14 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>473.52</v>
+        <v>519.6821170406708</v>
       </c>
       <c r="O248" t="n">
-        <v>473.52</v>
+        <v>530.2021170406708</v>
       </c>
     </row>
     <row r="249">
@@ -8674,19 +8672,19 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>473.52</v>
+        <v>523.52</v>
       </c>
       <c r="O249" t="n">
-        <v>484.04</v>
+        <v>523.52</v>
       </c>
     </row>
     <row r="250">
@@ -8707,19 +8705,19 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>476.6806888274484</v>
+        <v>523.52</v>
       </c>
       <c r="O250" t="n">
-        <v>476.6806888274484</v>
+        <v>523.52</v>
       </c>
     </row>
     <row r="251">
@@ -8740,19 +8738,19 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N251" t="n">
-        <v>476.6806888274484</v>
+        <v>523.52</v>
       </c>
       <c r="O251" t="n">
-        <v>504.7102852274671</v>
+        <v>543.52</v>
       </c>
     </row>
     <row r="252">
@@ -8773,19 +8771,19 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N252" t="n">
-        <v>482.6806888274484</v>
+        <v>524.6889964642023</v>
       </c>
       <c r="O252" t="n">
-        <v>487.8285174088891</v>
+        <v>524.6889964642023</v>
       </c>
     </row>
     <row r="253">
@@ -8806,19 +8804,19 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N253" t="n">
-        <v>484.04</v>
+        <v>524.6889964642023</v>
       </c>
       <c r="O253" t="n">
-        <v>513.52</v>
+        <v>560.6644962709291</v>
       </c>
     </row>
     <row r="254">
@@ -8839,7 +8837,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -8848,10 +8846,10 @@
         </is>
       </c>
       <c r="N254" t="n">
-        <v>487.8285174088891</v>
+        <v>530.2021170406708</v>
       </c>
       <c r="O254" t="n">
-        <v>487.8285174088891</v>
+        <v>530.2021170406708</v>
       </c>
     </row>
     <row r="255">
@@ -8872,7 +8870,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -8881,10 +8879,10 @@
         </is>
       </c>
       <c r="N255" t="n">
-        <v>487.8285174088891</v>
+        <v>530.2021170406708</v>
       </c>
       <c r="O255" t="n">
-        <v>521.2802852274671</v>
+        <v>573.1801698699012</v>
       </c>
     </row>
     <row r="256">
@@ -8905,19 +8903,19 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>489.52</v>
+        <v>530.6889964642023</v>
       </c>
       <c r="O256" t="n">
-        <v>489.52</v>
+        <v>548.4520651779659</v>
       </c>
     </row>
     <row r="257">
@@ -8938,18 +8936,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>489.52</v>
-      </c>
-      <c r="O257" t="inlineStr"/>
+        <v>541.52</v>
+      </c>
+      <c r="O257" t="n">
+        <v>554.6644962709291</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8969,19 +8969,19 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>491.52</v>
+        <v>543.52</v>
       </c>
       <c r="O258" t="n">
-        <v>498.7102852274671</v>
+        <v>543.52</v>
       </c>
     </row>
     <row r="259">
@@ -9002,19 +9002,19 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>493.8285174088891</v>
+        <v>543.52</v>
       </c>
       <c r="O259" t="n">
-        <v>506.5566221008244</v>
+        <v>543.52</v>
       </c>
     </row>
     <row r="260">
@@ -9035,19 +9035,19 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>498.7102852274671</v>
+        <v>543.52</v>
       </c>
       <c r="O260" t="n">
-        <v>498.7102852274671</v>
+        <v>583.52</v>
       </c>
     </row>
     <row r="261">
@@ -9068,19 +9068,19 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N261" t="n">
-        <v>498.7102852274671</v>
+        <v>548.4520651779659</v>
       </c>
       <c r="O261" t="n">
-        <v>501.52</v>
+        <v>548.4520651779659</v>
       </c>
     </row>
     <row r="262">
@@ -9101,19 +9101,19 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N262" t="n">
-        <v>501.52</v>
+        <v>548.4520651779659</v>
       </c>
       <c r="O262" t="n">
-        <v>514.7036891418156</v>
+        <v>577.2344962709292</v>
       </c>
     </row>
     <row r="263">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -9143,10 +9143,10 @@
         </is>
       </c>
       <c r="N263" t="n">
-        <v>504.7102852274671</v>
+        <v>554.4520651779659</v>
       </c>
       <c r="O263" t="n">
-        <v>515.2802852274671</v>
+        <v>567.1801698699012</v>
       </c>
     </row>
     <row r="264">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -9176,10 +9176,10 @@
         </is>
       </c>
       <c r="N264" t="n">
-        <v>506.5566221008244</v>
+        <v>554.6644962709291</v>
       </c>
       <c r="O264" t="n">
-        <v>506.5566221008244</v>
+        <v>554.6644962709291</v>
       </c>
     </row>
     <row r="265">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -9209,10 +9209,10 @@
         </is>
       </c>
       <c r="N265" t="n">
-        <v>506.5566221008244</v>
+        <v>554.6644962709291</v>
       </c>
       <c r="O265" t="n">
-        <v>531.6507407637022</v>
+        <v>561.52</v>
       </c>
     </row>
     <row r="266">
@@ -9233,19 +9233,19 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>513.52</v>
+        <v>560.6644962709291</v>
       </c>
       <c r="O266" t="n">
-        <v>513.52</v>
+        <v>571.2344962709292</v>
       </c>
     </row>
     <row r="267">
@@ -9266,19 +9266,19 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N267" t="n">
-        <v>513.52</v>
+        <v>561.52</v>
       </c>
       <c r="O267" t="n">
-        <v>513.52</v>
+        <v>569.4699150104051</v>
       </c>
     </row>
     <row r="268">
@@ -9299,19 +9299,19 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N268" t="n">
-        <v>513.52</v>
+        <v>567.1801698699012</v>
       </c>
       <c r="O268" t="n">
-        <v>533.52</v>
+        <v>567.1801698699012</v>
       </c>
     </row>
     <row r="269">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -9341,10 +9341,10 @@
         </is>
       </c>
       <c r="N269" t="n">
-        <v>513.52</v>
+        <v>567.1801698699012</v>
       </c>
       <c r="O269" t="n">
-        <v>513.52</v>
+        <v>588.6061380112081</v>
       </c>
     </row>
     <row r="270">
@@ -9365,19 +9365,19 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N270" t="n">
-        <v>513.52</v>
+        <v>569.4699150104051</v>
       </c>
       <c r="O270" t="n">
-        <v>524.04</v>
+        <v>569.4699150104051</v>
       </c>
     </row>
     <row r="271">
@@ -9403,14 +9403,14 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N271" t="n">
-        <v>514.7036891418156</v>
+        <v>569.4699150104051</v>
       </c>
       <c r="O271" t="n">
-        <v>514.7036891418156</v>
+        <v>601.52</v>
       </c>
     </row>
     <row r="272">
@@ -9431,19 +9431,19 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>514.7036891418156</v>
+        <v>571.2344962709292</v>
       </c>
       <c r="O272" t="n">
-        <v>531.52</v>
+        <v>571.2344962709292</v>
       </c>
     </row>
     <row r="273">
@@ -9469,14 +9469,14 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>515.2802852274671</v>
+        <v>571.2344962709292</v>
       </c>
       <c r="O273" t="n">
-        <v>515.2802852274671</v>
+        <v>575.4699150104051</v>
       </c>
     </row>
     <row r="274">
@@ -9497,19 +9497,19 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>515.2802852274671</v>
+        <v>573.1801698699012</v>
       </c>
       <c r="O274" t="n">
-        <v>520.7036891418156</v>
+        <v>583.7001698699012</v>
       </c>
     </row>
     <row r="275">
@@ -9539,10 +9539,10 @@
         </is>
       </c>
       <c r="N275" t="n">
-        <v>520.7036891418156</v>
+        <v>575.4699150104051</v>
       </c>
       <c r="O275" t="n">
-        <v>524.2036891418156</v>
+        <v>586.0399150104051</v>
       </c>
     </row>
     <row r="276">
@@ -9572,10 +9572,10 @@
         </is>
       </c>
       <c r="N276" t="n">
-        <v>521.2802852274671</v>
+        <v>577.2344962709292</v>
       </c>
       <c r="O276" t="n">
-        <v>525.6507407637022</v>
+        <v>582.6061380112081</v>
       </c>
     </row>
     <row r="277">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -9605,10 +9605,10 @@
         </is>
       </c>
       <c r="N277" t="n">
-        <v>524.04</v>
+        <v>582.6061380112081</v>
       </c>
       <c r="O277" t="n">
-        <v>533.52</v>
+        <v>582.6061380112081</v>
       </c>
     </row>
     <row r="278">
@@ -9629,19 +9629,19 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N278" t="n">
-        <v>524.2036891418156</v>
+        <v>582.6061380112081</v>
       </c>
       <c r="O278" t="n">
-        <v>524.2036891418156</v>
+        <v>592.0399150104051</v>
       </c>
     </row>
     <row r="279">
@@ -9662,19 +9662,19 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N279" t="n">
-        <v>524.2036891418156</v>
+        <v>583.52</v>
       </c>
       <c r="O279" t="n">
-        <v>548.1078790662692</v>
+        <v>583.52</v>
       </c>
     </row>
     <row r="280">
@@ -9695,19 +9695,19 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>525.6507407637022</v>
+        <v>583.52</v>
       </c>
       <c r="O280" t="n">
-        <v>525.6507407637022</v>
+        <v>583.52</v>
       </c>
     </row>
     <row r="281">
@@ -9728,19 +9728,19 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N281" t="n">
-        <v>525.6507407637022</v>
+        <v>583.52</v>
       </c>
       <c r="O281" t="n">
-        <v>530.2036891418156</v>
+        <v>603.52</v>
       </c>
     </row>
     <row r="282">
@@ -9761,19 +9761,19 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>530.2036891418156</v>
+        <v>583.7001698699012</v>
       </c>
       <c r="O282" t="n">
-        <v>537.4581518521167</v>
+        <v>583.7001698699012</v>
       </c>
     </row>
     <row r="283">
@@ -9794,19 +9794,19 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>531.52</v>
+        <v>583.7001698699012</v>
       </c>
       <c r="O283" t="n">
-        <v>542.1078790662692</v>
+        <v>607.3342427031434</v>
       </c>
     </row>
     <row r="284">
@@ -9827,19 +9827,19 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>531.6507407637022</v>
+        <v>586.0399150104051</v>
       </c>
       <c r="O284" t="n">
-        <v>544.3788454556375</v>
+        <v>586.0399150104051</v>
       </c>
     </row>
     <row r="285">
@@ -9860,19 +9860,19 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N285" t="n">
-        <v>533.52</v>
+        <v>586.0399150104051</v>
       </c>
       <c r="O285" t="n">
-        <v>533.52</v>
+        <v>620.5815485300478</v>
       </c>
     </row>
     <row r="286">
@@ -9893,19 +9893,19 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>533.52</v>
+        <v>588.6061380112081</v>
       </c>
       <c r="O286" t="n">
-        <v>533.52</v>
+        <v>601.3342427031434</v>
       </c>
     </row>
     <row r="287">
@@ -9926,7 +9926,7 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -9935,10 +9935,10 @@
         </is>
       </c>
       <c r="N287" t="n">
-        <v>533.52</v>
+        <v>592.0399150104051</v>
       </c>
       <c r="O287" t="n">
-        <v>553.52</v>
+        <v>599.941957135955</v>
       </c>
     </row>
     <row r="288">
@@ -9959,18 +9959,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N288" t="n">
-        <v>533.52</v>
-      </c>
-      <c r="O288" t="inlineStr"/>
+        <v>599.941957135955</v>
+      </c>
+      <c r="O288" t="n">
+        <v>599.941957135955</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9995,14 +9997,14 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N289" t="n">
-        <v>537.4581518521167</v>
+        <v>599.941957135955</v>
       </c>
       <c r="O289" t="n">
-        <v>537.4581518521167</v>
+        <v>637.1515485300479</v>
       </c>
     </row>
     <row r="290">
@@ -10023,19 +10025,19 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N290" t="n">
-        <v>537.4581518521167</v>
+        <v>601.3342427031434</v>
       </c>
       <c r="O290" t="n">
-        <v>564.6778790662693</v>
+        <v>601.3342427031434</v>
       </c>
     </row>
     <row r="291">
@@ -10056,19 +10058,19 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>542.1078790662692</v>
+        <v>601.3342427031434</v>
       </c>
       <c r="O291" t="n">
-        <v>542.1078790662692</v>
+        <v>605.941957135955</v>
       </c>
     </row>
     <row r="292">
@@ -10094,14 +10096,14 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N292" t="n">
-        <v>542.1078790662692</v>
+        <v>601.52</v>
       </c>
       <c r="O292" t="n">
-        <v>551.52</v>
+        <v>614.5815485300478</v>
       </c>
     </row>
     <row r="293">
@@ -10122,7 +10124,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -10131,10 +10133,10 @@
         </is>
       </c>
       <c r="N293" t="n">
-        <v>544.3788454556375</v>
+        <v>603.52</v>
       </c>
       <c r="O293" t="n">
-        <v>544.3788454556375</v>
+        <v>603.52</v>
       </c>
     </row>
     <row r="294">
@@ -10155,7 +10157,7 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -10164,10 +10166,10 @@
         </is>
       </c>
       <c r="N294" t="n">
-        <v>544.3788454556375</v>
+        <v>603.52</v>
       </c>
       <c r="O294" t="n">
-        <v>544.3788454556375</v>
+        <v>603.52</v>
       </c>
     </row>
     <row r="295">
@@ -10188,7 +10190,7 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -10197,10 +10199,10 @@
         </is>
       </c>
       <c r="N295" t="n">
-        <v>544.3788454556375</v>
+        <v>603.52</v>
       </c>
       <c r="O295" t="n">
-        <v>557.1069501475728</v>
+        <v>623.52</v>
       </c>
     </row>
     <row r="296">
@@ -10221,7 +10223,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
@@ -10230,10 +10232,10 @@
         </is>
       </c>
       <c r="N296" t="n">
-        <v>548.1078790662692</v>
+        <v>605.941957135955</v>
       </c>
       <c r="O296" t="n">
-        <v>558.6778790662693</v>
+        <v>618.6700618278903</v>
       </c>
     </row>
     <row r="297">
@@ -10254,7 +10256,7 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
@@ -10263,10 +10265,10 @@
         </is>
       </c>
       <c r="N297" t="n">
-        <v>551.52</v>
+        <v>607.3342427031434</v>
       </c>
       <c r="O297" t="n">
-        <v>557.143890895046</v>
+        <v>617.8542427031434</v>
       </c>
     </row>
     <row r="298">
@@ -10287,7 +10289,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
@@ -10296,10 +10298,10 @@
         </is>
       </c>
       <c r="N298" t="n">
-        <v>553.52</v>
+        <v>614.5815485300478</v>
       </c>
       <c r="O298" t="n">
-        <v>553.52</v>
+        <v>614.5815485300478</v>
       </c>
     </row>
     <row r="299">
@@ -10320,7 +10322,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
@@ -10329,10 +10331,10 @@
         </is>
       </c>
       <c r="N299" t="n">
-        <v>553.52</v>
+        <v>614.5815485300478</v>
       </c>
       <c r="O299" t="n">
-        <v>553.52</v>
+        <v>621.52</v>
       </c>
     </row>
     <row r="300">
@@ -10353,19 +10355,19 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N300" t="n">
-        <v>553.52</v>
+        <v>617.8542427031434</v>
       </c>
       <c r="O300" t="n">
-        <v>593.52</v>
+        <v>617.8542427031434</v>
       </c>
     </row>
     <row r="301">
@@ -10386,20 +10388,18 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>front</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N301" t="n">
-        <v>557.1069501475728</v>
-      </c>
-      <c r="O301" t="n">
-        <v>557.1069501475728</v>
-      </c>
+        <v>617.8542427031434</v>
+      </c>
+      <c r="O301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10424,14 +10424,14 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N302" t="n">
-        <v>557.1069501475728</v>
+        <v>618.6700618278903</v>
       </c>
       <c r="O302" t="n">
-        <v>579.2389140042561</v>
+        <v>618.6700618278903</v>
       </c>
     </row>
     <row r="303">
@@ -10452,19 +10452,19 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N303" t="n">
-        <v>557.143890895046</v>
+        <v>618.6700618278903</v>
       </c>
       <c r="O303" t="n">
-        <v>557.143890895046</v>
+        <v>649.6082322348689</v>
       </c>
     </row>
     <row r="304">
@@ -10485,19 +10485,19 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N304" t="n">
-        <v>557.143890895046</v>
+        <v>620.5815485300478</v>
       </c>
       <c r="O304" t="n">
-        <v>571.52</v>
+        <v>631.1515485300479</v>
       </c>
     </row>
     <row r="305">
@@ -10518,19 +10518,19 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N305" t="n">
-        <v>558.6778790662693</v>
+        <v>621.52</v>
       </c>
       <c r="O305" t="n">
-        <v>558.6778790662693</v>
+        <v>629.1075026983669</v>
       </c>
     </row>
     <row r="306">
@@ -10551,19 +10551,19 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N306" t="n">
-        <v>558.6778790662693</v>
+        <v>623.52</v>
       </c>
       <c r="O306" t="n">
-        <v>563.143890895046</v>
+        <v>623.52</v>
       </c>
     </row>
     <row r="307">
@@ -10584,19 +10584,19 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>563.143890895046</v>
+        <v>623.52</v>
       </c>
       <c r="O307" t="n">
-        <v>573.713890895046</v>
+        <v>623.52</v>
       </c>
     </row>
     <row r="308">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="N308" t="n">
-        <v>564.6778790662693</v>
+        <v>623.52</v>
       </c>
       <c r="O308" t="n">
-        <v>573.2389140042561</v>
+        <v>643.52</v>
       </c>
     </row>
     <row r="309">
@@ -10655,14 +10655,14 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N309" t="n">
-        <v>571.52</v>
+        <v>629.1075026983669</v>
       </c>
       <c r="O309" t="n">
-        <v>575.0617441515152</v>
+        <v>629.1075026983669</v>
       </c>
     </row>
     <row r="310">
@@ -10683,19 +10683,19 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N310" t="n">
-        <v>573.2389140042561</v>
+        <v>629.1075026983669</v>
       </c>
       <c r="O310" t="n">
-        <v>573.2389140042561</v>
+        <v>641.52</v>
       </c>
     </row>
     <row r="311">
@@ -10716,19 +10716,19 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N311" t="n">
-        <v>573.2389140042561</v>
+        <v>631.1515485300479</v>
       </c>
       <c r="O311" t="n">
-        <v>579.713890895046</v>
+        <v>631.1515485300479</v>
       </c>
     </row>
     <row r="312">
@@ -10754,14 +10754,14 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N312" t="n">
-        <v>573.713890895046</v>
+        <v>631.1515485300479</v>
       </c>
       <c r="O312" t="n">
-        <v>573.713890895046</v>
+        <v>635.1075026983669</v>
       </c>
     </row>
     <row r="313">
@@ -10787,14 +10787,14 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N313" t="n">
-        <v>573.713890895046</v>
+        <v>635.1075026983669</v>
       </c>
       <c r="O313" t="n">
-        <v>581.0617441515152</v>
+        <v>645.677502698367</v>
       </c>
     </row>
     <row r="314">
@@ -10815,19 +10815,19 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N314" t="n">
-        <v>575.0617441515152</v>
+        <v>637.1515485300479</v>
       </c>
       <c r="O314" t="n">
-        <v>575.0617441515152</v>
+        <v>643.6082322348689</v>
       </c>
     </row>
     <row r="315">
@@ -10853,14 +10853,14 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N315" t="n">
-        <v>575.0617441515152</v>
+        <v>641.52</v>
       </c>
       <c r="O315" t="n">
-        <v>611.52</v>
+        <v>647.4557920428897</v>
       </c>
     </row>
     <row r="316">
@@ -10881,19 +10881,19 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N316" t="n">
-        <v>579.2389140042561</v>
+        <v>643.52</v>
       </c>
       <c r="O316" t="n">
-        <v>591.9670186961914</v>
+        <v>643.52</v>
       </c>
     </row>
     <row r="317">
@@ -10914,19 +10914,19 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N317" t="n">
-        <v>579.713890895046</v>
+        <v>643.52</v>
       </c>
       <c r="O317" t="n">
-        <v>589.5673289684228</v>
+        <v>643.52</v>
       </c>
     </row>
     <row r="318">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
@@ -10956,10 +10956,10 @@
         </is>
       </c>
       <c r="N318" t="n">
-        <v>581.0617441515152</v>
+        <v>643.52</v>
       </c>
       <c r="O318" t="n">
-        <v>591.6317441515152</v>
+        <v>683.52</v>
       </c>
     </row>
     <row r="319">
@@ -10989,10 +10989,10 @@
         </is>
       </c>
       <c r="N319" t="n">
-        <v>589.5673289684228</v>
+        <v>643.6082322348689</v>
       </c>
       <c r="O319" t="n">
-        <v>589.5673289684228</v>
+        <v>643.6082322348689</v>
       </c>
     </row>
     <row r="320">
@@ -11022,10 +11022,10 @@
         </is>
       </c>
       <c r="N320" t="n">
-        <v>589.5673289684228</v>
+        <v>643.6082322348689</v>
       </c>
       <c r="O320" t="n">
-        <v>597.6317441515152</v>
+        <v>651.677502698367</v>
       </c>
     </row>
     <row r="321">
@@ -11055,10 +11055,10 @@
         </is>
       </c>
       <c r="N321" t="n">
-        <v>591.6317441515152</v>
+        <v>645.677502698367</v>
       </c>
       <c r="O321" t="n">
-        <v>591.6317441515152</v>
+        <v>645.677502698367</v>
       </c>
     </row>
     <row r="322">
@@ -11088,10 +11088,10 @@
         </is>
       </c>
       <c r="N322" t="n">
-        <v>591.6317441515152</v>
+        <v>645.677502698367</v>
       </c>
       <c r="O322" t="n">
-        <v>633.4717410301713</v>
+        <v>653.4557920428897</v>
       </c>
     </row>
     <row r="323">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
@@ -11121,10 +11121,10 @@
         </is>
       </c>
       <c r="N323" t="n">
-        <v>591.9670186961914</v>
+        <v>647.4557920428897</v>
       </c>
       <c r="O323" t="n">
-        <v>591.9670186961914</v>
+        <v>647.4557920428897</v>
       </c>
     </row>
     <row r="324">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
@@ -11154,10 +11154,10 @@
         </is>
       </c>
       <c r="N324" t="n">
-        <v>591.9670186961914</v>
+        <v>647.4557920428897</v>
       </c>
       <c r="O324" t="n">
-        <v>595.5673289684228</v>
+        <v>661.52</v>
       </c>
     </row>
     <row r="325">
@@ -11178,19 +11178,19 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N325" t="n">
-        <v>593.52</v>
+        <v>649.6082322348689</v>
       </c>
       <c r="O325" t="n">
-        <v>593.52</v>
+        <v>662.3363369268042</v>
       </c>
     </row>
     <row r="326">
@@ -11211,19 +11211,19 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N326" t="n">
-        <v>593.52</v>
+        <v>651.677502698367</v>
       </c>
       <c r="O326" t="n">
-        <v>593.52</v>
+        <v>664.0367981947805</v>
       </c>
     </row>
     <row r="327">
@@ -11244,7 +11244,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -11253,10 +11253,10 @@
         </is>
       </c>
       <c r="N327" t="n">
-        <v>593.52</v>
+        <v>653.4557920428897</v>
       </c>
       <c r="O327" t="n">
-        <v>613.52</v>
+        <v>664.0257920428897</v>
       </c>
     </row>
     <row r="328">
@@ -11277,7 +11277,7 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
@@ -11286,10 +11286,10 @@
         </is>
       </c>
       <c r="N328" t="n">
-        <v>595.5673289684228</v>
+        <v>661.52</v>
       </c>
       <c r="O328" t="n">
-        <v>608.2954336603581</v>
+        <v>680.8969562146793</v>
       </c>
     </row>
     <row r="329">
@@ -11310,19 +11310,19 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N329" t="n">
-        <v>597.6317441515152</v>
+        <v>662.3363369268042</v>
       </c>
       <c r="O329" t="n">
-        <v>602.7202129889785</v>
+        <v>662.3363369268042</v>
       </c>
     </row>
     <row r="330">
@@ -11343,19 +11343,19 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N330" t="n">
-        <v>602.7202129889785</v>
+        <v>662.3363369268042</v>
       </c>
       <c r="O330" t="n">
-        <v>602.7202129889785</v>
+        <v>670.0367981947805</v>
       </c>
     </row>
     <row r="331">
@@ -11376,19 +11376,19 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N331" t="n">
-        <v>602.7202129889785</v>
+        <v>664.0257920428897</v>
       </c>
       <c r="O331" t="n">
-        <v>650.0417410301714</v>
+        <v>664.0257920428897</v>
       </c>
     </row>
     <row r="332">
@@ -11409,19 +11409,19 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N332" t="n">
-        <v>608.2954336603581</v>
+        <v>664.0257920428897</v>
       </c>
       <c r="O332" t="n">
-        <v>608.2954336603581</v>
+        <v>686.8969562146793</v>
       </c>
     </row>
     <row r="333">
@@ -11442,19 +11442,19 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N333" t="n">
-        <v>608.2954336603581</v>
+        <v>664.0367981947805</v>
       </c>
       <c r="O333" t="n">
-        <v>608.7202129889785</v>
+        <v>664.0367981947805</v>
       </c>
     </row>
     <row r="334">
@@ -11475,19 +11475,19 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N334" t="n">
-        <v>608.7202129889785</v>
+        <v>664.0367981947805</v>
       </c>
       <c r="O334" t="n">
-        <v>621.4483176809138</v>
+        <v>670.0257920428897</v>
       </c>
     </row>
     <row r="335">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
@@ -11517,10 +11517,10 @@
         </is>
       </c>
       <c r="N335" t="n">
-        <v>611.52</v>
+        <v>670.0257920428897</v>
       </c>
       <c r="O335" t="n">
-        <v>627.4717410301713</v>
+        <v>684.4609337621465</v>
       </c>
     </row>
     <row r="336">
@@ -11541,19 +11541,19 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N336" t="n">
-        <v>613.52</v>
+        <v>670.0367981947805</v>
       </c>
       <c r="O336" t="n">
-        <v>613.52</v>
+        <v>682.7649028867158</v>
       </c>
     </row>
     <row r="337">
@@ -11574,19 +11574,19 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N337" t="n">
-        <v>613.52</v>
+        <v>680.8969562146793</v>
       </c>
       <c r="O337" t="n">
-        <v>613.52</v>
+        <v>680.8969562146793</v>
       </c>
     </row>
     <row r="338">
@@ -11607,19 +11607,19 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N338" t="n">
-        <v>613.52</v>
+        <v>680.8969562146793</v>
       </c>
       <c r="O338" t="n">
-        <v>653.52</v>
+        <v>701.52</v>
       </c>
     </row>
     <row r="339">
@@ -11649,10 +11649,10 @@
         </is>
       </c>
       <c r="N339" t="n">
-        <v>621.4483176809138</v>
+        <v>682.7649028867158</v>
       </c>
       <c r="O339" t="n">
-        <v>621.4483176809138</v>
+        <v>682.7649028867158</v>
       </c>
     </row>
     <row r="340">
@@ -11682,10 +11682,10 @@
         </is>
       </c>
       <c r="N340" t="n">
-        <v>621.4483176809138</v>
+        <v>682.7649028867158</v>
       </c>
       <c r="O340" t="n">
-        <v>660.7786284669228</v>
+        <v>690.4609337621465</v>
       </c>
     </row>
     <row r="341">
@@ -11706,7 +11706,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
@@ -11715,10 +11715,10 @@
         </is>
       </c>
       <c r="N341" t="n">
-        <v>627.4717410301713</v>
+        <v>683.52</v>
       </c>
       <c r="O341" t="n">
-        <v>627.4717410301713</v>
+        <v>683.52</v>
       </c>
     </row>
     <row r="342">
@@ -11739,7 +11739,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
@@ -11748,11 +11748,9 @@
         </is>
       </c>
       <c r="N342" t="n">
-        <v>627.4717410301713</v>
-      </c>
-      <c r="O342" t="n">
-        <v>631.52</v>
-      </c>
+        <v>683.52</v>
+      </c>
+      <c r="O342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11772,19 +11770,19 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N343" t="n">
-        <v>631.52</v>
+        <v>684.4609337621465</v>
       </c>
       <c r="O343" t="n">
-        <v>635.7464972746964</v>
+        <v>684.4609337621465</v>
       </c>
     </row>
     <row r="344">
@@ -11805,19 +11803,19 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N344" t="n">
-        <v>633.4717410301713</v>
+        <v>684.4609337621465</v>
       </c>
       <c r="O344" t="n">
-        <v>644.0417410301714</v>
+        <v>703.4669562146794</v>
       </c>
     </row>
     <row r="345">
@@ -11838,19 +11836,19 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N345" t="n">
-        <v>635.7464972746964</v>
+        <v>686.8969562146793</v>
       </c>
       <c r="O345" t="n">
-        <v>635.7464972746964</v>
+        <v>697.4669562146794</v>
       </c>
     </row>
     <row r="346">
@@ -11871,19 +11869,19 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N346" t="n">
-        <v>635.7464972746964</v>
+        <v>690.4609337621465</v>
       </c>
       <c r="O346" t="n">
-        <v>671.52</v>
+        <v>703.1890384540818</v>
       </c>
     </row>
     <row r="347">
@@ -11913,10 +11911,10 @@
         </is>
       </c>
       <c r="N347" t="n">
-        <v>644.0417410301714</v>
+        <v>697.4669562146794</v>
       </c>
       <c r="O347" t="n">
-        <v>644.0417410301714</v>
+        <v>697.4669562146794</v>
       </c>
     </row>
     <row r="348">
@@ -11946,10 +11944,10 @@
         </is>
       </c>
       <c r="N348" t="n">
-        <v>644.0417410301714</v>
+        <v>697.4669562146794</v>
       </c>
       <c r="O348" t="n">
-        <v>644.0417410301714</v>
+        <v>711.38076613406</v>
       </c>
     </row>
     <row r="349">
@@ -11970,7 +11968,7 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
@@ -11979,10 +11977,10 @@
         </is>
       </c>
       <c r="N349" t="n">
-        <v>644.0417410301714</v>
+        <v>701.52</v>
       </c>
       <c r="O349" t="n">
-        <v>654.6117410301714</v>
+        <v>705.38076613406</v>
       </c>
     </row>
     <row r="350">
@@ -12003,19 +12001,19 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N350" t="n">
-        <v>650.0417410301714</v>
+        <v>703.1890384540818</v>
       </c>
       <c r="O350" t="n">
-        <v>654.7786284669228</v>
+        <v>703.1890384540818</v>
       </c>
     </row>
     <row r="351">
@@ -12036,19 +12034,19 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N351" t="n">
-        <v>653.52</v>
+        <v>703.1890384540818</v>
       </c>
       <c r="O351" t="n">
-        <v>653.52</v>
+        <v>713.647915316012</v>
       </c>
     </row>
     <row r="352">
@@ -12069,18 +12067,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N352" t="n">
-        <v>653.52</v>
-      </c>
-      <c r="O352" t="inlineStr"/>
+        <v>703.4669562146794</v>
+      </c>
+      <c r="O352" t="n">
+        <v>707.647915316012</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -12100,7 +12100,7 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
@@ -12109,10 +12109,10 @@
         </is>
       </c>
       <c r="N353" t="n">
-        <v>654.6117410301714</v>
+        <v>705.38076613406</v>
       </c>
       <c r="O353" t="n">
-        <v>654.6117410301714</v>
+        <v>705.38076613406</v>
       </c>
     </row>
     <row r="354">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
@@ -12142,11 +12142,9 @@
         </is>
       </c>
       <c r="N354" t="n">
-        <v>654.6117410301714</v>
-      </c>
-      <c r="O354" t="n">
-        <v>718.1513352143463</v>
-      </c>
+        <v>705.38076613406</v>
+      </c>
+      <c r="O354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -12175,10 +12173,10 @@
         </is>
       </c>
       <c r="N355" t="n">
-        <v>654.7786284669228</v>
+        <v>707.647915316012</v>
       </c>
       <c r="O355" t="n">
-        <v>654.7786284669228</v>
+        <v>707.647915316012</v>
       </c>
     </row>
     <row r="356">
@@ -12208,10 +12206,10 @@
         </is>
       </c>
       <c r="N356" t="n">
-        <v>654.7786284669228</v>
+        <v>707.647915316012</v>
       </c>
       <c r="O356" t="n">
-        <v>660.6117410301714</v>
+        <v>727.95076613406</v>
       </c>
     </row>
     <row r="357">
@@ -12232,7 +12230,7 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
@@ -12241,10 +12239,10 @@
         </is>
       </c>
       <c r="N357" t="n">
-        <v>660.6117410301714</v>
+        <v>711.38076613406</v>
       </c>
       <c r="O357" t="n">
-        <v>676.5022217529639</v>
+        <v>721.95076613406</v>
       </c>
     </row>
     <row r="358">
@@ -12274,10 +12272,10 @@
         </is>
       </c>
       <c r="N358" t="n">
-        <v>660.7786284669228</v>
+        <v>713.647915316012</v>
       </c>
       <c r="O358" t="n">
-        <v>673.5067331588581</v>
+        <v>726.3760200079473</v>
       </c>
     </row>
     <row r="359">
@@ -12298,19 +12296,19 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N359" t="n">
-        <v>671.52</v>
+        <v>721.95076613406</v>
       </c>
       <c r="O359" t="n">
-        <v>712.1513352143463</v>
+        <v>721.95076613406</v>
       </c>
     </row>
     <row r="360">
@@ -12331,20 +12329,18 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>back</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N360" t="n">
-        <v>673.5067331588581</v>
-      </c>
-      <c r="O360" t="n">
-        <v>673.5067331588581</v>
-      </c>
+        <v>721.95076613406</v>
+      </c>
+      <c r="O360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -12369,14 +12365,14 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N361" t="n">
-        <v>673.5067331588581</v>
+        <v>726.3760200079473</v>
       </c>
       <c r="O361" t="n">
-        <v>682.5022217529639</v>
+        <v>726.3760200079473</v>
       </c>
     </row>
     <row r="362">
@@ -12397,19 +12393,19 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N362" t="n">
-        <v>676.5022217529639</v>
+        <v>726.3760200079473</v>
       </c>
       <c r="O362" t="n">
-        <v>676.5022217529639</v>
+        <v>743.5270732418149</v>
       </c>
     </row>
     <row r="363">
@@ -12435,14 +12431,14 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N363" t="n">
-        <v>676.5022217529639</v>
+        <v>727.95076613406</v>
       </c>
       <c r="O363" t="n">
-        <v>734.7213352143464</v>
+        <v>737.5270732418149</v>
       </c>
     </row>
     <row r="364">
@@ -12463,19 +12459,19 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Blocking</t>
         </is>
       </c>
       <c r="N364" t="n">
-        <v>682.5022217529639</v>
+        <v>737.5270732418149</v>
       </c>
       <c r="O364" t="n">
-        <v>695.2303264448992</v>
+        <v>737.5270732418149</v>
       </c>
     </row>
     <row r="365">
@@ -12496,20 +12492,18 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>press</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Blocking</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="N365" t="n">
-        <v>695.2303264448992</v>
-      </c>
-      <c r="O365" t="n">
-        <v>695.2303264448992</v>
-      </c>
+        <v>737.5270732418149</v>
+      </c>
+      <c r="O365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -12534,14 +12528,14 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="N366" t="n">
-        <v>695.2303264448992</v>
+        <v>743.5270732418149</v>
       </c>
       <c r="O366" t="n">
-        <v>745.4761957574073</v>
+        <v>756.2551779337502</v>
       </c>
     </row>
     <row r="367">
@@ -12562,7 +12556,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
@@ -12571,300 +12565,9 @@
         </is>
       </c>
       <c r="N367" t="n">
-        <v>712.1513352143463</v>
-      </c>
-      <c r="O367" t="n">
-        <v>712.1513352143463</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="inlineStr"/>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr"/>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr"/>
-      <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr"/>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>1</v>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>camera</t>
-        </is>
-      </c>
-      <c r="M368" t="inlineStr">
-        <is>
-          <t>Starving</t>
-        </is>
-      </c>
-      <c r="N368" t="n">
-        <v>712.1513352143463</v>
-      </c>
-      <c r="O368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="inlineStr"/>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr"/>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr"/>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>1</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>back</t>
-        </is>
-      </c>
-      <c r="M369" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="N369" t="n">
-        <v>718.1513352143463</v>
-      </c>
-      <c r="O369" t="n">
-        <v>728.7213352143464</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="inlineStr"/>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr"/>
-      <c r="E370" t="inlineStr"/>
-      <c r="F370" t="inlineStr"/>
-      <c r="G370" t="inlineStr"/>
-      <c r="H370" t="inlineStr"/>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>1</v>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>back</t>
-        </is>
-      </c>
-      <c r="M370" t="inlineStr">
-        <is>
-          <t>Blocking</t>
-        </is>
-      </c>
-      <c r="N370" t="n">
-        <v>728.7213352143464</v>
-      </c>
-      <c r="O370" t="n">
-        <v>728.7213352143464</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="inlineStr"/>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr"/>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr"/>
-      <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr"/>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>1</v>
-      </c>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>back</t>
-        </is>
-      </c>
-      <c r="M371" t="inlineStr">
-        <is>
-          <t>Starving</t>
-        </is>
-      </c>
-      <c r="N371" t="n">
-        <v>728.7213352143464</v>
-      </c>
-      <c r="O371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="inlineStr"/>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr"/>
-      <c r="E372" t="inlineStr"/>
-      <c r="F372" t="inlineStr"/>
-      <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr"/>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>1</v>
-      </c>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>press</t>
-        </is>
-      </c>
-      <c r="M372" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="N372" t="n">
-        <v>734.7213352143464</v>
-      </c>
-      <c r="O372" t="n">
-        <v>739.4761957574073</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="inlineStr"/>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
-      <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr"/>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>1</v>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>press</t>
-        </is>
-      </c>
-      <c r="M373" t="inlineStr">
-        <is>
-          <t>Blocking</t>
-        </is>
-      </c>
-      <c r="N373" t="n">
-        <v>739.4761957574073</v>
-      </c>
-      <c r="O373" t="n">
-        <v>739.4761957574073</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="inlineStr"/>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr"/>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr"/>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>1</v>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>press</t>
-        </is>
-      </c>
-      <c r="M374" t="inlineStr">
-        <is>
-          <t>Starving</t>
-        </is>
-      </c>
-      <c r="N374" t="n">
-        <v>739.4761957574073</v>
-      </c>
-      <c r="O374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="inlineStr"/>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr"/>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
-      <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr"/>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>1</v>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="M375" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="N375" t="n">
-        <v>745.4761957574073</v>
-      </c>
-      <c r="O375" t="n">
-        <v>758.2043004493426</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="inlineStr"/>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr"/>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>1</v>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="M376" t="inlineStr">
-        <is>
-          <t>Blocking</t>
-        </is>
-      </c>
-      <c r="N376" t="n">
-        <v>758.2043004493426</v>
-      </c>
-      <c r="O376" t="inlineStr"/>
+        <v>756.2551779337502</v>
+      </c>
+      <c r="O367" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
